--- a/Y_pred.xlsx
+++ b/Y_pred.xlsx
@@ -930,7 +930,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -2575,7 +2575,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430">
@@ -5010,7 +5010,7 @@
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -5815,7 +5815,7 @@
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1078">
@@ -5960,7 +5960,7 @@
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1107">
@@ -6020,7 +6020,7 @@
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119">
@@ -6105,7 +6105,7 @@
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1136">
@@ -7210,7 +7210,7 @@
     </row>
     <row r="1356">
       <c r="A1356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1357">
@@ -9490,7 +9490,7 @@
     </row>
     <row r="1812">
       <c r="A1812" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1813">
@@ -9980,7 +9980,7 @@
     </row>
     <row r="1910">
       <c r="A1910" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1911">
@@ -12150,7 +12150,7 @@
     </row>
     <row r="2344">
       <c r="A2344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2345">
@@ -12515,7 +12515,7 @@
     </row>
     <row r="2417">
       <c r="A2417" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2418">
@@ -14545,7 +14545,7 @@
     </row>
     <row r="2823">
       <c r="A2823" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -16355,7 +16355,7 @@
     </row>
     <row r="3185">
       <c r="A3185" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3186">
@@ -18235,7 +18235,7 @@
     </row>
     <row r="3561">
       <c r="A3561" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3562">
@@ -18510,7 +18510,7 @@
     </row>
     <row r="3616">
       <c r="A3616" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3617">
@@ -18850,7 +18850,7 @@
     </row>
     <row r="3684">
       <c r="A3684" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3685">
@@ -20075,7 +20075,7 @@
     </row>
     <row r="3929">
       <c r="A3929" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3930">
@@ -22330,7 +22330,7 @@
     </row>
     <row r="4380">
       <c r="A4380" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4381">
@@ -22865,7 +22865,7 @@
     </row>
     <row r="4487">
       <c r="A4487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4488">
@@ -24555,7 +24555,7 @@
     </row>
     <row r="4825">
       <c r="A4825" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4826">
@@ -26320,7 +26320,7 @@
     </row>
     <row r="5178">
       <c r="A5178" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5179">
@@ -27330,7 +27330,7 @@
     </row>
     <row r="5380">
       <c r="A5380" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5381">
@@ -27365,7 +27365,7 @@
     </row>
     <row r="5387">
       <c r="A5387" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5388">
@@ -28450,7 +28450,7 @@
     </row>
     <row r="5604">
       <c r="A5604" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5605">
@@ -28540,7 +28540,7 @@
     </row>
     <row r="5622">
       <c r="A5622" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5623">
@@ -29795,7 +29795,7 @@
     </row>
     <row r="5873">
       <c r="A5873" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5874">
@@ -30395,7 +30395,7 @@
     </row>
     <row r="5993">
       <c r="A5993" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5994">
@@ -32855,7 +32855,7 @@
     </row>
     <row r="6485">
       <c r="A6485" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6486">
@@ -32960,7 +32960,7 @@
     </row>
     <row r="6506">
       <c r="A6506" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6507">
@@ -33900,7 +33900,7 @@
     </row>
     <row r="6694">
       <c r="A6694" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6695">
@@ -35670,7 +35670,7 @@
     </row>
     <row r="7048">
       <c r="A7048" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7049">
@@ -36300,7 +36300,7 @@
     </row>
     <row r="7174">
       <c r="A7174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7175">
@@ -38085,7 +38085,7 @@
     </row>
     <row r="7531">
       <c r="A7531" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7532">
@@ -38525,7 +38525,7 @@
     </row>
     <row r="7619">
       <c r="A7619" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7620">
@@ -38675,7 +38675,7 @@
     </row>
     <row r="7649">
       <c r="A7649" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7650">
@@ -40205,7 +40205,7 @@
     </row>
     <row r="7955">
       <c r="A7955" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7956">
@@ -41310,7 +41310,7 @@
     </row>
     <row r="8176">
       <c r="A8176" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8177">
@@ -41610,7 +41610,7 @@
     </row>
     <row r="8236">
       <c r="A8236" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8237">
@@ -41905,7 +41905,7 @@
     </row>
     <row r="8295">
       <c r="A8295" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8296">
@@ -42245,7 +42245,7 @@
     </row>
     <row r="8363">
       <c r="A8363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8364">
@@ -42560,7 +42560,7 @@
     </row>
     <row r="8426">
       <c r="A8426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8427">
@@ -42605,7 +42605,7 @@
     </row>
     <row r="8435">
       <c r="A8435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8436">

--- a/Y_pred.xlsx
+++ b/Y_pred.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +455,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +480,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -600,7 +600,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -695,7 +695,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -830,7 +830,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -870,7 +870,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -970,7 +970,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1065,7 +1065,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1490,7 +1490,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213">
@@ -1520,7 +1520,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -1565,7 +1565,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -1860,7 +1860,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287">
@@ -2235,7 +2235,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="362">
@@ -2250,7 +2250,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -2515,7 +2515,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="418">
@@ -3430,7 +3430,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -3750,7 +3750,7 @@
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
@@ -3785,7 +3785,7 @@
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
@@ -4075,12 +4075,12 @@
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731">
@@ -4630,7 +4630,7 @@
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="841">
@@ -4850,7 +4850,7 @@
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885">
@@ -5815,7 +5815,7 @@
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1078">
@@ -6055,7 +6055,7 @@
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1126">
@@ -6105,7 +6105,7 @@
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136">
@@ -6645,7 +6645,7 @@
     </row>
     <row r="1243">
       <c r="A1243" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1244">
@@ -6655,7 +6655,7 @@
     </row>
     <row r="1245">
       <c r="A1245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246">
@@ -6805,7 +6805,7 @@
     </row>
     <row r="1275">
       <c r="A1275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1276">
@@ -6885,7 +6885,7 @@
     </row>
     <row r="1291">
       <c r="A1291" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1292">
@@ -6995,7 +6995,7 @@
     </row>
     <row r="1313">
       <c r="A1313" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1314">
@@ -7205,12 +7205,12 @@
     </row>
     <row r="1355">
       <c r="A1355" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
       <c r="A1356" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1357">
@@ -7590,7 +7590,7 @@
     </row>
     <row r="1432">
       <c r="A1432" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1433">
@@ -8415,7 +8415,7 @@
     </row>
     <row r="1597">
       <c r="A1597" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1598">
@@ -8595,7 +8595,7 @@
     </row>
     <row r="1633">
       <c r="A1633" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1634">
@@ -8650,7 +8650,7 @@
     </row>
     <row r="1644">
       <c r="A1644" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1645">
@@ -8690,7 +8690,7 @@
     </row>
     <row r="1652">
       <c r="A1652" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1653">
@@ -9145,7 +9145,7 @@
     </row>
     <row r="1743">
       <c r="A1743" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1744">
@@ -9315,12 +9315,12 @@
     </row>
     <row r="1777">
       <c r="A1777" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1778">
       <c r="A1778" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1779">
@@ -9465,7 +9465,7 @@
     </row>
     <row r="1807">
       <c r="A1807" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1808">
@@ -9490,7 +9490,7 @@
     </row>
     <row r="1812">
       <c r="A1812" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1813">
@@ -9575,7 +9575,7 @@
     </row>
     <row r="1829">
       <c r="A1829" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1830">
@@ -9610,7 +9610,7 @@
     </row>
     <row r="1836">
       <c r="A1836" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1837">
@@ -9660,7 +9660,7 @@
     </row>
     <row r="1846">
       <c r="A1846" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1847">
@@ -9760,7 +9760,7 @@
     </row>
     <row r="1866">
       <c r="A1866" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1867">
@@ -9980,7 +9980,7 @@
     </row>
     <row r="1910">
       <c r="A1910" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1911">
@@ -10060,7 +10060,7 @@
     </row>
     <row r="1926">
       <c r="A1926" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1927">
@@ -10615,7 +10615,7 @@
     </row>
     <row r="2037">
       <c r="A2037" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2038">
@@ -10845,7 +10845,7 @@
     </row>
     <row r="2083">
       <c r="A2083" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2084">
@@ -11425,7 +11425,7 @@
     </row>
     <row r="2199">
       <c r="A2199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2200">
@@ -11665,7 +11665,7 @@
     </row>
     <row r="2247">
       <c r="A2247" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2248">
@@ -11875,7 +11875,7 @@
     </row>
     <row r="2289">
       <c r="A2289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2290">
@@ -12000,7 +12000,7 @@
     </row>
     <row r="2314">
       <c r="A2314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2315">
@@ -12080,7 +12080,7 @@
     </row>
     <row r="2330">
       <c r="A2330" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2331">
@@ -12165,7 +12165,7 @@
     </row>
     <row r="2347">
       <c r="A2347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2348">
@@ -12325,7 +12325,7 @@
     </row>
     <row r="2379">
       <c r="A2379" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2380">
@@ -12370,7 +12370,7 @@
     </row>
     <row r="2388">
       <c r="A2388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2389">
@@ -12395,7 +12395,7 @@
     </row>
     <row r="2393">
       <c r="A2393" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2394">
@@ -12515,7 +12515,7 @@
     </row>
     <row r="2417">
       <c r="A2417" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2418">
@@ -12540,7 +12540,7 @@
     </row>
     <row r="2422">
       <c r="A2422" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2423">
@@ -13885,7 +13885,7 @@
     </row>
     <row r="2691">
       <c r="A2691" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2692">
@@ -13910,7 +13910,7 @@
     </row>
     <row r="2696">
       <c r="A2696" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2697">
@@ -14165,7 +14165,7 @@
     </row>
     <row r="2747">
       <c r="A2747" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2748">
@@ -14195,7 +14195,7 @@
     </row>
     <row r="2753">
       <c r="A2753" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2754">
@@ -14215,7 +14215,7 @@
     </row>
     <row r="2757">
       <c r="A2757" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2758">
@@ -14245,7 +14245,7 @@
     </row>
     <row r="2763">
       <c r="A2763" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2764">
@@ -14590,7 +14590,7 @@
     </row>
     <row r="2832">
       <c r="A2832" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2833">
@@ -14750,7 +14750,7 @@
     </row>
     <row r="2864">
       <c r="A2864" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2865">
@@ -14775,7 +14775,7 @@
     </row>
     <row r="2869">
       <c r="A2869" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2870">
@@ -15025,7 +15025,7 @@
     </row>
     <row r="2919">
       <c r="A2919" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2920">
@@ -15090,7 +15090,7 @@
     </row>
     <row r="2932">
       <c r="A2932" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2933">
@@ -15470,7 +15470,7 @@
     </row>
     <row r="3008">
       <c r="A3008" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3009">
@@ -15975,7 +15975,7 @@
     </row>
     <row r="3109">
       <c r="A3109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3110">
@@ -16150,7 +16150,7 @@
     </row>
     <row r="3144">
       <c r="A3144" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3145">
@@ -16230,7 +16230,7 @@
     </row>
     <row r="3160">
       <c r="A3160" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3161">
@@ -16435,7 +16435,7 @@
     </row>
     <row r="3201">
       <c r="A3201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3202">
@@ -16550,7 +16550,7 @@
     </row>
     <row r="3224">
       <c r="A3224" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3225">
@@ -16730,7 +16730,7 @@
     </row>
     <row r="3260">
       <c r="A3260" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3261">
@@ -16990,7 +16990,7 @@
     </row>
     <row r="3312">
       <c r="A3312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3313">
@@ -17425,7 +17425,7 @@
     </row>
     <row r="3399">
       <c r="A3399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3400">
@@ -17620,7 +17620,7 @@
     </row>
     <row r="3438">
       <c r="A3438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3439">
@@ -17725,12 +17725,12 @@
     </row>
     <row r="3459">
       <c r="A3459" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3460">
       <c r="A3460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3461">
@@ -18210,7 +18210,7 @@
     </row>
     <row r="3556">
       <c r="A3556" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3557">
@@ -18430,7 +18430,7 @@
     </row>
     <row r="3600">
       <c r="A3600" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3601">
@@ -18510,7 +18510,7 @@
     </row>
     <row r="3616">
       <c r="A3616" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3617">
@@ -18850,7 +18850,7 @@
     </row>
     <row r="3684">
       <c r="A3684" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3685">
@@ -18895,7 +18895,7 @@
     </row>
     <row r="3693">
       <c r="A3693" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3694">
@@ -18940,7 +18940,7 @@
     </row>
     <row r="3702">
       <c r="A3702" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3703">
@@ -19415,7 +19415,7 @@
     </row>
     <row r="3797">
       <c r="A3797" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3798">
@@ -19630,7 +19630,7 @@
     </row>
     <row r="3840">
       <c r="A3840" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3841">
@@ -19760,7 +19760,7 @@
     </row>
     <row r="3866">
       <c r="A3866" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3867">
@@ -20030,7 +20030,7 @@
     </row>
     <row r="3920">
       <c r="A3920" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3921">
@@ -20075,7 +20075,7 @@
     </row>
     <row r="3929">
       <c r="A3929" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3930">
@@ -20610,7 +20610,7 @@
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4037">
@@ -21375,7 +21375,7 @@
     </row>
     <row r="4189">
       <c r="A4189" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4190">
@@ -21390,7 +21390,7 @@
     </row>
     <row r="4192">
       <c r="A4192" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4193">
@@ -21590,7 +21590,7 @@
     </row>
     <row r="4232">
       <c r="A4232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4233">
@@ -21635,7 +21635,7 @@
     </row>
     <row r="4241">
       <c r="A4241" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4242">
@@ -21655,7 +21655,7 @@
     </row>
     <row r="4245">
       <c r="A4245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4246">
@@ -21885,7 +21885,7 @@
     </row>
     <row r="4291">
       <c r="A4291" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4292">
@@ -21900,7 +21900,7 @@
     </row>
     <row r="4294">
       <c r="A4294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4295">
@@ -22000,7 +22000,7 @@
     </row>
     <row r="4314">
       <c r="A4314" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4315">
@@ -22270,7 +22270,7 @@
     </row>
     <row r="4368">
       <c r="A4368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4369">
@@ -22330,7 +22330,7 @@
     </row>
     <row r="4380">
       <c r="A4380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4381">
@@ -22625,7 +22625,7 @@
     </row>
     <row r="4439">
       <c r="A4439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4440">
@@ -22655,7 +22655,7 @@
     </row>
     <row r="4445">
       <c r="A4445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4446">
@@ -22695,7 +22695,7 @@
     </row>
     <row r="4453">
       <c r="A4453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4454">
@@ -22740,7 +22740,7 @@
     </row>
     <row r="4462">
       <c r="A4462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4463">
@@ -22865,7 +22865,7 @@
     </row>
     <row r="4487">
       <c r="A4487" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4488">
@@ -24050,7 +24050,7 @@
     </row>
     <row r="4724">
       <c r="A4724" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4725">
@@ -24265,7 +24265,7 @@
     </row>
     <row r="4767">
       <c r="A4767" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4768">
@@ -24625,7 +24625,7 @@
     </row>
     <row r="4839">
       <c r="A4839" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4840">
@@ -24970,7 +24970,7 @@
     </row>
     <row r="4908">
       <c r="A4908" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4909">
@@ -24995,7 +24995,7 @@
     </row>
     <row r="4913">
       <c r="A4913" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4914">
@@ -25225,7 +25225,7 @@
     </row>
     <row r="4959">
       <c r="A4959" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4960">
@@ -25305,7 +25305,7 @@
     </row>
     <row r="4975">
       <c r="A4975" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4976">
@@ -25835,7 +25835,7 @@
     </row>
     <row r="5081">
       <c r="A5081" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5082">
@@ -26050,7 +26050,7 @@
     </row>
     <row r="5124">
       <c r="A5124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5125">
@@ -26210,7 +26210,7 @@
     </row>
     <row r="5156">
       <c r="A5156" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5157">
@@ -26245,7 +26245,7 @@
     </row>
     <row r="5163">
       <c r="A5163" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5164">
@@ -26320,7 +26320,7 @@
     </row>
     <row r="5178">
       <c r="A5178" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5179">
@@ -26330,7 +26330,7 @@
     </row>
     <row r="5180">
       <c r="A5180" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5181">
@@ -26400,7 +26400,7 @@
     </row>
     <row r="5194">
       <c r="A5194" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5195">
@@ -26445,7 +26445,7 @@
     </row>
     <row r="5203">
       <c r="A5203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5204">
@@ -26910,7 +26910,7 @@
     </row>
     <row r="5296">
       <c r="A5296" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5297">
@@ -27330,7 +27330,7 @@
     </row>
     <row r="5380">
       <c r="A5380" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5381">
@@ -27365,7 +27365,7 @@
     </row>
     <row r="5387">
       <c r="A5387" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5388">
@@ -27570,7 +27570,7 @@
     </row>
     <row r="5428">
       <c r="A5428" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5429">
@@ -27680,7 +27680,7 @@
     </row>
     <row r="5450">
       <c r="A5450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5451">
@@ -27965,7 +27965,7 @@
     </row>
     <row r="5507">
       <c r="A5507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5508">
@@ -28005,7 +28005,7 @@
     </row>
     <row r="5515">
       <c r="A5515" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5516">
@@ -28065,7 +28065,7 @@
     </row>
     <row r="5527">
       <c r="A5527" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5528">
@@ -28155,7 +28155,7 @@
     </row>
     <row r="5545">
       <c r="A5545" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5546">
@@ -28450,7 +28450,7 @@
     </row>
     <row r="5604">
       <c r="A5604" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5605">
@@ -28540,7 +28540,7 @@
     </row>
     <row r="5622">
       <c r="A5622" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5623">
@@ -28645,7 +28645,7 @@
     </row>
     <row r="5643">
       <c r="A5643" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5644">
@@ -29010,7 +29010,7 @@
     </row>
     <row r="5716">
       <c r="A5716" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5717">
@@ -29115,7 +29115,7 @@
     </row>
     <row r="5737">
       <c r="A5737" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5738">
@@ -29465,7 +29465,7 @@
     </row>
     <row r="5807">
       <c r="A5807" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5808">
@@ -29515,7 +29515,7 @@
     </row>
     <row r="5817">
       <c r="A5817" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5818">
@@ -29600,7 +29600,7 @@
     </row>
     <row r="5834">
       <c r="A5834" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5835">
@@ -29775,7 +29775,7 @@
     </row>
     <row r="5869">
       <c r="A5869" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5870">
@@ -29795,7 +29795,7 @@
     </row>
     <row r="5873">
       <c r="A5873" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5874">
@@ -30005,7 +30005,7 @@
     </row>
     <row r="5915">
       <c r="A5915" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5916">
@@ -30165,7 +30165,7 @@
     </row>
     <row r="5947">
       <c r="A5947" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5948">
@@ -30395,7 +30395,7 @@
     </row>
     <row r="5993">
       <c r="A5993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5994">
@@ -30580,7 +30580,7 @@
     </row>
     <row r="6030">
       <c r="A6030" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6031">
@@ -30860,7 +30860,7 @@
     </row>
     <row r="6086">
       <c r="A6086" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6087">
@@ -30965,7 +30965,7 @@
     </row>
     <row r="6107">
       <c r="A6107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6108">
@@ -31110,7 +31110,7 @@
     </row>
     <row r="6136">
       <c r="A6136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6137">
@@ -31280,12 +31280,12 @@
     </row>
     <row r="6170">
       <c r="A6170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6171">
       <c r="A6171" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6172">
@@ -31300,7 +31300,7 @@
     </row>
     <row r="6174">
       <c r="A6174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6175">
@@ -31415,7 +31415,7 @@
     </row>
     <row r="6197">
       <c r="A6197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6198">
@@ -31645,7 +31645,7 @@
     </row>
     <row r="6243">
       <c r="A6243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6244">
@@ -31710,7 +31710,7 @@
     </row>
     <row r="6256">
       <c r="A6256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6257">
@@ -32310,7 +32310,7 @@
     </row>
     <row r="6376">
       <c r="A6376" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6377">
@@ -32465,7 +32465,7 @@
     </row>
     <row r="6407">
       <c r="A6407" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6408">
@@ -32890,7 +32890,7 @@
     </row>
     <row r="6492">
       <c r="A6492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6493">
@@ -33685,12 +33685,12 @@
     </row>
     <row r="6651">
       <c r="A6651" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6652">
       <c r="A6652" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6653">
@@ -33900,7 +33900,7 @@
     </row>
     <row r="6694">
       <c r="A6694" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6695">
@@ -34335,7 +34335,7 @@
     </row>
     <row r="6781">
       <c r="A6781" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6782">
@@ -34420,7 +34420,7 @@
     </row>
     <row r="6798">
       <c r="A6798" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6799">
@@ -34860,7 +34860,7 @@
     </row>
     <row r="6886">
       <c r="A6886" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6887">
@@ -35025,7 +35025,7 @@
     </row>
     <row r="6919">
       <c r="A6919" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6920">
@@ -35225,7 +35225,7 @@
     </row>
     <row r="6959">
       <c r="A6959" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6960">
@@ -35380,7 +35380,7 @@
     </row>
     <row r="6990">
       <c r="A6990" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6991">
@@ -35420,7 +35420,7 @@
     </row>
     <row r="6998">
       <c r="A6998" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6999">
@@ -35520,7 +35520,7 @@
     </row>
     <row r="7018">
       <c r="A7018" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7019">
@@ -35585,7 +35585,7 @@
     </row>
     <row r="7031">
       <c r="A7031" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7032">
@@ -35670,7 +35670,7 @@
     </row>
     <row r="7048">
       <c r="A7048" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7049">
@@ -35900,7 +35900,7 @@
     </row>
     <row r="7094">
       <c r="A7094" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7095">
@@ -36110,7 +36110,7 @@
     </row>
     <row r="7136">
       <c r="A7136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7137">
@@ -36625,7 +36625,7 @@
     </row>
     <row r="7239">
       <c r="A7239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7240">
@@ -36650,7 +36650,7 @@
     </row>
     <row r="7244">
       <c r="A7244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7245">
@@ -36775,7 +36775,7 @@
     </row>
     <row r="7269">
       <c r="A7269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7270">
@@ -36895,7 +36895,7 @@
     </row>
     <row r="7293">
       <c r="A7293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7294">
@@ -37265,7 +37265,7 @@
     </row>
     <row r="7367">
       <c r="A7367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7368">
@@ -37655,7 +37655,7 @@
     </row>
     <row r="7445">
       <c r="A7445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7446">
@@ -38040,7 +38040,7 @@
     </row>
     <row r="7522">
       <c r="A7522" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7523">
@@ -38345,7 +38345,7 @@
     </row>
     <row r="7583">
       <c r="A7583" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7584">
@@ -38525,7 +38525,7 @@
     </row>
     <row r="7619">
       <c r="A7619" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7620">
@@ -38885,7 +38885,7 @@
     </row>
     <row r="7691">
       <c r="A7691" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7692">
@@ -39135,7 +39135,7 @@
     </row>
     <row r="7741">
       <c r="A7741" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7742">
@@ -39345,7 +39345,7 @@
     </row>
     <row r="7783">
       <c r="A7783" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7784">
@@ -39715,7 +39715,7 @@
     </row>
     <row r="7857">
       <c r="A7857" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7858">
@@ -40025,7 +40025,7 @@
     </row>
     <row r="7919">
       <c r="A7919" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7920">
@@ -40140,7 +40140,7 @@
     </row>
     <row r="7942">
       <c r="A7942" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7943">
@@ -40175,7 +40175,7 @@
     </row>
     <row r="7949">
       <c r="A7949" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7950">
@@ -40565,7 +40565,7 @@
     </row>
     <row r="8027">
       <c r="A8027" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8028">
@@ -40710,7 +40710,7 @@
     </row>
     <row r="8056">
       <c r="A8056" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8057">
@@ -40885,7 +40885,7 @@
     </row>
     <row r="8091">
       <c r="A8091" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8092">
@@ -40895,7 +40895,7 @@
     </row>
     <row r="8093">
       <c r="A8093" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8094">
@@ -40925,7 +40925,7 @@
     </row>
     <row r="8099">
       <c r="A8099" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8100">
@@ -41095,7 +41095,7 @@
     </row>
     <row r="8133">
       <c r="A8133" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8134">
@@ -41150,7 +41150,7 @@
     </row>
     <row r="8144">
       <c r="A8144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8145">
@@ -41215,7 +41215,7 @@
     </row>
     <row r="8157">
       <c r="A8157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8158">
@@ -41235,7 +41235,7 @@
     </row>
     <row r="8161">
       <c r="A8161" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8162">
@@ -41310,7 +41310,7 @@
     </row>
     <row r="8176">
       <c r="A8176" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8177">
@@ -41610,7 +41610,7 @@
     </row>
     <row r="8236">
       <c r="A8236" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8237">
@@ -41905,7 +41905,7 @@
     </row>
     <row r="8295">
       <c r="A8295" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8296">
@@ -42260,7 +42260,7 @@
     </row>
     <row r="8366">
       <c r="A8366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8367">
@@ -42320,7 +42320,7 @@
     </row>
     <row r="8378">
       <c r="A8378" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8379">
@@ -42485,7 +42485,7 @@
     </row>
     <row r="8411">
       <c r="A8411" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8412">
@@ -42605,7 +42605,7 @@
     </row>
     <row r="8435">
       <c r="A8435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8436">
@@ -42685,7 +42685,7 @@
     </row>
     <row r="8451">
       <c r="A8451" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8452">
@@ -42775,7 +42775,7 @@
     </row>
     <row r="8469">
       <c r="A8469" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8470">
@@ -42815,7 +42815,7 @@
     </row>
     <row r="8477">
       <c r="A8477" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8478">
@@ -43280,7 +43280,7 @@
     </row>
     <row r="8570">
       <c r="A8570" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8571">
@@ -43625,7 +43625,7 @@
     </row>
     <row r="8639">
       <c r="A8639" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8640">
@@ -43665,7 +43665,7 @@
     </row>
     <row r="8647">
       <c r="A8647" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8648">
@@ -43740,7 +43740,7 @@
     </row>
     <row r="8662">
       <c r="A8662" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8663">
@@ -43925,7 +43925,7 @@
     </row>
     <row r="8699">
       <c r="A8699" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8700">
@@ -44065,7 +44065,7 @@
     </row>
     <row r="8727">
       <c r="A8727" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8728">
@@ -44285,7 +44285,7 @@
     </row>
     <row r="8771">
       <c r="A8771" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8772">

--- a/Y_pred.xlsx
+++ b/Y_pred.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Y_pred.xlsx
+++ b/Y_pred.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,12 +455,12 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -480,7 +480,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +520,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -530,12 +530,12 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -600,7 +600,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -620,7 +620,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -645,7 +645,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -715,7 +715,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -780,7 +780,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -805,7 +805,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -820,7 +820,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -830,7 +830,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -845,7 +845,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -870,7 +870,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -965,12 +965,12 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -990,7 +990,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -1000,7 +1000,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1010,7 +1010,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
@@ -1055,7 +1055,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -1065,7 +1065,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -1150,7 +1150,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145">
@@ -1195,7 +1195,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -1220,7 +1220,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -1305,7 +1305,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -1345,7 +1345,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -1405,7 +1405,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -1435,17 +1435,17 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -1475,7 +1475,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -1490,7 +1490,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -1565,7 +1565,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -1705,7 +1705,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256">
@@ -1725,7 +1725,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260">
@@ -1755,7 +1755,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -1765,7 +1765,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -1825,7 +1825,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -1855,7 +1855,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="286">
@@ -1885,7 +1885,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -2010,7 +2010,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -2150,7 +2150,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -2165,12 +2165,12 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -2220,7 +2220,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -2235,7 +2235,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362">
@@ -2250,7 +2250,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365">
@@ -2300,7 +2300,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375">
@@ -2350,7 +2350,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -2425,7 +2425,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400">
@@ -2465,7 +2465,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408">
@@ -2515,7 +2515,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -2525,7 +2525,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="420">
@@ -2575,7 +2575,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -2595,7 +2595,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434">
@@ -2720,7 +2720,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459">
@@ -2765,12 +2765,12 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469">
@@ -2850,7 +2850,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485">
@@ -2905,7 +2905,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496">
@@ -3085,7 +3085,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -3140,12 +3140,12 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -3430,7 +3430,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="601">
@@ -3530,7 +3530,7 @@
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -3585,7 +3585,7 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632">
@@ -3620,12 +3620,12 @@
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640">
@@ -3675,7 +3675,7 @@
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="650">
@@ -3745,7 +3745,7 @@
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664">
@@ -3755,7 +3755,7 @@
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="666">
@@ -3785,7 +3785,7 @@
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672">
@@ -3935,12 +3935,12 @@
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703">
@@ -3985,7 +3985,7 @@
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="712">
@@ -4000,7 +4000,7 @@
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715">
@@ -4080,7 +4080,7 @@
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="731">
@@ -4115,7 +4115,7 @@
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="738">
@@ -4195,7 +4195,7 @@
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754">
@@ -4345,7 +4345,7 @@
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784">
@@ -4435,7 +4435,7 @@
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="802">
@@ -4450,7 +4450,7 @@
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805">
@@ -4480,7 +4480,7 @@
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="811">
@@ -4510,7 +4510,7 @@
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817">
@@ -4530,7 +4530,7 @@
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821">
@@ -4545,7 +4545,7 @@
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824">
@@ -4630,12 +4630,12 @@
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842">
@@ -4665,12 +4665,12 @@
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="849">
@@ -4695,7 +4695,7 @@
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854">
@@ -4770,7 +4770,7 @@
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869">
@@ -4850,7 +4850,7 @@
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="885">
@@ -4860,7 +4860,7 @@
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -4945,7 +4945,7 @@
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="904">
@@ -4960,7 +4960,7 @@
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907">
@@ -4995,7 +4995,7 @@
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914">
@@ -5010,7 +5010,7 @@
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917">
@@ -5050,7 +5050,7 @@
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -5075,7 +5075,7 @@
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930">
@@ -5115,7 +5115,7 @@
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938">
@@ -5275,12 +5275,12 @@
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -5290,7 +5290,7 @@
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -5350,7 +5350,7 @@
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985">
@@ -5370,7 +5370,7 @@
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -5440,7 +5440,7 @@
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -5450,7 +5450,7 @@
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005">
@@ -5520,7 +5520,7 @@
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1019">
@@ -5620,7 +5620,7 @@
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1039">
@@ -5725,7 +5725,7 @@
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -5815,7 +5815,7 @@
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078">
@@ -5960,7 +5960,7 @@
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1107">
@@ -5985,17 +5985,17 @@
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1114">
@@ -6015,7 +6015,7 @@
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1118">
@@ -6025,7 +6025,7 @@
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1120">
@@ -6055,7 +6055,7 @@
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1126">
@@ -6095,7 +6095,7 @@
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1134">
@@ -6105,7 +6105,7 @@
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136">
@@ -6270,7 +6270,7 @@
     </row>
     <row r="1168">
       <c r="A1168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169">
@@ -6295,12 +6295,12 @@
     </row>
     <row r="1173">
       <c r="A1173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1175">
@@ -6450,7 +6450,7 @@
     </row>
     <row r="1204">
       <c r="A1204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1205">
@@ -6515,7 +6515,7 @@
     </row>
     <row r="1217">
       <c r="A1217" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1218">
@@ -6565,7 +6565,7 @@
     </row>
     <row r="1227">
       <c r="A1227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1228">
@@ -6575,7 +6575,7 @@
     </row>
     <row r="1229">
       <c r="A1229" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1230">
@@ -6620,7 +6620,7 @@
     </row>
     <row r="1238">
       <c r="A1238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1239">
@@ -6645,7 +6645,7 @@
     </row>
     <row r="1243">
       <c r="A1243" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1244">
@@ -6655,7 +6655,7 @@
     </row>
     <row r="1245">
       <c r="A1245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1246">
@@ -6675,7 +6675,7 @@
     </row>
     <row r="1249">
       <c r="A1249" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1250">
@@ -6720,7 +6720,7 @@
     </row>
     <row r="1258">
       <c r="A1258" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1259">
@@ -6805,7 +6805,7 @@
     </row>
     <row r="1275">
       <c r="A1275" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1276">
@@ -6820,7 +6820,7 @@
     </row>
     <row r="1278">
       <c r="A1278" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1279">
@@ -6885,7 +6885,7 @@
     </row>
     <row r="1291">
       <c r="A1291" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1292">
@@ -6945,7 +6945,7 @@
     </row>
     <row r="1303">
       <c r="A1303" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1304">
@@ -6980,7 +6980,7 @@
     </row>
     <row r="1310">
       <c r="A1310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1311">
@@ -6990,12 +6990,12 @@
     </row>
     <row r="1312">
       <c r="A1312" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313">
       <c r="A1313" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1314">
@@ -7040,7 +7040,7 @@
     </row>
     <row r="1322">
       <c r="A1322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1323">
@@ -7055,7 +7055,7 @@
     </row>
     <row r="1325">
       <c r="A1325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1326">
@@ -7130,7 +7130,7 @@
     </row>
     <row r="1340">
       <c r="A1340" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1341">
@@ -7170,7 +7170,7 @@
     </row>
     <row r="1348">
       <c r="A1348" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -7205,7 +7205,7 @@
     </row>
     <row r="1355">
       <c r="A1355" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1356">
@@ -7310,7 +7310,7 @@
     </row>
     <row r="1376">
       <c r="A1376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1377">
@@ -7350,7 +7350,7 @@
     </row>
     <row r="1384">
       <c r="A1384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1385">
@@ -7400,7 +7400,7 @@
     </row>
     <row r="1394">
       <c r="A1394" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1395">
@@ -7450,7 +7450,7 @@
     </row>
     <row r="1404">
       <c r="A1404" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -7475,7 +7475,7 @@
     </row>
     <row r="1409">
       <c r="A1409" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -7515,7 +7515,7 @@
     </row>
     <row r="1417">
       <c r="A1417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1418">
@@ -7535,7 +7535,7 @@
     </row>
     <row r="1421">
       <c r="A1421" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -7565,7 +7565,7 @@
     </row>
     <row r="1427">
       <c r="A1427" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1428">
@@ -7605,7 +7605,7 @@
     </row>
     <row r="1435">
       <c r="A1435" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1436">
@@ -7685,7 +7685,7 @@
     </row>
     <row r="1451">
       <c r="A1451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1452">
@@ -7720,7 +7720,7 @@
     </row>
     <row r="1458">
       <c r="A1458" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1459">
@@ -7765,7 +7765,7 @@
     </row>
     <row r="1467">
       <c r="A1467" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -7810,7 +7810,7 @@
     </row>
     <row r="1476">
       <c r="A1476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1477">
@@ -7855,7 +7855,7 @@
     </row>
     <row r="1485">
       <c r="A1485" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1486">
@@ -7940,12 +7940,12 @@
     </row>
     <row r="1502">
       <c r="A1502" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1504">
@@ -7995,7 +7995,7 @@
     </row>
     <row r="1513">
       <c r="A1513" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1514">
@@ -8085,7 +8085,7 @@
     </row>
     <row r="1531">
       <c r="A1531" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1532">
@@ -8355,7 +8355,7 @@
     </row>
     <row r="1585">
       <c r="A1585" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1586">
@@ -8390,7 +8390,7 @@
     </row>
     <row r="1592">
       <c r="A1592" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1593">
@@ -8400,7 +8400,7 @@
     </row>
     <row r="1594">
       <c r="A1594" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1595">
@@ -8415,7 +8415,7 @@
     </row>
     <row r="1597">
       <c r="A1597" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1598">
@@ -8455,7 +8455,7 @@
     </row>
     <row r="1605">
       <c r="A1605" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1606">
@@ -8550,7 +8550,7 @@
     </row>
     <row r="1624">
       <c r="A1624" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1625">
@@ -8570,7 +8570,7 @@
     </row>
     <row r="1628">
       <c r="A1628" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1629">
@@ -8595,12 +8595,12 @@
     </row>
     <row r="1633">
       <c r="A1633" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1634">
       <c r="A1634" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1635">
@@ -8640,7 +8640,7 @@
     </row>
     <row r="1642">
       <c r="A1642" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1643">
@@ -8690,7 +8690,7 @@
     </row>
     <row r="1652">
       <c r="A1652" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1653">
@@ -8720,7 +8720,7 @@
     </row>
     <row r="1658">
       <c r="A1658" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1659">
@@ -8730,7 +8730,7 @@
     </row>
     <row r="1660">
       <c r="A1660" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1661">
@@ -8855,7 +8855,7 @@
     </row>
     <row r="1685">
       <c r="A1685" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1686">
@@ -8870,7 +8870,7 @@
     </row>
     <row r="1688">
       <c r="A1688" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1689">
@@ -8895,7 +8895,7 @@
     </row>
     <row r="1693">
       <c r="A1693" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1694">
@@ -8905,7 +8905,7 @@
     </row>
     <row r="1695">
       <c r="A1695" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1696">
@@ -8930,7 +8930,7 @@
     </row>
     <row r="1700">
       <c r="A1700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1701">
@@ -8980,7 +8980,7 @@
     </row>
     <row r="1710">
       <c r="A1710" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1711">
@@ -8990,7 +8990,7 @@
     </row>
     <row r="1712">
       <c r="A1712" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1713">
@@ -9015,7 +9015,7 @@
     </row>
     <row r="1717">
       <c r="A1717" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1718">
@@ -9025,7 +9025,7 @@
     </row>
     <row r="1719">
       <c r="A1719" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1720">
@@ -9110,7 +9110,7 @@
     </row>
     <row r="1736">
       <c r="A1736" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1737">
@@ -9120,7 +9120,7 @@
     </row>
     <row r="1738">
       <c r="A1738" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1739">
@@ -9165,7 +9165,7 @@
     </row>
     <row r="1747">
       <c r="A1747" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1748">
@@ -9255,7 +9255,7 @@
     </row>
     <row r="1765">
       <c r="A1765" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1766">
@@ -9280,7 +9280,7 @@
     </row>
     <row r="1770">
       <c r="A1770" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1771">
@@ -9300,7 +9300,7 @@
     </row>
     <row r="1774">
       <c r="A1774" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1775">
@@ -9315,12 +9315,12 @@
     </row>
     <row r="1777">
       <c r="A1777" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1778">
       <c r="A1778" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1779">
@@ -9370,7 +9370,7 @@
     </row>
     <row r="1788">
       <c r="A1788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1789">
@@ -9380,7 +9380,7 @@
     </row>
     <row r="1790">
       <c r="A1790" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1791">
@@ -9515,7 +9515,7 @@
     </row>
     <row r="1817">
       <c r="A1817" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1818">
@@ -9575,7 +9575,7 @@
     </row>
     <row r="1829">
       <c r="A1829" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1830">
@@ -9610,7 +9610,7 @@
     </row>
     <row r="1836">
       <c r="A1836" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1837">
@@ -9665,7 +9665,7 @@
     </row>
     <row r="1847">
       <c r="A1847" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1848">
@@ -9715,7 +9715,7 @@
     </row>
     <row r="1857">
       <c r="A1857" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1858">
@@ -9730,7 +9730,7 @@
     </row>
     <row r="1860">
       <c r="A1860" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1861">
@@ -9755,12 +9755,12 @@
     </row>
     <row r="1865">
       <c r="A1865" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1866">
       <c r="A1866" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1867">
@@ -9830,7 +9830,7 @@
     </row>
     <row r="1880">
       <c r="A1880" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1881">
@@ -9845,7 +9845,7 @@
     </row>
     <row r="1883">
       <c r="A1883" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1884">
@@ -9995,7 +9995,7 @@
     </row>
     <row r="1913">
       <c r="A1913" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1914">
@@ -10045,7 +10045,7 @@
     </row>
     <row r="1923">
       <c r="A1923" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1924">
@@ -10060,7 +10060,7 @@
     </row>
     <row r="1926">
       <c r="A1926" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1927">
@@ -10165,7 +10165,7 @@
     </row>
     <row r="1947">
       <c r="A1947" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1948">
@@ -10190,7 +10190,7 @@
     </row>
     <row r="1952">
       <c r="A1952" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1953">
@@ -10200,12 +10200,12 @@
     </row>
     <row r="1954">
       <c r="A1954" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1955">
       <c r="A1955" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1956">
@@ -10280,7 +10280,7 @@
     </row>
     <row r="1970">
       <c r="A1970" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1971">
@@ -10320,7 +10320,7 @@
     </row>
     <row r="1978">
       <c r="A1978" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1979">
@@ -10340,7 +10340,7 @@
     </row>
     <row r="1982">
       <c r="A1982" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1983">
@@ -10360,7 +10360,7 @@
     </row>
     <row r="1986">
       <c r="A1986" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1987">
@@ -10405,7 +10405,7 @@
     </row>
     <row r="1995">
       <c r="A1995" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1996">
@@ -10430,7 +10430,7 @@
     </row>
     <row r="2000">
       <c r="A2000" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2001">
@@ -10510,7 +10510,7 @@
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2017">
@@ -10615,7 +10615,7 @@
     </row>
     <row r="2037">
       <c r="A2037" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2038">
@@ -10630,7 +10630,7 @@
     </row>
     <row r="2040">
       <c r="A2040" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2041">
@@ -10645,7 +10645,7 @@
     </row>
     <row r="2043">
       <c r="A2043" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2044">
@@ -10690,7 +10690,7 @@
     </row>
     <row r="2052">
       <c r="A2052" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2053">
@@ -10710,7 +10710,7 @@
     </row>
     <row r="2056">
       <c r="A2056" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2057">
@@ -10750,7 +10750,7 @@
     </row>
     <row r="2064">
       <c r="A2064" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2065">
@@ -10760,7 +10760,7 @@
     </row>
     <row r="2066">
       <c r="A2066" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2067">
@@ -10800,7 +10800,7 @@
     </row>
     <row r="2074">
       <c r="A2074" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2075">
@@ -10825,7 +10825,7 @@
     </row>
     <row r="2079">
       <c r="A2079" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2080">
@@ -10855,7 +10855,7 @@
     </row>
     <row r="2085">
       <c r="A2085" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2086">
@@ -10865,12 +10865,12 @@
     </row>
     <row r="2087">
       <c r="A2087" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2088">
       <c r="A2088" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2089">
@@ -10885,7 +10885,7 @@
     </row>
     <row r="2091">
       <c r="A2091" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2092">
@@ -10920,7 +10920,7 @@
     </row>
     <row r="2098">
       <c r="A2098" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2099">
@@ -10980,7 +10980,7 @@
     </row>
     <row r="2110">
       <c r="A2110" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2111">
@@ -11040,7 +11040,7 @@
     </row>
     <row r="2122">
       <c r="A2122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2123">
@@ -11070,7 +11070,7 @@
     </row>
     <row r="2128">
       <c r="A2128" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2129">
@@ -11155,7 +11155,7 @@
     </row>
     <row r="2145">
       <c r="A2145" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2146">
@@ -11175,7 +11175,7 @@
     </row>
     <row r="2149">
       <c r="A2149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2150">
@@ -11185,12 +11185,12 @@
     </row>
     <row r="2151">
       <c r="A2151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2152">
       <c r="A2152" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2153">
@@ -11250,12 +11250,12 @@
     </row>
     <row r="2164">
       <c r="A2164" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2165">
       <c r="A2165" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2166">
@@ -11380,12 +11380,12 @@
     </row>
     <row r="2190">
       <c r="A2190" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2191">
       <c r="A2191" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2192">
@@ -11420,7 +11420,7 @@
     </row>
     <row r="2198">
       <c r="A2198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2199">
@@ -11460,7 +11460,7 @@
     </row>
     <row r="2206">
       <c r="A2206" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2207">
@@ -11520,7 +11520,7 @@
     </row>
     <row r="2218">
       <c r="A2218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2219">
@@ -11660,12 +11660,12 @@
     </row>
     <row r="2246">
       <c r="A2246" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2247">
       <c r="A2247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -11705,7 +11705,7 @@
     </row>
     <row r="2255">
       <c r="A2255" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2256">
@@ -11795,7 +11795,7 @@
     </row>
     <row r="2273">
       <c r="A2273" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2274">
@@ -11820,7 +11820,7 @@
     </row>
     <row r="2278">
       <c r="A2278" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
@@ -11875,7 +11875,7 @@
     </row>
     <row r="2289">
       <c r="A2289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2290">
@@ -11920,7 +11920,7 @@
     </row>
     <row r="2298">
       <c r="A2298" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2299">
@@ -12080,7 +12080,7 @@
     </row>
     <row r="2330">
       <c r="A2330" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2331">
@@ -12135,7 +12135,7 @@
     </row>
     <row r="2341">
       <c r="A2341" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2342">
@@ -12165,12 +12165,12 @@
     </row>
     <row r="2347">
       <c r="A2347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2349">
@@ -12210,7 +12210,7 @@
     </row>
     <row r="2356">
       <c r="A2356" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2357">
@@ -12280,7 +12280,7 @@
     </row>
     <row r="2370">
       <c r="A2370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2371">
@@ -12300,7 +12300,7 @@
     </row>
     <row r="2374">
       <c r="A2374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2375">
@@ -12370,7 +12370,7 @@
     </row>
     <row r="2388">
       <c r="A2388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2389">
@@ -12395,7 +12395,7 @@
     </row>
     <row r="2393">
       <c r="A2393" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2394">
@@ -12460,7 +12460,7 @@
     </row>
     <row r="2406">
       <c r="A2406" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2407">
@@ -12485,7 +12485,7 @@
     </row>
     <row r="2411">
       <c r="A2411" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2412">
@@ -12540,12 +12540,12 @@
     </row>
     <row r="2422">
       <c r="A2422" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2423">
       <c r="A2423" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2424">
@@ -12555,7 +12555,7 @@
     </row>
     <row r="2425">
       <c r="A2425" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2426">
@@ -12575,7 +12575,7 @@
     </row>
     <row r="2429">
       <c r="A2429" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2430">
@@ -12605,7 +12605,7 @@
     </row>
     <row r="2435">
       <c r="A2435" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2436">
@@ -12650,7 +12650,7 @@
     </row>
     <row r="2444">
       <c r="A2444" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2445">
@@ -12680,7 +12680,7 @@
     </row>
     <row r="2450">
       <c r="A2450" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2451">
@@ -12760,12 +12760,12 @@
     </row>
     <row r="2466">
       <c r="A2466" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2467">
       <c r="A2467" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2468">
@@ -12780,7 +12780,7 @@
     </row>
     <row r="2470">
       <c r="A2470" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2471">
@@ -12800,7 +12800,7 @@
     </row>
     <row r="2474">
       <c r="A2474" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2475">
@@ -12970,7 +12970,7 @@
     </row>
     <row r="2508">
       <c r="A2508" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2509">
@@ -13105,7 +13105,7 @@
     </row>
     <row r="2535">
       <c r="A2535" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2536">
@@ -13115,7 +13115,7 @@
     </row>
     <row r="2537">
       <c r="A2537" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2538">
@@ -13125,7 +13125,7 @@
     </row>
     <row r="2539">
       <c r="A2539" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2540">
@@ -13145,7 +13145,7 @@
     </row>
     <row r="2543">
       <c r="A2543" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2544">
@@ -13180,7 +13180,7 @@
     </row>
     <row r="2550">
       <c r="A2550" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2551">
@@ -13230,7 +13230,7 @@
     </row>
     <row r="2560">
       <c r="A2560" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2561">
@@ -13255,7 +13255,7 @@
     </row>
     <row r="2565">
       <c r="A2565" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2566">
@@ -13285,7 +13285,7 @@
     </row>
     <row r="2571">
       <c r="A2571" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2572">
@@ -13345,17 +13345,17 @@
     </row>
     <row r="2583">
       <c r="A2583" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
       <c r="A2584" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2585">
       <c r="A2585" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2586">
@@ -13395,7 +13395,7 @@
     </row>
     <row r="2593">
       <c r="A2593" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -13450,7 +13450,7 @@
     </row>
     <row r="2604">
       <c r="A2604" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -13565,7 +13565,7 @@
     </row>
     <row r="2627">
       <c r="A2627" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2628">
@@ -13580,7 +13580,7 @@
     </row>
     <row r="2630">
       <c r="A2630" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2631">
@@ -13590,7 +13590,7 @@
     </row>
     <row r="2632">
       <c r="A2632" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2633">
@@ -13615,7 +13615,7 @@
     </row>
     <row r="2637">
       <c r="A2637" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2638">
@@ -13700,7 +13700,7 @@
     </row>
     <row r="2654">
       <c r="A2654" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2655">
@@ -13710,7 +13710,7 @@
     </row>
     <row r="2656">
       <c r="A2656" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2657">
@@ -13750,7 +13750,7 @@
     </row>
     <row r="2664">
       <c r="A2664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2665">
@@ -13815,7 +13815,7 @@
     </row>
     <row r="2677">
       <c r="A2677" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -13830,7 +13830,7 @@
     </row>
     <row r="2680">
       <c r="A2680" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2681">
@@ -13845,7 +13845,7 @@
     </row>
     <row r="2683">
       <c r="A2683" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2684">
@@ -13865,7 +13865,7 @@
     </row>
     <row r="2687">
       <c r="A2687" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2688">
@@ -13885,7 +13885,7 @@
     </row>
     <row r="2691">
       <c r="A2691" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2692">
@@ -13910,12 +13910,12 @@
     </row>
     <row r="2696">
       <c r="A2696" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2697">
       <c r="A2697" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2698">
@@ -13955,7 +13955,7 @@
     </row>
     <row r="2705">
       <c r="A2705" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2706">
@@ -13990,7 +13990,7 @@
     </row>
     <row r="2712">
       <c r="A2712" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2713">
@@ -14025,7 +14025,7 @@
     </row>
     <row r="2719">
       <c r="A2719" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2720">
@@ -14085,7 +14085,7 @@
     </row>
     <row r="2731">
       <c r="A2731" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2732">
@@ -14110,7 +14110,7 @@
     </row>
     <row r="2736">
       <c r="A2736" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2737">
@@ -14165,7 +14165,7 @@
     </row>
     <row r="2747">
       <c r="A2747" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2748">
@@ -14180,7 +14180,7 @@
     </row>
     <row r="2750">
       <c r="A2750" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -14215,7 +14215,7 @@
     </row>
     <row r="2757">
       <c r="A2757" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2758">
@@ -14275,7 +14275,7 @@
     </row>
     <row r="2769">
       <c r="A2769" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2770">
@@ -14315,7 +14315,7 @@
     </row>
     <row r="2777">
       <c r="A2777" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2778">
@@ -14535,17 +14535,17 @@
     </row>
     <row r="2821">
       <c r="A2821" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
       <c r="A2822" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2823">
       <c r="A2823" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2824">
@@ -14580,7 +14580,7 @@
     </row>
     <row r="2830">
       <c r="A2830" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2831">
@@ -14590,7 +14590,7 @@
     </row>
     <row r="2832">
       <c r="A2832" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2833">
@@ -14660,7 +14660,7 @@
     </row>
     <row r="2846">
       <c r="A2846" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2847">
@@ -14675,7 +14675,7 @@
     </row>
     <row r="2849">
       <c r="A2849" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2850">
@@ -14775,12 +14775,12 @@
     </row>
     <row r="2869">
       <c r="A2869" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2870">
       <c r="A2870" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2871">
@@ -14845,7 +14845,7 @@
     </row>
     <row r="2883">
       <c r="A2883" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2884">
@@ -14855,7 +14855,7 @@
     </row>
     <row r="2885">
       <c r="A2885" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2886">
@@ -14890,7 +14890,7 @@
     </row>
     <row r="2892">
       <c r="A2892" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2893">
@@ -14930,7 +14930,7 @@
     </row>
     <row r="2900">
       <c r="A2900" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2901">
@@ -15025,7 +15025,7 @@
     </row>
     <row r="2919">
       <c r="A2919" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2920">
@@ -15080,7 +15080,7 @@
     </row>
     <row r="2930">
       <c r="A2930" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2931">
@@ -15165,7 +15165,7 @@
     </row>
     <row r="2947">
       <c r="A2947" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2948">
@@ -15235,7 +15235,7 @@
     </row>
     <row r="2961">
       <c r="A2961" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2962">
@@ -15330,7 +15330,7 @@
     </row>
     <row r="2980">
       <c r="A2980" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2981">
@@ -15355,7 +15355,7 @@
     </row>
     <row r="2985">
       <c r="A2985" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2986">
@@ -15390,7 +15390,7 @@
     </row>
     <row r="2992">
       <c r="A2992" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2993">
@@ -15405,12 +15405,12 @@
     </row>
     <row r="2995">
       <c r="A2995" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2996">
       <c r="A2996" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2997">
@@ -15455,7 +15455,7 @@
     </row>
     <row r="3005">
       <c r="A3005" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3006">
@@ -15470,12 +15470,12 @@
     </row>
     <row r="3008">
       <c r="A3008" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3009">
       <c r="A3009" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3010">
@@ -15580,7 +15580,7 @@
     </row>
     <row r="3030">
       <c r="A3030" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3031">
@@ -15660,7 +15660,7 @@
     </row>
     <row r="3046">
       <c r="A3046" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3047">
@@ -15760,7 +15760,7 @@
     </row>
     <row r="3066">
       <c r="A3066" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3067">
@@ -15775,7 +15775,7 @@
     </row>
     <row r="3069">
       <c r="A3069" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3070">
@@ -15845,7 +15845,7 @@
     </row>
     <row r="3083">
       <c r="A3083" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3084">
@@ -16030,7 +16030,7 @@
     </row>
     <row r="3120">
       <c r="A3120" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3121">
@@ -16060,7 +16060,7 @@
     </row>
     <row r="3126">
       <c r="A3126" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3127">
@@ -16150,12 +16150,12 @@
     </row>
     <row r="3144">
       <c r="A3144" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3145">
       <c r="A3145" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3146">
@@ -16210,7 +16210,7 @@
     </row>
     <row r="3156">
       <c r="A3156" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3157">
@@ -16220,7 +16220,7 @@
     </row>
     <row r="3158">
       <c r="A3158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3159">
@@ -16280,12 +16280,12 @@
     </row>
     <row r="3170">
       <c r="A3170" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3171">
       <c r="A3171" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3172">
@@ -16325,7 +16325,7 @@
     </row>
     <row r="3179">
       <c r="A3179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3180">
@@ -16355,7 +16355,7 @@
     </row>
     <row r="3185">
       <c r="A3185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3186">
@@ -16410,7 +16410,7 @@
     </row>
     <row r="3196">
       <c r="A3196" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3197">
@@ -16435,7 +16435,7 @@
     </row>
     <row r="3201">
       <c r="A3201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3202">
@@ -16530,7 +16530,7 @@
     </row>
     <row r="3220">
       <c r="A3220" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3221">
@@ -16550,12 +16550,12 @@
     </row>
     <row r="3224">
       <c r="A3224" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3225">
       <c r="A3225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3226">
@@ -16565,7 +16565,7 @@
     </row>
     <row r="3227">
       <c r="A3227" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3228">
@@ -16575,7 +16575,7 @@
     </row>
     <row r="3229">
       <c r="A3229" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3230">
@@ -16640,7 +16640,7 @@
     </row>
     <row r="3242">
       <c r="A3242" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3243">
@@ -16680,7 +16680,7 @@
     </row>
     <row r="3250">
       <c r="A3250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3251">
@@ -16755,7 +16755,7 @@
     </row>
     <row r="3265">
       <c r="A3265" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3266">
@@ -16840,7 +16840,7 @@
     </row>
     <row r="3282">
       <c r="A3282" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3283">
@@ -16860,7 +16860,7 @@
     </row>
     <row r="3286">
       <c r="A3286" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3287">
@@ -16880,7 +16880,7 @@
     </row>
     <row r="3290">
       <c r="A3290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3291">
@@ -16900,7 +16900,7 @@
     </row>
     <row r="3294">
       <c r="A3294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3295">
@@ -16915,17 +16915,17 @@
     </row>
     <row r="3297">
       <c r="A3297" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3298">
       <c r="A3298" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3299">
       <c r="A3299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3300">
@@ -16980,7 +16980,7 @@
     </row>
     <row r="3310">
       <c r="A3310" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3311">
@@ -16990,7 +16990,7 @@
     </row>
     <row r="3312">
       <c r="A3312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3313">
@@ -17085,7 +17085,7 @@
     </row>
     <row r="3331">
       <c r="A3331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3332">
@@ -17175,12 +17175,12 @@
     </row>
     <row r="3349">
       <c r="A3349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3350">
       <c r="A3350" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3351">
@@ -17330,7 +17330,7 @@
     </row>
     <row r="3380">
       <c r="A3380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3381">
@@ -17415,7 +17415,7 @@
     </row>
     <row r="3397">
       <c r="A3397" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3398">
@@ -17425,12 +17425,12 @@
     </row>
     <row r="3399">
       <c r="A3399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3400">
       <c r="A3400" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3401">
@@ -17495,7 +17495,7 @@
     </row>
     <row r="3413">
       <c r="A3413" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3414">
@@ -17530,7 +17530,7 @@
     </row>
     <row r="3420">
       <c r="A3420" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3421">
@@ -17610,7 +17610,7 @@
     </row>
     <row r="3436">
       <c r="A3436" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3437">
@@ -17620,7 +17620,7 @@
     </row>
     <row r="3438">
       <c r="A3438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3439">
@@ -17690,12 +17690,12 @@
     </row>
     <row r="3452">
       <c r="A3452" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3453">
       <c r="A3453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3454">
@@ -17715,7 +17715,7 @@
     </row>
     <row r="3457">
       <c r="A3457" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3458">
@@ -17725,12 +17725,12 @@
     </row>
     <row r="3459">
       <c r="A3459" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3460">
       <c r="A3460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3461">
@@ -17835,7 +17835,7 @@
     </row>
     <row r="3481">
       <c r="A3481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3482">
@@ -17865,7 +17865,7 @@
     </row>
     <row r="3487">
       <c r="A3487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3488">
@@ -17885,7 +17885,7 @@
     </row>
     <row r="3491">
       <c r="A3491" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3492">
@@ -17995,12 +17995,12 @@
     </row>
     <row r="3513">
       <c r="A3513" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3514">
       <c r="A3514" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3515">
@@ -18050,7 +18050,7 @@
     </row>
     <row r="3524">
       <c r="A3524" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3525">
@@ -18080,12 +18080,12 @@
     </row>
     <row r="3530">
       <c r="A3530" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3531">
       <c r="A3531" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3532">
@@ -18160,7 +18160,7 @@
     </row>
     <row r="3546">
       <c r="A3546" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3547">
@@ -18175,7 +18175,7 @@
     </row>
     <row r="3549">
       <c r="A3549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3550">
@@ -18200,7 +18200,7 @@
     </row>
     <row r="3554">
       <c r="A3554" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3555">
@@ -18210,7 +18210,7 @@
     </row>
     <row r="3556">
       <c r="A3556" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3557">
@@ -18265,7 +18265,7 @@
     </row>
     <row r="3567">
       <c r="A3567" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3568">
@@ -18360,7 +18360,7 @@
     </row>
     <row r="3586">
       <c r="A3586" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3587">
@@ -18415,7 +18415,7 @@
     </row>
     <row r="3597">
       <c r="A3597" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3598">
@@ -18430,7 +18430,7 @@
     </row>
     <row r="3600">
       <c r="A3600" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3601">
@@ -18475,12 +18475,12 @@
     </row>
     <row r="3609">
       <c r="A3609" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3610">
       <c r="A3610" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3611">
@@ -18490,7 +18490,7 @@
     </row>
     <row r="3612">
       <c r="A3612" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3613">
@@ -18560,7 +18560,7 @@
     </row>
     <row r="3626">
       <c r="A3626" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3627">
@@ -18570,7 +18570,7 @@
     </row>
     <row r="3628">
       <c r="A3628" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3629">
@@ -18650,7 +18650,7 @@
     </row>
     <row r="3644">
       <c r="A3644" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3645">
@@ -18665,7 +18665,7 @@
     </row>
     <row r="3647">
       <c r="A3647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3648">
@@ -18850,7 +18850,7 @@
     </row>
     <row r="3684">
       <c r="A3684" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3685">
@@ -18875,7 +18875,7 @@
     </row>
     <row r="3689">
       <c r="A3689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3690">
@@ -18900,7 +18900,7 @@
     </row>
     <row r="3694">
       <c r="A3694" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3695">
@@ -18940,7 +18940,7 @@
     </row>
     <row r="3702">
       <c r="A3702" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3703">
@@ -18975,7 +18975,7 @@
     </row>
     <row r="3709">
       <c r="A3709" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3710">
@@ -18985,7 +18985,7 @@
     </row>
     <row r="3711">
       <c r="A3711" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3712">
@@ -19010,7 +19010,7 @@
     </row>
     <row r="3716">
       <c r="A3716" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3717">
@@ -19025,7 +19025,7 @@
     </row>
     <row r="3719">
       <c r="A3719" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3720">
@@ -19155,7 +19155,7 @@
     </row>
     <row r="3745">
       <c r="A3745" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3746">
@@ -19220,7 +19220,7 @@
     </row>
     <row r="3758">
       <c r="A3758" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3759">
@@ -19415,7 +19415,7 @@
     </row>
     <row r="3797">
       <c r="A3797" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3798">
@@ -19430,7 +19430,7 @@
     </row>
     <row r="3800">
       <c r="A3800" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3801">
@@ -19465,7 +19465,7 @@
     </row>
     <row r="3807">
       <c r="A3807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3808">
@@ -19485,12 +19485,12 @@
     </row>
     <row r="3811">
       <c r="A3811" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3812">
       <c r="A3812" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3813">
@@ -19525,7 +19525,7 @@
     </row>
     <row r="3819">
       <c r="A3819" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3820">
@@ -19555,7 +19555,7 @@
     </row>
     <row r="3825">
       <c r="A3825" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3826">
@@ -19615,7 +19615,7 @@
     </row>
     <row r="3837">
       <c r="A3837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3838">
@@ -19645,7 +19645,7 @@
     </row>
     <row r="3843">
       <c r="A3843" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3844">
@@ -19770,7 +19770,7 @@
     </row>
     <row r="3868">
       <c r="A3868" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3869">
@@ -19885,7 +19885,7 @@
     </row>
     <row r="3891">
       <c r="A3891" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3892">
@@ -19940,7 +19940,7 @@
     </row>
     <row r="3902">
       <c r="A3902" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3903">
@@ -19950,7 +19950,7 @@
     </row>
     <row r="3904">
       <c r="A3904" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3905">
@@ -19960,7 +19960,7 @@
     </row>
     <row r="3906">
       <c r="A3906" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3907">
@@ -20030,7 +20030,7 @@
     </row>
     <row r="3920">
       <c r="A3920" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3921">
@@ -20195,7 +20195,7 @@
     </row>
     <row r="3953">
       <c r="A3953" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3954">
@@ -20240,7 +20240,7 @@
     </row>
     <row r="3962">
       <c r="A3962" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3963">
@@ -20285,7 +20285,7 @@
     </row>
     <row r="3971">
       <c r="A3971" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3972">
@@ -20320,7 +20320,7 @@
     </row>
     <row r="3978">
       <c r="A3978" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3979">
@@ -20340,7 +20340,7 @@
     </row>
     <row r="3982">
       <c r="A3982" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3983">
@@ -20490,17 +20490,17 @@
     </row>
     <row r="4012">
       <c r="A4012" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4015">
@@ -20515,7 +20515,7 @@
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4018">
@@ -20570,7 +20570,7 @@
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4029">
@@ -20610,12 +20610,12 @@
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4037">
       <c r="A4037" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4038">
@@ -20670,7 +20670,7 @@
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4049">
@@ -20695,7 +20695,7 @@
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4054">
@@ -20720,7 +20720,7 @@
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4059">
@@ -20775,7 +20775,7 @@
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4070">
@@ -20820,7 +20820,7 @@
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4079">
@@ -20845,7 +20845,7 @@
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4084">
@@ -20860,7 +20860,7 @@
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4087">
@@ -20940,7 +20940,7 @@
     </row>
     <row r="4102">
       <c r="A4102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4103">
@@ -21005,7 +21005,7 @@
     </row>
     <row r="4115">
       <c r="A4115" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4116">
@@ -21180,7 +21180,7 @@
     </row>
     <row r="4150">
       <c r="A4150" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4151">
@@ -21225,7 +21225,7 @@
     </row>
     <row r="4159">
       <c r="A4159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4160">
@@ -21250,17 +21250,17 @@
     </row>
     <row r="4164">
       <c r="A4164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4165">
       <c r="A4165" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4166">
       <c r="A4166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4167">
@@ -21270,12 +21270,12 @@
     </row>
     <row r="4168">
       <c r="A4168" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4169">
       <c r="A4169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4170">
@@ -21325,7 +21325,7 @@
     </row>
     <row r="4179">
       <c r="A4179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4180">
@@ -21375,7 +21375,7 @@
     </row>
     <row r="4189">
       <c r="A4189" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4190">
@@ -21390,7 +21390,7 @@
     </row>
     <row r="4192">
       <c r="A4192" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4193">
@@ -21445,7 +21445,7 @@
     </row>
     <row r="4203">
       <c r="A4203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4204">
@@ -21475,7 +21475,7 @@
     </row>
     <row r="4209">
       <c r="A4209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4210">
@@ -21495,12 +21495,12 @@
     </row>
     <row r="4213">
       <c r="A4213" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4214">
       <c r="A4214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4215">
@@ -21520,7 +21520,7 @@
     </row>
     <row r="4218">
       <c r="A4218" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4219">
@@ -21590,7 +21590,7 @@
     </row>
     <row r="4232">
       <c r="A4232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4233">
@@ -21600,7 +21600,7 @@
     </row>
     <row r="4234">
       <c r="A4234" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4235">
@@ -21615,7 +21615,7 @@
     </row>
     <row r="4237">
       <c r="A4237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4238">
@@ -21625,7 +21625,7 @@
     </row>
     <row r="4239">
       <c r="A4239" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4240">
@@ -21635,7 +21635,7 @@
     </row>
     <row r="4241">
       <c r="A4241" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4242">
@@ -21645,7 +21645,7 @@
     </row>
     <row r="4243">
       <c r="A4243" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4244">
@@ -21655,7 +21655,7 @@
     </row>
     <row r="4245">
       <c r="A4245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4246">
@@ -21680,7 +21680,7 @@
     </row>
     <row r="4250">
       <c r="A4250" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4251">
@@ -21780,7 +21780,7 @@
     </row>
     <row r="4270">
       <c r="A4270" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4271">
@@ -21830,7 +21830,7 @@
     </row>
     <row r="4280">
       <c r="A4280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4281">
@@ -21845,7 +21845,7 @@
     </row>
     <row r="4283">
       <c r="A4283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4284">
@@ -21860,7 +21860,7 @@
     </row>
     <row r="4286">
       <c r="A4286" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4287">
@@ -21900,7 +21900,7 @@
     </row>
     <row r="4294">
       <c r="A4294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4295">
@@ -21935,7 +21935,7 @@
     </row>
     <row r="4301">
       <c r="A4301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4302">
@@ -21980,7 +21980,7 @@
     </row>
     <row r="4310">
       <c r="A4310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4311">
@@ -22000,7 +22000,7 @@
     </row>
     <row r="4314">
       <c r="A4314" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4315">
@@ -22025,7 +22025,7 @@
     </row>
     <row r="4319">
       <c r="A4319" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4320">
@@ -22100,7 +22100,7 @@
     </row>
     <row r="4334">
       <c r="A4334" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4335">
@@ -22120,7 +22120,7 @@
     </row>
     <row r="4338">
       <c r="A4338" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4339">
@@ -22270,7 +22270,7 @@
     </row>
     <row r="4368">
       <c r="A4368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4369">
@@ -22280,7 +22280,7 @@
     </row>
     <row r="4370">
       <c r="A4370" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4371">
@@ -22315,7 +22315,7 @@
     </row>
     <row r="4377">
       <c r="A4377" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4378">
@@ -22360,7 +22360,7 @@
     </row>
     <row r="4386">
       <c r="A4386" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4387">
@@ -22400,7 +22400,7 @@
     </row>
     <row r="4394">
       <c r="A4394" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4395">
@@ -22485,7 +22485,7 @@
     </row>
     <row r="4411">
       <c r="A4411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4412">
@@ -22625,7 +22625,7 @@
     </row>
     <row r="4439">
       <c r="A4439" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4440">
@@ -22655,7 +22655,7 @@
     </row>
     <row r="4445">
       <c r="A4445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4446">
@@ -22665,7 +22665,7 @@
     </row>
     <row r="4447">
       <c r="A4447" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4448">
@@ -22680,7 +22680,7 @@
     </row>
     <row r="4450">
       <c r="A4450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4451">
@@ -22690,12 +22690,12 @@
     </row>
     <row r="4452">
       <c r="A4452" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4453">
       <c r="A4453" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4454">
@@ -22760,12 +22760,12 @@
     </row>
     <row r="4466">
       <c r="A4466" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4467">
       <c r="A4467" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4468">
@@ -22780,7 +22780,7 @@
     </row>
     <row r="4470">
       <c r="A4470" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4471">
@@ -22865,7 +22865,7 @@
     </row>
     <row r="4487">
       <c r="A4487" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4488">
@@ -23015,7 +23015,7 @@
     </row>
     <row r="4517">
       <c r="A4517" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4518">
@@ -23060,7 +23060,7 @@
     </row>
     <row r="4526">
       <c r="A4526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4527">
@@ -23120,12 +23120,12 @@
     </row>
     <row r="4538">
       <c r="A4538" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4539">
       <c r="A4539" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4540">
@@ -23165,7 +23165,7 @@
     </row>
     <row r="4547">
       <c r="A4547" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4548">
@@ -23215,7 +23215,7 @@
     </row>
     <row r="4557">
       <c r="A4557" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4558">
@@ -23440,7 +23440,7 @@
     </row>
     <row r="4602">
       <c r="A4602" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4603">
@@ -23480,7 +23480,7 @@
     </row>
     <row r="4610">
       <c r="A4610" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4611">
@@ -23565,7 +23565,7 @@
     </row>
     <row r="4627">
       <c r="A4627" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4628">
@@ -23580,7 +23580,7 @@
     </row>
     <row r="4630">
       <c r="A4630" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4631">
@@ -23620,7 +23620,7 @@
     </row>
     <row r="4638">
       <c r="A4638" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4639">
@@ -23690,7 +23690,7 @@
     </row>
     <row r="4652">
       <c r="A4652" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4653">
@@ -23705,7 +23705,7 @@
     </row>
     <row r="4655">
       <c r="A4655" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4656">
@@ -23740,7 +23740,7 @@
     </row>
     <row r="4662">
       <c r="A4662" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4663">
@@ -23770,7 +23770,7 @@
     </row>
     <row r="4668">
       <c r="A4668" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4669">
@@ -23800,7 +23800,7 @@
     </row>
     <row r="4674">
       <c r="A4674" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4675">
@@ -23940,7 +23940,7 @@
     </row>
     <row r="4702">
       <c r="A4702" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4703">
@@ -23950,7 +23950,7 @@
     </row>
     <row r="4704">
       <c r="A4704" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4705">
@@ -23965,7 +23965,7 @@
     </row>
     <row r="4707">
       <c r="A4707" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4708">
@@ -23975,7 +23975,7 @@
     </row>
     <row r="4709">
       <c r="A4709" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4710">
@@ -24045,7 +24045,7 @@
     </row>
     <row r="4723">
       <c r="A4723" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4724">
@@ -24055,7 +24055,7 @@
     </row>
     <row r="4725">
       <c r="A4725" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4726">
@@ -24095,12 +24095,12 @@
     </row>
     <row r="4733">
       <c r="A4733" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4734">
       <c r="A4734" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4735">
@@ -24115,7 +24115,7 @@
     </row>
     <row r="4737">
       <c r="A4737" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4738">
@@ -24125,7 +24125,7 @@
     </row>
     <row r="4739">
       <c r="A4739" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4740">
@@ -24135,7 +24135,7 @@
     </row>
     <row r="4741">
       <c r="A4741" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4742">
@@ -24215,7 +24215,7 @@
     </row>
     <row r="4757">
       <c r="A4757" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4758">
@@ -24265,7 +24265,7 @@
     </row>
     <row r="4767">
       <c r="A4767" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4768">
@@ -24305,7 +24305,7 @@
     </row>
     <row r="4775">
       <c r="A4775" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4776">
@@ -24315,7 +24315,7 @@
     </row>
     <row r="4777">
       <c r="A4777" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4778">
@@ -24350,7 +24350,7 @@
     </row>
     <row r="4784">
       <c r="A4784" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4785">
@@ -24500,7 +24500,7 @@
     </row>
     <row r="4814">
       <c r="A4814" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4815">
@@ -24515,7 +24515,7 @@
     </row>
     <row r="4817">
       <c r="A4817" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4818">
@@ -24585,7 +24585,7 @@
     </row>
     <row r="4831">
       <c r="A4831" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4832">
@@ -24625,12 +24625,12 @@
     </row>
     <row r="4839">
       <c r="A4839" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4840">
       <c r="A4840" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4841">
@@ -24695,7 +24695,7 @@
     </row>
     <row r="4853">
       <c r="A4853" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4854">
@@ -24710,7 +24710,7 @@
     </row>
     <row r="4856">
       <c r="A4856" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4857">
@@ -24785,7 +24785,7 @@
     </row>
     <row r="4871">
       <c r="A4871" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4872">
@@ -24815,7 +24815,7 @@
     </row>
     <row r="4877">
       <c r="A4877" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4878">
@@ -24845,7 +24845,7 @@
     </row>
     <row r="4883">
       <c r="A4883" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4884">
@@ -24865,7 +24865,7 @@
     </row>
     <row r="4887">
       <c r="A4887" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4888">
@@ -24970,7 +24970,7 @@
     </row>
     <row r="4908">
       <c r="A4908" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4909">
@@ -24990,7 +24990,7 @@
     </row>
     <row r="4912">
       <c r="A4912" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4913">
@@ -25100,12 +25100,12 @@
     </row>
     <row r="4934">
       <c r="A4934" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4935">
       <c r="A4935" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4936">
@@ -25170,7 +25170,7 @@
     </row>
     <row r="4948">
       <c r="A4948" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4949">
@@ -25225,7 +25225,7 @@
     </row>
     <row r="4959">
       <c r="A4959" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4960">
@@ -25325,7 +25325,7 @@
     </row>
     <row r="4979">
       <c r="A4979" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4980">
@@ -25375,7 +25375,7 @@
     </row>
     <row r="4989">
       <c r="A4989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4990">
@@ -25415,7 +25415,7 @@
     </row>
     <row r="4997">
       <c r="A4997" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4998">
@@ -25430,7 +25430,7 @@
     </row>
     <row r="5000">
       <c r="A5000" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5001">
@@ -25495,7 +25495,7 @@
     </row>
     <row r="5013">
       <c r="A5013" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5014">
@@ -25565,7 +25565,7 @@
     </row>
     <row r="5027">
       <c r="A5027" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5028">
@@ -25750,7 +25750,7 @@
     </row>
     <row r="5064">
       <c r="A5064" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5065">
@@ -25980,7 +25980,7 @@
     </row>
     <row r="5110">
       <c r="A5110" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5111">
@@ -26050,7 +26050,7 @@
     </row>
     <row r="5124">
       <c r="A5124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5125">
@@ -26245,12 +26245,12 @@
     </row>
     <row r="5163">
       <c r="A5163" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5164">
       <c r="A5164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5165">
@@ -26320,7 +26320,7 @@
     </row>
     <row r="5178">
       <c r="A5178" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5179">
@@ -26330,7 +26330,7 @@
     </row>
     <row r="5180">
       <c r="A5180" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5181">
@@ -26340,12 +26340,12 @@
     </row>
     <row r="5182">
       <c r="A5182" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5183">
       <c r="A5183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5184">
@@ -26360,7 +26360,7 @@
     </row>
     <row r="5186">
       <c r="A5186" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5187">
@@ -26400,7 +26400,7 @@
     </row>
     <row r="5194">
       <c r="A5194" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5195">
@@ -26420,7 +26420,7 @@
     </row>
     <row r="5198">
       <c r="A5198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5199">
@@ -26485,7 +26485,7 @@
     </row>
     <row r="5211">
       <c r="A5211" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5212">
@@ -26500,7 +26500,7 @@
     </row>
     <row r="5214">
       <c r="A5214" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5215">
@@ -26600,7 +26600,7 @@
     </row>
     <row r="5234">
       <c r="A5234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5235">
@@ -26610,7 +26610,7 @@
     </row>
     <row r="5236">
       <c r="A5236" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5237">
@@ -26695,7 +26695,7 @@
     </row>
     <row r="5253">
       <c r="A5253" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5254">
@@ -26785,7 +26785,7 @@
     </row>
     <row r="5271">
       <c r="A5271" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5272">
@@ -26910,7 +26910,7 @@
     </row>
     <row r="5296">
       <c r="A5296" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5297">
@@ -26980,7 +26980,7 @@
     </row>
     <row r="5310">
       <c r="A5310" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5311">
@@ -26995,7 +26995,7 @@
     </row>
     <row r="5313">
       <c r="A5313" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5314">
@@ -27140,7 +27140,7 @@
     </row>
     <row r="5342">
       <c r="A5342" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5343">
@@ -27240,12 +27240,12 @@
     </row>
     <row r="5362">
       <c r="A5362" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5363">
       <c r="A5363" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5364">
@@ -27305,17 +27305,17 @@
     </row>
     <row r="5375">
       <c r="A5375" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5376">
       <c r="A5376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5377">
       <c r="A5377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5378">
@@ -27375,7 +27375,7 @@
     </row>
     <row r="5389">
       <c r="A5389" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5390">
@@ -27495,7 +27495,7 @@
     </row>
     <row r="5413">
       <c r="A5413" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5414">
@@ -27580,12 +27580,12 @@
     </row>
     <row r="5430">
       <c r="A5430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5431">
       <c r="A5431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5432">
@@ -27605,12 +27605,12 @@
     </row>
     <row r="5435">
       <c r="A5435" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5436">
       <c r="A5436" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5437">
@@ -27620,7 +27620,7 @@
     </row>
     <row r="5438">
       <c r="A5438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5439">
@@ -27635,7 +27635,7 @@
     </row>
     <row r="5441">
       <c r="A5441" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5442">
@@ -27650,7 +27650,7 @@
     </row>
     <row r="5444">
       <c r="A5444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5445">
@@ -27665,7 +27665,7 @@
     </row>
     <row r="5447">
       <c r="A5447" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5448">
@@ -27680,7 +27680,7 @@
     </row>
     <row r="5450">
       <c r="A5450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5451">
@@ -27825,7 +27825,7 @@
     </row>
     <row r="5479">
       <c r="A5479" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5480">
@@ -27845,7 +27845,7 @@
     </row>
     <row r="5483">
       <c r="A5483" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5484">
@@ -27890,7 +27890,7 @@
     </row>
     <row r="5492">
       <c r="A5492" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5493">
@@ -27905,7 +27905,7 @@
     </row>
     <row r="5495">
       <c r="A5495" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5496">
@@ -27935,7 +27935,7 @@
     </row>
     <row r="5501">
       <c r="A5501" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5502">
@@ -28005,7 +28005,7 @@
     </row>
     <row r="5515">
       <c r="A5515" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5516">
@@ -28030,7 +28030,7 @@
     </row>
     <row r="5520">
       <c r="A5520" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5521">
@@ -28065,7 +28065,7 @@
     </row>
     <row r="5527">
       <c r="A5527" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5528">
@@ -28155,7 +28155,7 @@
     </row>
     <row r="5545">
       <c r="A5545" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5546">
@@ -28200,7 +28200,7 @@
     </row>
     <row r="5554">
       <c r="A5554" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5555">
@@ -28235,7 +28235,7 @@
     </row>
     <row r="5561">
       <c r="A5561" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5562">
@@ -28285,12 +28285,12 @@
     </row>
     <row r="5571">
       <c r="A5571" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5572">
       <c r="A5572" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5573">
@@ -28450,7 +28450,7 @@
     </row>
     <row r="5604">
       <c r="A5604" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5605">
@@ -28595,7 +28595,7 @@
     </row>
     <row r="5633">
       <c r="A5633" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5634">
@@ -28615,12 +28615,12 @@
     </row>
     <row r="5637">
       <c r="A5637" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5638">
       <c r="A5638" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5639">
@@ -28645,7 +28645,7 @@
     </row>
     <row r="5643">
       <c r="A5643" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5644">
@@ -28670,7 +28670,7 @@
     </row>
     <row r="5648">
       <c r="A5648" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5649">
@@ -28840,22 +28840,22 @@
     </row>
     <row r="5682">
       <c r="A5682" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5683">
       <c r="A5683" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5684">
       <c r="A5684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5685">
       <c r="A5685" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5686">
@@ -28865,7 +28865,7 @@
     </row>
     <row r="5687">
       <c r="A5687" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5688">
@@ -28915,7 +28915,7 @@
     </row>
     <row r="5697">
       <c r="A5697" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5698">
@@ -28945,12 +28945,12 @@
     </row>
     <row r="5703">
       <c r="A5703" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5704">
       <c r="A5704" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5705">
@@ -28995,7 +28995,7 @@
     </row>
     <row r="5713">
       <c r="A5713" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5714">
@@ -29010,7 +29010,7 @@
     </row>
     <row r="5716">
       <c r="A5716" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5717">
@@ -29085,7 +29085,7 @@
     </row>
     <row r="5731">
       <c r="A5731" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5732">
@@ -29100,7 +29100,7 @@
     </row>
     <row r="5734">
       <c r="A5734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5735">
@@ -29115,12 +29115,12 @@
     </row>
     <row r="5737">
       <c r="A5737" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5738">
       <c r="A5738" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5739">
@@ -29140,7 +29140,7 @@
     </row>
     <row r="5742">
       <c r="A5742" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5743">
@@ -29150,7 +29150,7 @@
     </row>
     <row r="5744">
       <c r="A5744" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5745">
@@ -29180,7 +29180,7 @@
     </row>
     <row r="5750">
       <c r="A5750" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5751">
@@ -29255,7 +29255,7 @@
     </row>
     <row r="5765">
       <c r="A5765" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5766">
@@ -29275,7 +29275,7 @@
     </row>
     <row r="5769">
       <c r="A5769" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5770">
@@ -29445,7 +29445,7 @@
     </row>
     <row r="5803">
       <c r="A5803" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5804">
@@ -29465,12 +29465,12 @@
     </row>
     <row r="5807">
       <c r="A5807" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5808">
       <c r="A5808" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5809">
@@ -29515,7 +29515,7 @@
     </row>
     <row r="5817">
       <c r="A5817" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5818">
@@ -29585,7 +29585,7 @@
     </row>
     <row r="5831">
       <c r="A5831" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5832">
@@ -29600,7 +29600,7 @@
     </row>
     <row r="5834">
       <c r="A5834" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5835">
@@ -29610,7 +29610,7 @@
     </row>
     <row r="5836">
       <c r="A5836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5837">
@@ -29630,7 +29630,7 @@
     </row>
     <row r="5840">
       <c r="A5840" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5841">
@@ -29650,7 +29650,7 @@
     </row>
     <row r="5844">
       <c r="A5844" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5845">
@@ -29775,7 +29775,7 @@
     </row>
     <row r="5869">
       <c r="A5869" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5870">
@@ -29835,7 +29835,7 @@
     </row>
     <row r="5881">
       <c r="A5881" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5882">
@@ -29850,7 +29850,7 @@
     </row>
     <row r="5884">
       <c r="A5884" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5885">
@@ -29975,7 +29975,7 @@
     </row>
     <row r="5909">
       <c r="A5909" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5910">
@@ -29995,7 +29995,7 @@
     </row>
     <row r="5913">
       <c r="A5913" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5914">
@@ -30005,7 +30005,7 @@
     </row>
     <row r="5915">
       <c r="A5915" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5916">
@@ -30015,7 +30015,7 @@
     </row>
     <row r="5917">
       <c r="A5917" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5918">
@@ -30040,7 +30040,7 @@
     </row>
     <row r="5922">
       <c r="A5922" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5923">
@@ -30090,7 +30090,7 @@
     </row>
     <row r="5932">
       <c r="A5932" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5933">
@@ -30165,12 +30165,12 @@
     </row>
     <row r="5947">
       <c r="A5947" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5948">
       <c r="A5948" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5949">
@@ -30190,7 +30190,7 @@
     </row>
     <row r="5952">
       <c r="A5952" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5953">
@@ -30250,7 +30250,7 @@
     </row>
     <row r="5964">
       <c r="A5964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5965">
@@ -30285,7 +30285,7 @@
     </row>
     <row r="5971">
       <c r="A5971" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5972">
@@ -30325,7 +30325,7 @@
     </row>
     <row r="5979">
       <c r="A5979" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5980">
@@ -30440,7 +30440,7 @@
     </row>
     <row r="6002">
       <c r="A6002" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6003">
@@ -30480,7 +30480,7 @@
     </row>
     <row r="6010">
       <c r="A6010" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6011">
@@ -30510,7 +30510,7 @@
     </row>
     <row r="6016">
       <c r="A6016" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6017">
@@ -30550,7 +30550,7 @@
     </row>
     <row r="6024">
       <c r="A6024" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6025">
@@ -30560,7 +30560,7 @@
     </row>
     <row r="6026">
       <c r="A6026" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6027">
@@ -30580,7 +30580,7 @@
     </row>
     <row r="6030">
       <c r="A6030" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6031">
@@ -30605,7 +30605,7 @@
     </row>
     <row r="6035">
       <c r="A6035" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6036">
@@ -30675,7 +30675,7 @@
     </row>
     <row r="6049">
       <c r="A6049" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6050">
@@ -30705,7 +30705,7 @@
     </row>
     <row r="6055">
       <c r="A6055" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6056">
@@ -30805,7 +30805,7 @@
     </row>
     <row r="6075">
       <c r="A6075" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6076">
@@ -30825,7 +30825,7 @@
     </row>
     <row r="6079">
       <c r="A6079" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6080">
@@ -30900,7 +30900,7 @@
     </row>
     <row r="6094">
       <c r="A6094" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6095">
@@ -30925,7 +30925,7 @@
     </row>
     <row r="6099">
       <c r="A6099" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6100">
@@ -30935,7 +30935,7 @@
     </row>
     <row r="6101">
       <c r="A6101" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6102">
@@ -30965,7 +30965,7 @@
     </row>
     <row r="6107">
       <c r="A6107" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6108">
@@ -31010,12 +31010,12 @@
     </row>
     <row r="6116">
       <c r="A6116" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6117">
       <c r="A6117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6118">
@@ -31025,7 +31025,7 @@
     </row>
     <row r="6119">
       <c r="A6119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6120">
@@ -31035,7 +31035,7 @@
     </row>
     <row r="6121">
       <c r="A6121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6122">
@@ -31080,12 +31080,12 @@
     </row>
     <row r="6130">
       <c r="A6130" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6131">
       <c r="A6131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6132">
@@ -31110,12 +31110,12 @@
     </row>
     <row r="6136">
       <c r="A6136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6137">
       <c r="A6137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6138">
@@ -31155,7 +31155,7 @@
     </row>
     <row r="6145">
       <c r="A6145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6146">
@@ -31235,7 +31235,7 @@
     </row>
     <row r="6161">
       <c r="A6161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6162">
@@ -31280,12 +31280,12 @@
     </row>
     <row r="6170">
       <c r="A6170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6171">
       <c r="A6171" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6172">
@@ -31300,7 +31300,7 @@
     </row>
     <row r="6174">
       <c r="A6174" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6175">
@@ -31315,7 +31315,7 @@
     </row>
     <row r="6177">
       <c r="A6177" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6178">
@@ -31345,7 +31345,7 @@
     </row>
     <row r="6183">
       <c r="A6183" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6184">
@@ -31365,7 +31365,7 @@
     </row>
     <row r="6187">
       <c r="A6187" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6188">
@@ -31395,7 +31395,7 @@
     </row>
     <row r="6193">
       <c r="A6193" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6194">
@@ -31415,7 +31415,7 @@
     </row>
     <row r="6197">
       <c r="A6197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6198">
@@ -31455,7 +31455,7 @@
     </row>
     <row r="6205">
       <c r="A6205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6206">
@@ -31465,7 +31465,7 @@
     </row>
     <row r="6207">
       <c r="A6207" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6208">
@@ -31500,7 +31500,7 @@
     </row>
     <row r="6214">
       <c r="A6214" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6215">
@@ -31545,7 +31545,7 @@
     </row>
     <row r="6223">
       <c r="A6223" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6224">
@@ -31575,7 +31575,7 @@
     </row>
     <row r="6229">
       <c r="A6229" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6230">
@@ -31605,7 +31605,7 @@
     </row>
     <row r="6235">
       <c r="A6235" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6236">
@@ -31630,7 +31630,7 @@
     </row>
     <row r="6240">
       <c r="A6240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6241">
@@ -31645,7 +31645,7 @@
     </row>
     <row r="6243">
       <c r="A6243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6244">
@@ -31655,7 +31655,7 @@
     </row>
     <row r="6245">
       <c r="A6245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6246">
@@ -31690,7 +31690,7 @@
     </row>
     <row r="6252">
       <c r="A6252" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6253">
@@ -31790,7 +31790,7 @@
     </row>
     <row r="6272">
       <c r="A6272" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6273">
@@ -31800,7 +31800,7 @@
     </row>
     <row r="6274">
       <c r="A6274" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6275">
@@ -31930,7 +31930,7 @@
     </row>
     <row r="6300">
       <c r="A6300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6301">
@@ -32020,7 +32020,7 @@
     </row>
     <row r="6318">
       <c r="A6318" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6319">
@@ -32110,7 +32110,7 @@
     </row>
     <row r="6336">
       <c r="A6336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6337">
@@ -32125,7 +32125,7 @@
     </row>
     <row r="6339">
       <c r="A6339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6340">
@@ -32310,7 +32310,7 @@
     </row>
     <row r="6376">
       <c r="A6376" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6377">
@@ -32330,7 +32330,7 @@
     </row>
     <row r="6380">
       <c r="A6380" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6381">
@@ -32415,7 +32415,7 @@
     </row>
     <row r="6397">
       <c r="A6397" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6398">
@@ -32445,7 +32445,7 @@
     </row>
     <row r="6403">
       <c r="A6403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6404">
@@ -32510,7 +32510,7 @@
     </row>
     <row r="6416">
       <c r="A6416" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6417">
@@ -32560,7 +32560,7 @@
     </row>
     <row r="6426">
       <c r="A6426" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6427">
@@ -32575,7 +32575,7 @@
     </row>
     <row r="6429">
       <c r="A6429" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6430">
@@ -32640,7 +32640,7 @@
     </row>
     <row r="6442">
       <c r="A6442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6443">
@@ -32650,7 +32650,7 @@
     </row>
     <row r="6444">
       <c r="A6444" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6445">
@@ -32685,12 +32685,12 @@
     </row>
     <row r="6451">
       <c r="A6451" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6452">
       <c r="A6452" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6453">
@@ -32715,7 +32715,7 @@
     </row>
     <row r="6457">
       <c r="A6457" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6458">
@@ -32750,7 +32750,7 @@
     </row>
     <row r="6464">
       <c r="A6464" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6465">
@@ -32810,7 +32810,7 @@
     </row>
     <row r="6476">
       <c r="A6476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6477">
@@ -32855,7 +32855,7 @@
     </row>
     <row r="6485">
       <c r="A6485" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6486">
@@ -32890,7 +32890,7 @@
     </row>
     <row r="6492">
       <c r="A6492" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6493">
@@ -32935,7 +32935,7 @@
     </row>
     <row r="6501">
       <c r="A6501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6502">
@@ -32950,7 +32950,7 @@
     </row>
     <row r="6504">
       <c r="A6504" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6505">
@@ -33015,7 +33015,7 @@
     </row>
     <row r="6517">
       <c r="A6517" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6518">
@@ -33040,12 +33040,12 @@
     </row>
     <row r="6522">
       <c r="A6522" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6523">
       <c r="A6523" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6524">
@@ -33060,7 +33060,7 @@
     </row>
     <row r="6526">
       <c r="A6526" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6527">
@@ -33105,7 +33105,7 @@
     </row>
     <row r="6535">
       <c r="A6535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6536">
@@ -33180,7 +33180,7 @@
     </row>
     <row r="6550">
       <c r="A6550" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6551">
@@ -33220,7 +33220,7 @@
     </row>
     <row r="6558">
       <c r="A6558" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6559">
@@ -33245,7 +33245,7 @@
     </row>
     <row r="6563">
       <c r="A6563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6564">
@@ -33285,7 +33285,7 @@
     </row>
     <row r="6571">
       <c r="A6571" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6572">
@@ -33365,7 +33365,7 @@
     </row>
     <row r="6587">
       <c r="A6587" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6588">
@@ -33380,7 +33380,7 @@
     </row>
     <row r="6590">
       <c r="A6590" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6591">
@@ -33390,7 +33390,7 @@
     </row>
     <row r="6592">
       <c r="A6592" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6593">
@@ -33465,7 +33465,7 @@
     </row>
     <row r="6607">
       <c r="A6607" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6608">
@@ -33485,7 +33485,7 @@
     </row>
     <row r="6611">
       <c r="A6611" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6612">
@@ -33495,7 +33495,7 @@
     </row>
     <row r="6613">
       <c r="A6613" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6614">
@@ -33570,12 +33570,12 @@
     </row>
     <row r="6628">
       <c r="A6628" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6629">
       <c r="A6629" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6630">
@@ -33630,7 +33630,7 @@
     </row>
     <row r="6640">
       <c r="A6640" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6641">
@@ -33685,7 +33685,7 @@
     </row>
     <row r="6651">
       <c r="A6651" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6652">
@@ -33695,7 +33695,7 @@
     </row>
     <row r="6653">
       <c r="A6653" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6654">
@@ -33735,7 +33735,7 @@
     </row>
     <row r="6661">
       <c r="A6661" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6662">
@@ -33780,12 +33780,12 @@
     </row>
     <row r="6670">
       <c r="A6670" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6671">
       <c r="A6671" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6672">
@@ -33845,7 +33845,7 @@
     </row>
     <row r="6683">
       <c r="A6683" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6684">
@@ -33855,7 +33855,7 @@
     </row>
     <row r="6685">
       <c r="A6685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6686">
@@ -33900,7 +33900,7 @@
     </row>
     <row r="6694">
       <c r="A6694" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6695">
@@ -33970,7 +33970,7 @@
     </row>
     <row r="6708">
       <c r="A6708" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6709">
@@ -34010,7 +34010,7 @@
     </row>
     <row r="6716">
       <c r="A6716" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6717">
@@ -34070,7 +34070,7 @@
     </row>
     <row r="6728">
       <c r="A6728" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6729">
@@ -34090,7 +34090,7 @@
     </row>
     <row r="6732">
       <c r="A6732" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6733">
@@ -34185,7 +34185,7 @@
     </row>
     <row r="6751">
       <c r="A6751" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6752">
@@ -34200,7 +34200,7 @@
     </row>
     <row r="6754">
       <c r="A6754" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6755">
@@ -34305,7 +34305,7 @@
     </row>
     <row r="6775">
       <c r="A6775" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6776">
@@ -34325,7 +34325,7 @@
     </row>
     <row r="6779">
       <c r="A6779" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6780">
@@ -34335,7 +34335,7 @@
     </row>
     <row r="6781">
       <c r="A6781" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6782">
@@ -34355,12 +34355,12 @@
     </row>
     <row r="6785">
       <c r="A6785" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6786">
       <c r="A6786" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6787">
@@ -34420,7 +34420,7 @@
     </row>
     <row r="6798">
       <c r="A6798" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6799">
@@ -34515,7 +34515,7 @@
     </row>
     <row r="6817">
       <c r="A6817" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6818">
@@ -34535,7 +34535,7 @@
     </row>
     <row r="6821">
       <c r="A6821" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6822">
@@ -34735,7 +34735,7 @@
     </row>
     <row r="6861">
       <c r="A6861" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6862">
@@ -34855,12 +34855,12 @@
     </row>
     <row r="6885">
       <c r="A6885" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6886">
       <c r="A6886" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6887">
@@ -34910,7 +34910,7 @@
     </row>
     <row r="6896">
       <c r="A6896" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6897">
@@ -34935,7 +34935,7 @@
     </row>
     <row r="6901">
       <c r="A6901" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6902">
@@ -34955,7 +34955,7 @@
     </row>
     <row r="6905">
       <c r="A6905" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6906">
@@ -34965,7 +34965,7 @@
     </row>
     <row r="6907">
       <c r="A6907" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6908">
@@ -34995,7 +34995,7 @@
     </row>
     <row r="6913">
       <c r="A6913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6914">
@@ -35025,7 +35025,7 @@
     </row>
     <row r="6919">
       <c r="A6919" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6920">
@@ -35125,7 +35125,7 @@
     </row>
     <row r="6939">
       <c r="A6939" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6940">
@@ -35190,7 +35190,7 @@
     </row>
     <row r="6952">
       <c r="A6952" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6953">
@@ -35225,7 +35225,7 @@
     </row>
     <row r="6959">
       <c r="A6959" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6960">
@@ -35310,7 +35310,7 @@
     </row>
     <row r="6976">
       <c r="A6976" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6977">
@@ -35555,7 +35555,7 @@
     </row>
     <row r="7025">
       <c r="A7025" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7026">
@@ -35570,7 +35570,7 @@
     </row>
     <row r="7028">
       <c r="A7028" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7029">
@@ -35670,12 +35670,12 @@
     </row>
     <row r="7048">
       <c r="A7048" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7049">
       <c r="A7049" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7050">
@@ -35815,7 +35815,7 @@
     </row>
     <row r="7077">
       <c r="A7077" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7078">
@@ -35875,7 +35875,7 @@
     </row>
     <row r="7089">
       <c r="A7089" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7090">
@@ -35890,7 +35890,7 @@
     </row>
     <row r="7092">
       <c r="A7092" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7093">
@@ -35900,7 +35900,7 @@
     </row>
     <row r="7094">
       <c r="A7094" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7095">
@@ -35930,7 +35930,7 @@
     </row>
     <row r="7100">
       <c r="A7100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7101">
@@ -36005,7 +36005,7 @@
     </row>
     <row r="7115">
       <c r="A7115" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7116">
@@ -36065,7 +36065,7 @@
     </row>
     <row r="7127">
       <c r="A7127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7128">
@@ -36085,7 +36085,7 @@
     </row>
     <row r="7131">
       <c r="A7131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7132">
@@ -36110,12 +36110,12 @@
     </row>
     <row r="7136">
       <c r="A7136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7137">
       <c r="A7137" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7138">
@@ -36145,7 +36145,7 @@
     </row>
     <row r="7143">
       <c r="A7143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7144">
@@ -36230,7 +36230,7 @@
     </row>
     <row r="7160">
       <c r="A7160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7161">
@@ -36250,12 +36250,12 @@
     </row>
     <row r="7164">
       <c r="A7164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7165">
       <c r="A7165" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7166">
@@ -36300,7 +36300,7 @@
     </row>
     <row r="7174">
       <c r="A7174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7175">
@@ -36350,7 +36350,7 @@
     </row>
     <row r="7184">
       <c r="A7184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7185">
@@ -36390,7 +36390,7 @@
     </row>
     <row r="7192">
       <c r="A7192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7193">
@@ -36420,7 +36420,7 @@
     </row>
     <row r="7198">
       <c r="A7198" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7199">
@@ -36445,7 +36445,7 @@
     </row>
     <row r="7203">
       <c r="A7203" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7204">
@@ -36490,7 +36490,7 @@
     </row>
     <row r="7212">
       <c r="A7212" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7213">
@@ -36510,7 +36510,7 @@
     </row>
     <row r="7216">
       <c r="A7216" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7217">
@@ -36625,7 +36625,7 @@
     </row>
     <row r="7239">
       <c r="A7239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7240">
@@ -36635,7 +36635,7 @@
     </row>
     <row r="7241">
       <c r="A7241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7242">
@@ -36650,7 +36650,7 @@
     </row>
     <row r="7244">
       <c r="A7244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7245">
@@ -36725,12 +36725,12 @@
     </row>
     <row r="7259">
       <c r="A7259" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7260">
       <c r="A7260" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7261">
@@ -36770,12 +36770,12 @@
     </row>
     <row r="7268">
       <c r="A7268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7269">
       <c r="A7269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7270">
@@ -36895,7 +36895,7 @@
     </row>
     <row r="7293">
       <c r="A7293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7294">
@@ -36940,7 +36940,7 @@
     </row>
     <row r="7302">
       <c r="A7302" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7303">
@@ -37030,7 +37030,7 @@
     </row>
     <row r="7320">
       <c r="A7320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7321">
@@ -37045,7 +37045,7 @@
     </row>
     <row r="7323">
       <c r="A7323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7324">
@@ -37175,7 +37175,7 @@
     </row>
     <row r="7349">
       <c r="A7349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7350">
@@ -37195,12 +37195,12 @@
     </row>
     <row r="7353">
       <c r="A7353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7354">
       <c r="A7354" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7355">
@@ -37310,7 +37310,7 @@
     </row>
     <row r="7376">
       <c r="A7376" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7377">
@@ -37350,7 +37350,7 @@
     </row>
     <row r="7384">
       <c r="A7384" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7385">
@@ -37360,7 +37360,7 @@
     </row>
     <row r="7386">
       <c r="A7386" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7387">
@@ -37395,17 +37395,17 @@
     </row>
     <row r="7393">
       <c r="A7393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7394">
       <c r="A7394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7395">
       <c r="A7395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7396">
@@ -37480,7 +37480,7 @@
     </row>
     <row r="7410">
       <c r="A7410" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7411">
@@ -37615,7 +37615,7 @@
     </row>
     <row r="7437">
       <c r="A7437" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7438">
@@ -37655,7 +37655,7 @@
     </row>
     <row r="7445">
       <c r="A7445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7446">
@@ -37665,7 +37665,7 @@
     </row>
     <row r="7447">
       <c r="A7447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7448">
@@ -37735,7 +37735,7 @@
     </row>
     <row r="7461">
       <c r="A7461" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7462">
@@ -37745,7 +37745,7 @@
     </row>
     <row r="7463">
       <c r="A7463" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7464">
@@ -37755,7 +37755,7 @@
     </row>
     <row r="7465">
       <c r="A7465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7466">
@@ -37810,7 +37810,7 @@
     </row>
     <row r="7476">
       <c r="A7476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7477">
@@ -37870,7 +37870,7 @@
     </row>
     <row r="7488">
       <c r="A7488" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7489">
@@ -37885,7 +37885,7 @@
     </row>
     <row r="7491">
       <c r="A7491" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7492">
@@ -37925,7 +37925,7 @@
     </row>
     <row r="7499">
       <c r="A7499" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7500">
@@ -37950,7 +37950,7 @@
     </row>
     <row r="7504">
       <c r="A7504" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7505">
@@ -37965,7 +37965,7 @@
     </row>
     <row r="7507">
       <c r="A7507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7508">
@@ -37990,7 +37990,7 @@
     </row>
     <row r="7512">
       <c r="A7512" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7513">
@@ -38010,7 +38010,7 @@
     </row>
     <row r="7516">
       <c r="A7516" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7517">
@@ -38040,7 +38040,7 @@
     </row>
     <row r="7522">
       <c r="A7522" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7523">
@@ -38075,7 +38075,7 @@
     </row>
     <row r="7529">
       <c r="A7529" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7530">
@@ -38095,7 +38095,7 @@
     </row>
     <row r="7533">
       <c r="A7533" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7534">
@@ -38195,7 +38195,7 @@
     </row>
     <row r="7553">
       <c r="A7553" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7554">
@@ -38205,12 +38205,12 @@
     </row>
     <row r="7555">
       <c r="A7555" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7556">
       <c r="A7556" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7557">
@@ -38225,7 +38225,7 @@
     </row>
     <row r="7559">
       <c r="A7559" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7560">
@@ -38275,7 +38275,7 @@
     </row>
     <row r="7569">
       <c r="A7569" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7570">
@@ -38310,7 +38310,7 @@
     </row>
     <row r="7576">
       <c r="A7576" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7577">
@@ -38320,7 +38320,7 @@
     </row>
     <row r="7578">
       <c r="A7578" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7579">
@@ -38340,17 +38340,17 @@
     </row>
     <row r="7582">
       <c r="A7582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7583">
       <c r="A7583" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7584">
       <c r="A7584" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7585">
@@ -38360,12 +38360,12 @@
     </row>
     <row r="7586">
       <c r="A7586" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7587">
       <c r="A7587" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7588">
@@ -38425,7 +38425,7 @@
     </row>
     <row r="7599">
       <c r="A7599" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7600">
@@ -38480,7 +38480,7 @@
     </row>
     <row r="7610">
       <c r="A7610" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7611">
@@ -38560,7 +38560,7 @@
     </row>
     <row r="7626">
       <c r="A7626" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7627">
@@ -38635,7 +38635,7 @@
     </row>
     <row r="7641">
       <c r="A7641" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7642">
@@ -38655,7 +38655,7 @@
     </row>
     <row r="7645">
       <c r="A7645" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7646">
@@ -38675,7 +38675,7 @@
     </row>
     <row r="7649">
       <c r="A7649" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7650">
@@ -38715,7 +38715,7 @@
     </row>
     <row r="7657">
       <c r="A7657" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7658">
@@ -38750,7 +38750,7 @@
     </row>
     <row r="7664">
       <c r="A7664" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7665">
@@ -38805,7 +38805,7 @@
     </row>
     <row r="7675">
       <c r="A7675" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7676">
@@ -38885,17 +38885,17 @@
     </row>
     <row r="7691">
       <c r="A7691" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7692">
       <c r="A7692" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7693">
       <c r="A7693" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7694">
@@ -39010,7 +39010,7 @@
     </row>
     <row r="7716">
       <c r="A7716" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7717">
@@ -39035,7 +39035,7 @@
     </row>
     <row r="7721">
       <c r="A7721" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7722">
@@ -39100,7 +39100,7 @@
     </row>
     <row r="7734">
       <c r="A7734" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7735">
@@ -39135,7 +39135,7 @@
     </row>
     <row r="7741">
       <c r="A7741" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7742">
@@ -39175,7 +39175,7 @@
     </row>
     <row r="7749">
       <c r="A7749" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7750">
@@ -39205,7 +39205,7 @@
     </row>
     <row r="7755">
       <c r="A7755" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7756">
@@ -39345,7 +39345,7 @@
     </row>
     <row r="7783">
       <c r="A7783" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7784">
@@ -39415,7 +39415,7 @@
     </row>
     <row r="7797">
       <c r="A7797" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7798">
@@ -39440,7 +39440,7 @@
     </row>
     <row r="7802">
       <c r="A7802" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7803">
@@ -39485,7 +39485,7 @@
     </row>
     <row r="7811">
       <c r="A7811" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7812">
@@ -39510,7 +39510,7 @@
     </row>
     <row r="7816">
       <c r="A7816" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7817">
@@ -39520,7 +39520,7 @@
     </row>
     <row r="7818">
       <c r="A7818" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7819">
@@ -39635,7 +39635,7 @@
     </row>
     <row r="7841">
       <c r="A7841" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7842">
@@ -39675,7 +39675,7 @@
     </row>
     <row r="7849">
       <c r="A7849" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7850">
@@ -39700,7 +39700,7 @@
     </row>
     <row r="7854">
       <c r="A7854" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7855">
@@ -39715,12 +39715,12 @@
     </row>
     <row r="7857">
       <c r="A7857" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7858">
       <c r="A7858" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7859">
@@ -39760,7 +39760,7 @@
     </row>
     <row r="7866">
       <c r="A7866" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7867">
@@ -39935,7 +39935,7 @@
     </row>
     <row r="7901">
       <c r="A7901" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7902">
@@ -39945,7 +39945,7 @@
     </row>
     <row r="7903">
       <c r="A7903" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7904">
@@ -40140,7 +40140,7 @@
     </row>
     <row r="7942">
       <c r="A7942" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7943">
@@ -40155,7 +40155,7 @@
     </row>
     <row r="7945">
       <c r="A7945" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7946">
@@ -40190,7 +40190,7 @@
     </row>
     <row r="7952">
       <c r="A7952" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7953">
@@ -40210,7 +40210,7 @@
     </row>
     <row r="7956">
       <c r="A7956" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7957">
@@ -40225,7 +40225,7 @@
     </row>
     <row r="7959">
       <c r="A7959" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7960">
@@ -40315,7 +40315,7 @@
     </row>
     <row r="7977">
       <c r="A7977" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7978">
@@ -40355,7 +40355,7 @@
     </row>
     <row r="7985">
       <c r="A7985" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7986">
@@ -40385,7 +40385,7 @@
     </row>
     <row r="7991">
       <c r="A7991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7992">
@@ -40395,7 +40395,7 @@
     </row>
     <row r="7993">
       <c r="A7993" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7994">
@@ -40415,7 +40415,7 @@
     </row>
     <row r="7997">
       <c r="A7997" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7998">
@@ -40450,7 +40450,7 @@
     </row>
     <row r="8004">
       <c r="A8004" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8005">
@@ -40565,7 +40565,7 @@
     </row>
     <row r="8027">
       <c r="A8027" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8028">
@@ -40645,7 +40645,7 @@
     </row>
     <row r="8043">
       <c r="A8043" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8044">
@@ -40710,7 +40710,7 @@
     </row>
     <row r="8056">
       <c r="A8056" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8057">
@@ -40730,7 +40730,7 @@
     </row>
     <row r="8060">
       <c r="A8060" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8061">
@@ -40750,7 +40750,7 @@
     </row>
     <row r="8064">
       <c r="A8064" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8065">
@@ -40795,7 +40795,7 @@
     </row>
     <row r="8073">
       <c r="A8073" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8074">
@@ -40870,7 +40870,7 @@
     </row>
     <row r="8088">
       <c r="A8088" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8089">
@@ -40885,7 +40885,7 @@
     </row>
     <row r="8091">
       <c r="A8091" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8092">
@@ -40925,12 +40925,12 @@
     </row>
     <row r="8099">
       <c r="A8099" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8100">
       <c r="A8100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8101">
@@ -41000,7 +41000,7 @@
     </row>
     <row r="8114">
       <c r="A8114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8115">
@@ -41045,7 +41045,7 @@
     </row>
     <row r="8123">
       <c r="A8123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8124">
@@ -41055,7 +41055,7 @@
     </row>
     <row r="8125">
       <c r="A8125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8126">
@@ -41095,7 +41095,7 @@
     </row>
     <row r="8133">
       <c r="A8133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8134">
@@ -41130,7 +41130,7 @@
     </row>
     <row r="8140">
       <c r="A8140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8141">
@@ -41150,7 +41150,7 @@
     </row>
     <row r="8144">
       <c r="A8144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8145">
@@ -41225,7 +41225,7 @@
     </row>
     <row r="8159">
       <c r="A8159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8160">
@@ -41360,12 +41360,12 @@
     </row>
     <row r="8186">
       <c r="A8186" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8187">
       <c r="A8187" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8188">
@@ -41380,7 +41380,7 @@
     </row>
     <row r="8190">
       <c r="A8190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8191">
@@ -41400,7 +41400,7 @@
     </row>
     <row r="8194">
       <c r="A8194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8195">
@@ -41515,7 +41515,7 @@
     </row>
     <row r="8217">
       <c r="A8217" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8218">
@@ -41550,7 +41550,7 @@
     </row>
     <row r="8224">
       <c r="A8224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8225">
@@ -41610,7 +41610,7 @@
     </row>
     <row r="8236">
       <c r="A8236" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8237">
@@ -41630,7 +41630,7 @@
     </row>
     <row r="8240">
       <c r="A8240" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8241">
@@ -41655,7 +41655,7 @@
     </row>
     <row r="8245">
       <c r="A8245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8246">
@@ -41700,12 +41700,12 @@
     </row>
     <row r="8254">
       <c r="A8254" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8255">
       <c r="A8255" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8256">
@@ -41800,7 +41800,7 @@
     </row>
     <row r="8274">
       <c r="A8274" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8275">
@@ -41870,7 +41870,7 @@
     </row>
     <row r="8288">
       <c r="A8288" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8289">
@@ -41925,7 +41925,7 @@
     </row>
     <row r="8299">
       <c r="A8299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8300">
@@ -41960,12 +41960,12 @@
     </row>
     <row r="8306">
       <c r="A8306" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8307">
       <c r="A8307" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8308">
@@ -42045,7 +42045,7 @@
     </row>
     <row r="8323">
       <c r="A8323" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8324">
@@ -42060,7 +42060,7 @@
     </row>
     <row r="8326">
       <c r="A8326" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8327">
@@ -42085,7 +42085,7 @@
     </row>
     <row r="8331">
       <c r="A8331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8332">
@@ -42110,7 +42110,7 @@
     </row>
     <row r="8336">
       <c r="A8336" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8337">
@@ -42140,7 +42140,7 @@
     </row>
     <row r="8342">
       <c r="A8342" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8343">
@@ -42155,7 +42155,7 @@
     </row>
     <row r="8345">
       <c r="A8345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8346">
@@ -42195,7 +42195,7 @@
     </row>
     <row r="8353">
       <c r="A8353" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8354">
@@ -42260,7 +42260,7 @@
     </row>
     <row r="8366">
       <c r="A8366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8367">
@@ -42270,7 +42270,7 @@
     </row>
     <row r="8368">
       <c r="A8368" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8369">
@@ -42300,7 +42300,7 @@
     </row>
     <row r="8374">
       <c r="A8374" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8375">
@@ -42380,7 +42380,7 @@
     </row>
     <row r="8390">
       <c r="A8390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8391">
@@ -42505,7 +42505,7 @@
     </row>
     <row r="8415">
       <c r="A8415" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8416">
@@ -42545,7 +42545,7 @@
     </row>
     <row r="8423">
       <c r="A8423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8424">
@@ -42560,7 +42560,7 @@
     </row>
     <row r="8426">
       <c r="A8426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8427">
@@ -42605,7 +42605,7 @@
     </row>
     <row r="8435">
       <c r="A8435" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8436">
@@ -42685,7 +42685,7 @@
     </row>
     <row r="8451">
       <c r="A8451" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8452">
@@ -42700,7 +42700,7 @@
     </row>
     <row r="8454">
       <c r="A8454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8455">
@@ -42710,7 +42710,7 @@
     </row>
     <row r="8456">
       <c r="A8456" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8457">
@@ -42775,12 +42775,12 @@
     </row>
     <row r="8469">
       <c r="A8469" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8470">
       <c r="A8470" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8471">
@@ -42815,7 +42815,7 @@
     </row>
     <row r="8477">
       <c r="A8477" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8478">
@@ -42860,7 +42860,7 @@
     </row>
     <row r="8486">
       <c r="A8486" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8487">
@@ -42920,7 +42920,7 @@
     </row>
     <row r="8498">
       <c r="A8498" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8499">
@@ -42980,12 +42980,12 @@
     </row>
     <row r="8510">
       <c r="A8510" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8511">
       <c r="A8511" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8512">
@@ -43045,12 +43045,12 @@
     </row>
     <row r="8523">
       <c r="A8523" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8524">
       <c r="A8524" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8525">
@@ -43065,7 +43065,7 @@
     </row>
     <row r="8527">
       <c r="A8527" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8528">
@@ -43075,17 +43075,17 @@
     </row>
     <row r="8529">
       <c r="A8529" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8530">
       <c r="A8530" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8531">
       <c r="A8531" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8532">
@@ -43100,7 +43100,7 @@
     </row>
     <row r="8534">
       <c r="A8534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8535">
@@ -43140,7 +43140,7 @@
     </row>
     <row r="8542">
       <c r="A8542" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8543">
@@ -43160,7 +43160,7 @@
     </row>
     <row r="8546">
       <c r="A8546" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8547">
@@ -43225,7 +43225,7 @@
     </row>
     <row r="8559">
       <c r="A8559" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8560">
@@ -43280,7 +43280,7 @@
     </row>
     <row r="8570">
       <c r="A8570" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8571">
@@ -43320,12 +43320,12 @@
     </row>
     <row r="8578">
       <c r="A8578" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8579">
       <c r="A8579" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8580">
@@ -43345,7 +43345,7 @@
     </row>
     <row r="8583">
       <c r="A8583" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8584">
@@ -43360,7 +43360,7 @@
     </row>
     <row r="8586">
       <c r="A8586" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8587">
@@ -43465,7 +43465,7 @@
     </row>
     <row r="8607">
       <c r="A8607" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8608">
@@ -43600,7 +43600,7 @@
     </row>
     <row r="8634">
       <c r="A8634" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8635">
@@ -43625,7 +43625,7 @@
     </row>
     <row r="8639">
       <c r="A8639" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8640">
@@ -43650,7 +43650,7 @@
     </row>
     <row r="8644">
       <c r="A8644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8645">
@@ -43760,7 +43760,7 @@
     </row>
     <row r="8666">
       <c r="A8666" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8667">
@@ -43845,7 +43845,7 @@
     </row>
     <row r="8683">
       <c r="A8683" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8684">
@@ -43925,7 +43925,7 @@
     </row>
     <row r="8699">
       <c r="A8699" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8700">
@@ -43990,7 +43990,7 @@
     </row>
     <row r="8712">
       <c r="A8712" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8713">
@@ -44005,7 +44005,7 @@
     </row>
     <row r="8715">
       <c r="A8715" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8716">
@@ -44030,7 +44030,7 @@
     </row>
     <row r="8720">
       <c r="A8720" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8721">
@@ -44065,7 +44065,7 @@
     </row>
     <row r="8727">
       <c r="A8727" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8728">
@@ -44170,7 +44170,7 @@
     </row>
     <row r="8748">
       <c r="A8748" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8749">
@@ -44185,7 +44185,7 @@
     </row>
     <row r="8751">
       <c r="A8751" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8752">
@@ -44285,7 +44285,7 @@
     </row>
     <row r="8771">
       <c r="A8771" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8772">
@@ -44325,12 +44325,12 @@
     </row>
     <row r="8779">
       <c r="A8779" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8780">
       <c r="A8780" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8781">

--- a/Y_pred.xlsx
+++ b/Y_pred.xlsx
@@ -455,12 +455,12 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -480,7 +480,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +520,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -530,12 +530,12 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -600,7 +600,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -620,7 +620,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -645,7 +645,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -715,7 +715,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -780,7 +780,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -805,7 +805,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -820,7 +820,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -830,7 +830,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -845,7 +845,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -870,7 +870,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -965,12 +965,12 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -990,7 +990,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -1000,7 +1000,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1010,7 +1010,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
@@ -1055,7 +1055,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -1065,7 +1065,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -1150,7 +1150,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145">
@@ -1195,7 +1195,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -1220,7 +1220,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -1305,7 +1305,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -1345,7 +1345,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -1405,7 +1405,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -1435,17 +1435,17 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -1475,7 +1475,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -1490,7 +1490,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -1565,7 +1565,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -1705,7 +1705,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256">
@@ -1725,7 +1725,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260">
@@ -1755,7 +1755,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -1765,7 +1765,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -1825,7 +1825,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -1855,7 +1855,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="286">
@@ -1885,7 +1885,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -2010,7 +2010,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -2150,7 +2150,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -2165,12 +2165,12 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -2220,7 +2220,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -2235,7 +2235,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362">
@@ -2250,7 +2250,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365">
@@ -2300,7 +2300,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375">
@@ -2350,7 +2350,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -2425,7 +2425,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400">
@@ -2465,7 +2465,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408">
@@ -2515,7 +2515,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -2525,7 +2525,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="420">
@@ -2575,7 +2575,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -2595,7 +2595,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434">
@@ -2720,7 +2720,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459">
@@ -2765,12 +2765,12 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469">
@@ -2850,7 +2850,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485">
@@ -2905,7 +2905,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496">
@@ -3085,7 +3085,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -3140,12 +3140,12 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -3430,7 +3430,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="601">
@@ -3530,7 +3530,7 @@
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -3585,7 +3585,7 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632">
@@ -3620,12 +3620,12 @@
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640">
@@ -3675,7 +3675,7 @@
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="650">
@@ -3745,7 +3745,7 @@
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664">
@@ -3755,7 +3755,7 @@
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="666">
@@ -3785,7 +3785,7 @@
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672">
@@ -3935,12 +3935,12 @@
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703">
@@ -3985,7 +3985,7 @@
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="712">
@@ -4000,7 +4000,7 @@
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715">
@@ -4080,7 +4080,7 @@
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="731">
@@ -4115,7 +4115,7 @@
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="738">
@@ -4195,7 +4195,7 @@
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754">
@@ -4345,7 +4345,7 @@
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784">
@@ -4435,7 +4435,7 @@
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="802">
@@ -4450,7 +4450,7 @@
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805">
@@ -4480,7 +4480,7 @@
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="811">
@@ -4510,7 +4510,7 @@
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817">
@@ -4530,7 +4530,7 @@
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821">
@@ -4545,7 +4545,7 @@
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824">
@@ -4630,12 +4630,12 @@
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842">
@@ -4665,12 +4665,12 @@
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="849">
@@ -4695,7 +4695,7 @@
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854">
@@ -4770,7 +4770,7 @@
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869">
@@ -4850,7 +4850,7 @@
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="885">
@@ -4860,7 +4860,7 @@
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -4945,7 +4945,7 @@
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="904">
@@ -4960,7 +4960,7 @@
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907">
@@ -4995,7 +4995,7 @@
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914">
@@ -5010,7 +5010,7 @@
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917">
@@ -5050,7 +5050,7 @@
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -5075,7 +5075,7 @@
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930">
@@ -5115,7 +5115,7 @@
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938">
@@ -5275,12 +5275,12 @@
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -5290,7 +5290,7 @@
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -5350,7 +5350,7 @@
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985">
@@ -5370,7 +5370,7 @@
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -5440,7 +5440,7 @@
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -5450,7 +5450,7 @@
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005">
@@ -5520,7 +5520,7 @@
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1019">
@@ -5620,7 +5620,7 @@
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1039">
@@ -5725,7 +5725,7 @@
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -5815,7 +5815,7 @@
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078">
@@ -5960,7 +5960,7 @@
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1107">
@@ -5985,17 +5985,17 @@
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1114">
@@ -6015,7 +6015,7 @@
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1118">
@@ -6025,7 +6025,7 @@
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1120">
@@ -6055,7 +6055,7 @@
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1126">
@@ -6095,7 +6095,7 @@
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1134">
@@ -6105,7 +6105,7 @@
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136">
@@ -6270,7 +6270,7 @@
     </row>
     <row r="1168">
       <c r="A1168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169">
@@ -6295,12 +6295,12 @@
     </row>
     <row r="1173">
       <c r="A1173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1175">
@@ -6450,7 +6450,7 @@
     </row>
     <row r="1204">
       <c r="A1204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1205">
@@ -6515,7 +6515,7 @@
     </row>
     <row r="1217">
       <c r="A1217" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1218">
@@ -6565,7 +6565,7 @@
     </row>
     <row r="1227">
       <c r="A1227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1228">
@@ -6575,7 +6575,7 @@
     </row>
     <row r="1229">
       <c r="A1229" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1230">
@@ -6620,7 +6620,7 @@
     </row>
     <row r="1238">
       <c r="A1238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1239">
@@ -6645,7 +6645,7 @@
     </row>
     <row r="1243">
       <c r="A1243" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1244">
@@ -6655,7 +6655,7 @@
     </row>
     <row r="1245">
       <c r="A1245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1246">
@@ -6675,7 +6675,7 @@
     </row>
     <row r="1249">
       <c r="A1249" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1250">
@@ -6720,7 +6720,7 @@
     </row>
     <row r="1258">
       <c r="A1258" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1259">
@@ -6805,7 +6805,7 @@
     </row>
     <row r="1275">
       <c r="A1275" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1276">
@@ -6820,7 +6820,7 @@
     </row>
     <row r="1278">
       <c r="A1278" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1279">
@@ -6885,7 +6885,7 @@
     </row>
     <row r="1291">
       <c r="A1291" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1292">
@@ -6945,7 +6945,7 @@
     </row>
     <row r="1303">
       <c r="A1303" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1304">
@@ -6980,7 +6980,7 @@
     </row>
     <row r="1310">
       <c r="A1310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1311">
@@ -6990,12 +6990,12 @@
     </row>
     <row r="1312">
       <c r="A1312" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313">
       <c r="A1313" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1314">
@@ -7040,7 +7040,7 @@
     </row>
     <row r="1322">
       <c r="A1322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1323">
@@ -7055,7 +7055,7 @@
     </row>
     <row r="1325">
       <c r="A1325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1326">
@@ -7130,7 +7130,7 @@
     </row>
     <row r="1340">
       <c r="A1340" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1341">
@@ -7170,7 +7170,7 @@
     </row>
     <row r="1348">
       <c r="A1348" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -7205,7 +7205,7 @@
     </row>
     <row r="1355">
       <c r="A1355" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1356">
@@ -7310,7 +7310,7 @@
     </row>
     <row r="1376">
       <c r="A1376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1377">
@@ -7350,7 +7350,7 @@
     </row>
     <row r="1384">
       <c r="A1384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1385">
@@ -7400,7 +7400,7 @@
     </row>
     <row r="1394">
       <c r="A1394" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1395">
@@ -7450,7 +7450,7 @@
     </row>
     <row r="1404">
       <c r="A1404" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -7475,7 +7475,7 @@
     </row>
     <row r="1409">
       <c r="A1409" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -7515,7 +7515,7 @@
     </row>
     <row r="1417">
       <c r="A1417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1418">
@@ -7535,7 +7535,7 @@
     </row>
     <row r="1421">
       <c r="A1421" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -7565,7 +7565,7 @@
     </row>
     <row r="1427">
       <c r="A1427" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1428">
@@ -7605,7 +7605,7 @@
     </row>
     <row r="1435">
       <c r="A1435" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1436">
@@ -7685,7 +7685,7 @@
     </row>
     <row r="1451">
       <c r="A1451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1452">
@@ -7720,7 +7720,7 @@
     </row>
     <row r="1458">
       <c r="A1458" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1459">
@@ -7765,7 +7765,7 @@
     </row>
     <row r="1467">
       <c r="A1467" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -7810,7 +7810,7 @@
     </row>
     <row r="1476">
       <c r="A1476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1477">
@@ -7855,7 +7855,7 @@
     </row>
     <row r="1485">
       <c r="A1485" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1486">
@@ -7940,12 +7940,12 @@
     </row>
     <row r="1502">
       <c r="A1502" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1504">
@@ -7995,7 +7995,7 @@
     </row>
     <row r="1513">
       <c r="A1513" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1514">
@@ -8085,7 +8085,7 @@
     </row>
     <row r="1531">
       <c r="A1531" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1532">
@@ -8355,7 +8355,7 @@
     </row>
     <row r="1585">
       <c r="A1585" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1586">
@@ -8390,7 +8390,7 @@
     </row>
     <row r="1592">
       <c r="A1592" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1593">
@@ -8400,7 +8400,7 @@
     </row>
     <row r="1594">
       <c r="A1594" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1595">
@@ -8415,7 +8415,7 @@
     </row>
     <row r="1597">
       <c r="A1597" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1598">
@@ -8455,7 +8455,7 @@
     </row>
     <row r="1605">
       <c r="A1605" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1606">
@@ -8550,7 +8550,7 @@
     </row>
     <row r="1624">
       <c r="A1624" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1625">
@@ -8570,7 +8570,7 @@
     </row>
     <row r="1628">
       <c r="A1628" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1629">
@@ -8595,12 +8595,12 @@
     </row>
     <row r="1633">
       <c r="A1633" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1634">
       <c r="A1634" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1635">
@@ -8640,7 +8640,7 @@
     </row>
     <row r="1642">
       <c r="A1642" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1643">
@@ -8690,7 +8690,7 @@
     </row>
     <row r="1652">
       <c r="A1652" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1653">
@@ -8720,7 +8720,7 @@
     </row>
     <row r="1658">
       <c r="A1658" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1659">
@@ -8730,7 +8730,7 @@
     </row>
     <row r="1660">
       <c r="A1660" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1661">
@@ -8855,7 +8855,7 @@
     </row>
     <row r="1685">
       <c r="A1685" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1686">
@@ -8870,7 +8870,7 @@
     </row>
     <row r="1688">
       <c r="A1688" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1689">
@@ -8895,7 +8895,7 @@
     </row>
     <row r="1693">
       <c r="A1693" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1694">
@@ -8905,7 +8905,7 @@
     </row>
     <row r="1695">
       <c r="A1695" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1696">
@@ -8930,7 +8930,7 @@
     </row>
     <row r="1700">
       <c r="A1700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1701">
@@ -8980,7 +8980,7 @@
     </row>
     <row r="1710">
       <c r="A1710" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1711">
@@ -8990,7 +8990,7 @@
     </row>
     <row r="1712">
       <c r="A1712" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1713">
@@ -9015,7 +9015,7 @@
     </row>
     <row r="1717">
       <c r="A1717" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1718">
@@ -9025,7 +9025,7 @@
     </row>
     <row r="1719">
       <c r="A1719" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1720">
@@ -9110,7 +9110,7 @@
     </row>
     <row r="1736">
       <c r="A1736" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1737">
@@ -9120,7 +9120,7 @@
     </row>
     <row r="1738">
       <c r="A1738" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1739">
@@ -9165,7 +9165,7 @@
     </row>
     <row r="1747">
       <c r="A1747" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1748">
@@ -9255,7 +9255,7 @@
     </row>
     <row r="1765">
       <c r="A1765" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1766">
@@ -9280,7 +9280,7 @@
     </row>
     <row r="1770">
       <c r="A1770" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1771">
@@ -9300,7 +9300,7 @@
     </row>
     <row r="1774">
       <c r="A1774" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1775">
@@ -9315,12 +9315,12 @@
     </row>
     <row r="1777">
       <c r="A1777" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1778">
       <c r="A1778" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1779">
@@ -9370,7 +9370,7 @@
     </row>
     <row r="1788">
       <c r="A1788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1789">
@@ -9380,7 +9380,7 @@
     </row>
     <row r="1790">
       <c r="A1790" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1791">
@@ -9515,7 +9515,7 @@
     </row>
     <row r="1817">
       <c r="A1817" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1818">
@@ -9575,7 +9575,7 @@
     </row>
     <row r="1829">
       <c r="A1829" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1830">
@@ -9610,7 +9610,7 @@
     </row>
     <row r="1836">
       <c r="A1836" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1837">
@@ -9665,7 +9665,7 @@
     </row>
     <row r="1847">
       <c r="A1847" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1848">
@@ -9715,7 +9715,7 @@
     </row>
     <row r="1857">
       <c r="A1857" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1858">
@@ -9730,7 +9730,7 @@
     </row>
     <row r="1860">
       <c r="A1860" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1861">
@@ -9755,12 +9755,12 @@
     </row>
     <row r="1865">
       <c r="A1865" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1866">
       <c r="A1866" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1867">
@@ -9830,7 +9830,7 @@
     </row>
     <row r="1880">
       <c r="A1880" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1881">
@@ -9845,7 +9845,7 @@
     </row>
     <row r="1883">
       <c r="A1883" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1884">
@@ -9995,7 +9995,7 @@
     </row>
     <row r="1913">
       <c r="A1913" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1914">
@@ -10045,7 +10045,7 @@
     </row>
     <row r="1923">
       <c r="A1923" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1924">
@@ -10060,7 +10060,7 @@
     </row>
     <row r="1926">
       <c r="A1926" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1927">
@@ -10165,7 +10165,7 @@
     </row>
     <row r="1947">
       <c r="A1947" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1948">
@@ -10190,7 +10190,7 @@
     </row>
     <row r="1952">
       <c r="A1952" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1953">
@@ -10200,12 +10200,12 @@
     </row>
     <row r="1954">
       <c r="A1954" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1955">
       <c r="A1955" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1956">
@@ -10280,7 +10280,7 @@
     </row>
     <row r="1970">
       <c r="A1970" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1971">
@@ -10320,7 +10320,7 @@
     </row>
     <row r="1978">
       <c r="A1978" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1979">
@@ -10340,7 +10340,7 @@
     </row>
     <row r="1982">
       <c r="A1982" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1983">
@@ -10360,7 +10360,7 @@
     </row>
     <row r="1986">
       <c r="A1986" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1987">
@@ -10405,7 +10405,7 @@
     </row>
     <row r="1995">
       <c r="A1995" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1996">
@@ -10430,7 +10430,7 @@
     </row>
     <row r="2000">
       <c r="A2000" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2001">
@@ -10510,7 +10510,7 @@
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2017">
@@ -10615,7 +10615,7 @@
     </row>
     <row r="2037">
       <c r="A2037" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2038">
@@ -10630,7 +10630,7 @@
     </row>
     <row r="2040">
       <c r="A2040" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2041">
@@ -10645,7 +10645,7 @@
     </row>
     <row r="2043">
       <c r="A2043" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2044">
@@ -10690,7 +10690,7 @@
     </row>
     <row r="2052">
       <c r="A2052" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2053">
@@ -10710,7 +10710,7 @@
     </row>
     <row r="2056">
       <c r="A2056" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2057">
@@ -10750,7 +10750,7 @@
     </row>
     <row r="2064">
       <c r="A2064" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2065">
@@ -10760,7 +10760,7 @@
     </row>
     <row r="2066">
       <c r="A2066" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2067">
@@ -10800,7 +10800,7 @@
     </row>
     <row r="2074">
       <c r="A2074" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2075">
@@ -10825,7 +10825,7 @@
     </row>
     <row r="2079">
       <c r="A2079" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2080">
@@ -10855,7 +10855,7 @@
     </row>
     <row r="2085">
       <c r="A2085" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2086">
@@ -10865,12 +10865,12 @@
     </row>
     <row r="2087">
       <c r="A2087" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2088">
       <c r="A2088" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2089">
@@ -10885,7 +10885,7 @@
     </row>
     <row r="2091">
       <c r="A2091" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2092">
@@ -10920,7 +10920,7 @@
     </row>
     <row r="2098">
       <c r="A2098" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2099">
@@ -10980,7 +10980,7 @@
     </row>
     <row r="2110">
       <c r="A2110" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2111">
@@ -11040,7 +11040,7 @@
     </row>
     <row r="2122">
       <c r="A2122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2123">
@@ -11070,7 +11070,7 @@
     </row>
     <row r="2128">
       <c r="A2128" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2129">
@@ -11155,7 +11155,7 @@
     </row>
     <row r="2145">
       <c r="A2145" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2146">
@@ -11175,7 +11175,7 @@
     </row>
     <row r="2149">
       <c r="A2149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2150">
@@ -11185,12 +11185,12 @@
     </row>
     <row r="2151">
       <c r="A2151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2152">
       <c r="A2152" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2153">
@@ -11250,12 +11250,12 @@
     </row>
     <row r="2164">
       <c r="A2164" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2165">
       <c r="A2165" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2166">
@@ -11380,12 +11380,12 @@
     </row>
     <row r="2190">
       <c r="A2190" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2191">
       <c r="A2191" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2192">
@@ -11420,7 +11420,7 @@
     </row>
     <row r="2198">
       <c r="A2198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2199">
@@ -11460,7 +11460,7 @@
     </row>
     <row r="2206">
       <c r="A2206" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2207">
@@ -11520,7 +11520,7 @@
     </row>
     <row r="2218">
       <c r="A2218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2219">
@@ -11660,12 +11660,12 @@
     </row>
     <row r="2246">
       <c r="A2246" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2247">
       <c r="A2247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -11705,7 +11705,7 @@
     </row>
     <row r="2255">
       <c r="A2255" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2256">
@@ -11795,7 +11795,7 @@
     </row>
     <row r="2273">
       <c r="A2273" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2274">
@@ -11820,7 +11820,7 @@
     </row>
     <row r="2278">
       <c r="A2278" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
@@ -11875,7 +11875,7 @@
     </row>
     <row r="2289">
       <c r="A2289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2290">
@@ -11920,7 +11920,7 @@
     </row>
     <row r="2298">
       <c r="A2298" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2299">
@@ -12080,7 +12080,7 @@
     </row>
     <row r="2330">
       <c r="A2330" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2331">
@@ -12135,7 +12135,7 @@
     </row>
     <row r="2341">
       <c r="A2341" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2342">
@@ -12165,12 +12165,12 @@
     </row>
     <row r="2347">
       <c r="A2347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2349">
@@ -12210,7 +12210,7 @@
     </row>
     <row r="2356">
       <c r="A2356" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2357">
@@ -12280,7 +12280,7 @@
     </row>
     <row r="2370">
       <c r="A2370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2371">
@@ -12300,7 +12300,7 @@
     </row>
     <row r="2374">
       <c r="A2374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2375">
@@ -12370,7 +12370,7 @@
     </row>
     <row r="2388">
       <c r="A2388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2389">
@@ -12395,7 +12395,7 @@
     </row>
     <row r="2393">
       <c r="A2393" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2394">
@@ -12460,7 +12460,7 @@
     </row>
     <row r="2406">
       <c r="A2406" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2407">
@@ -12485,7 +12485,7 @@
     </row>
     <row r="2411">
       <c r="A2411" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2412">
@@ -12540,12 +12540,12 @@
     </row>
     <row r="2422">
       <c r="A2422" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2423">
       <c r="A2423" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2424">
@@ -12555,7 +12555,7 @@
     </row>
     <row r="2425">
       <c r="A2425" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2426">
@@ -12575,7 +12575,7 @@
     </row>
     <row r="2429">
       <c r="A2429" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2430">
@@ -12605,7 +12605,7 @@
     </row>
     <row r="2435">
       <c r="A2435" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2436">
@@ -12650,7 +12650,7 @@
     </row>
     <row r="2444">
       <c r="A2444" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2445">
@@ -12680,7 +12680,7 @@
     </row>
     <row r="2450">
       <c r="A2450" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2451">
@@ -12760,12 +12760,12 @@
     </row>
     <row r="2466">
       <c r="A2466" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2467">
       <c r="A2467" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2468">
@@ -12780,7 +12780,7 @@
     </row>
     <row r="2470">
       <c r="A2470" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2471">
@@ -12800,7 +12800,7 @@
     </row>
     <row r="2474">
       <c r="A2474" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2475">
@@ -12970,7 +12970,7 @@
     </row>
     <row r="2508">
       <c r="A2508" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2509">
@@ -13105,7 +13105,7 @@
     </row>
     <row r="2535">
       <c r="A2535" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2536">
@@ -13115,7 +13115,7 @@
     </row>
     <row r="2537">
       <c r="A2537" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2538">
@@ -13125,7 +13125,7 @@
     </row>
     <row r="2539">
       <c r="A2539" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2540">
@@ -13145,7 +13145,7 @@
     </row>
     <row r="2543">
       <c r="A2543" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2544">
@@ -13180,7 +13180,7 @@
     </row>
     <row r="2550">
       <c r="A2550" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2551">
@@ -13230,7 +13230,7 @@
     </row>
     <row r="2560">
       <c r="A2560" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2561">
@@ -13255,7 +13255,7 @@
     </row>
     <row r="2565">
       <c r="A2565" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2566">
@@ -13285,7 +13285,7 @@
     </row>
     <row r="2571">
       <c r="A2571" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2572">
@@ -13345,17 +13345,17 @@
     </row>
     <row r="2583">
       <c r="A2583" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
       <c r="A2584" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2585">
       <c r="A2585" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2586">
@@ -13395,7 +13395,7 @@
     </row>
     <row r="2593">
       <c r="A2593" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -13450,7 +13450,7 @@
     </row>
     <row r="2604">
       <c r="A2604" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -13565,7 +13565,7 @@
     </row>
     <row r="2627">
       <c r="A2627" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2628">
@@ -13580,7 +13580,7 @@
     </row>
     <row r="2630">
       <c r="A2630" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2631">
@@ -13590,7 +13590,7 @@
     </row>
     <row r="2632">
       <c r="A2632" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2633">
@@ -13615,7 +13615,7 @@
     </row>
     <row r="2637">
       <c r="A2637" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2638">
@@ -13700,7 +13700,7 @@
     </row>
     <row r="2654">
       <c r="A2654" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2655">
@@ -13710,7 +13710,7 @@
     </row>
     <row r="2656">
       <c r="A2656" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2657">
@@ -13750,7 +13750,7 @@
     </row>
     <row r="2664">
       <c r="A2664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2665">
@@ -13815,7 +13815,7 @@
     </row>
     <row r="2677">
       <c r="A2677" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -13830,7 +13830,7 @@
     </row>
     <row r="2680">
       <c r="A2680" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2681">
@@ -13845,7 +13845,7 @@
     </row>
     <row r="2683">
       <c r="A2683" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2684">
@@ -13865,7 +13865,7 @@
     </row>
     <row r="2687">
       <c r="A2687" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2688">
@@ -13885,7 +13885,7 @@
     </row>
     <row r="2691">
       <c r="A2691" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2692">
@@ -13910,12 +13910,12 @@
     </row>
     <row r="2696">
       <c r="A2696" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2697">
       <c r="A2697" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2698">
@@ -13955,7 +13955,7 @@
     </row>
     <row r="2705">
       <c r="A2705" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2706">
@@ -13990,7 +13990,7 @@
     </row>
     <row r="2712">
       <c r="A2712" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2713">
@@ -14025,7 +14025,7 @@
     </row>
     <row r="2719">
       <c r="A2719" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2720">
@@ -14085,7 +14085,7 @@
     </row>
     <row r="2731">
       <c r="A2731" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2732">
@@ -14110,7 +14110,7 @@
     </row>
     <row r="2736">
       <c r="A2736" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2737">
@@ -14165,7 +14165,7 @@
     </row>
     <row r="2747">
       <c r="A2747" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2748">
@@ -14180,7 +14180,7 @@
     </row>
     <row r="2750">
       <c r="A2750" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -14215,7 +14215,7 @@
     </row>
     <row r="2757">
       <c r="A2757" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2758">
@@ -14275,7 +14275,7 @@
     </row>
     <row r="2769">
       <c r="A2769" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2770">
@@ -14315,7 +14315,7 @@
     </row>
     <row r="2777">
       <c r="A2777" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2778">
@@ -14535,17 +14535,17 @@
     </row>
     <row r="2821">
       <c r="A2821" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
       <c r="A2822" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2823">
       <c r="A2823" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2824">
@@ -14580,7 +14580,7 @@
     </row>
     <row r="2830">
       <c r="A2830" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2831">
@@ -14590,7 +14590,7 @@
     </row>
     <row r="2832">
       <c r="A2832" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2833">
@@ -14660,7 +14660,7 @@
     </row>
     <row r="2846">
       <c r="A2846" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2847">
@@ -14675,7 +14675,7 @@
     </row>
     <row r="2849">
       <c r="A2849" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2850">
@@ -14775,12 +14775,12 @@
     </row>
     <row r="2869">
       <c r="A2869" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2870">
       <c r="A2870" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2871">
@@ -14845,7 +14845,7 @@
     </row>
     <row r="2883">
       <c r="A2883" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2884">
@@ -14855,7 +14855,7 @@
     </row>
     <row r="2885">
       <c r="A2885" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2886">
@@ -14890,7 +14890,7 @@
     </row>
     <row r="2892">
       <c r="A2892" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2893">
@@ -14930,7 +14930,7 @@
     </row>
     <row r="2900">
       <c r="A2900" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2901">
@@ -15025,7 +15025,7 @@
     </row>
     <row r="2919">
       <c r="A2919" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2920">
@@ -15080,7 +15080,7 @@
     </row>
     <row r="2930">
       <c r="A2930" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2931">
@@ -15165,7 +15165,7 @@
     </row>
     <row r="2947">
       <c r="A2947" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2948">
@@ -15235,7 +15235,7 @@
     </row>
     <row r="2961">
       <c r="A2961" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2962">
@@ -15330,7 +15330,7 @@
     </row>
     <row r="2980">
       <c r="A2980" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2981">
@@ -15355,7 +15355,7 @@
     </row>
     <row r="2985">
       <c r="A2985" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2986">
@@ -15390,7 +15390,7 @@
     </row>
     <row r="2992">
       <c r="A2992" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2993">
@@ -15405,12 +15405,12 @@
     </row>
     <row r="2995">
       <c r="A2995" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2996">
       <c r="A2996" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2997">
@@ -15455,7 +15455,7 @@
     </row>
     <row r="3005">
       <c r="A3005" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3006">
@@ -15470,12 +15470,12 @@
     </row>
     <row r="3008">
       <c r="A3008" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3009">
       <c r="A3009" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3010">
@@ -15580,7 +15580,7 @@
     </row>
     <row r="3030">
       <c r="A3030" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3031">
@@ -15660,7 +15660,7 @@
     </row>
     <row r="3046">
       <c r="A3046" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3047">
@@ -15760,7 +15760,7 @@
     </row>
     <row r="3066">
       <c r="A3066" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3067">
@@ -15775,7 +15775,7 @@
     </row>
     <row r="3069">
       <c r="A3069" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3070">
@@ -15845,7 +15845,7 @@
     </row>
     <row r="3083">
       <c r="A3083" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3084">
@@ -16030,7 +16030,7 @@
     </row>
     <row r="3120">
       <c r="A3120" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3121">
@@ -16060,7 +16060,7 @@
     </row>
     <row r="3126">
       <c r="A3126" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3127">
@@ -16150,12 +16150,12 @@
     </row>
     <row r="3144">
       <c r="A3144" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3145">
       <c r="A3145" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3146">
@@ -16210,7 +16210,7 @@
     </row>
     <row r="3156">
       <c r="A3156" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3157">
@@ -16220,7 +16220,7 @@
     </row>
     <row r="3158">
       <c r="A3158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3159">
@@ -16280,12 +16280,12 @@
     </row>
     <row r="3170">
       <c r="A3170" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3171">
       <c r="A3171" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3172">
@@ -16325,7 +16325,7 @@
     </row>
     <row r="3179">
       <c r="A3179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3180">
@@ -16355,7 +16355,7 @@
     </row>
     <row r="3185">
       <c r="A3185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3186">
@@ -16410,7 +16410,7 @@
     </row>
     <row r="3196">
       <c r="A3196" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3197">
@@ -16435,7 +16435,7 @@
     </row>
     <row r="3201">
       <c r="A3201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3202">
@@ -16530,7 +16530,7 @@
     </row>
     <row r="3220">
       <c r="A3220" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3221">
@@ -16550,12 +16550,12 @@
     </row>
     <row r="3224">
       <c r="A3224" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3225">
       <c r="A3225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3226">
@@ -16565,7 +16565,7 @@
     </row>
     <row r="3227">
       <c r="A3227" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3228">
@@ -16575,7 +16575,7 @@
     </row>
     <row r="3229">
       <c r="A3229" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3230">
@@ -16640,7 +16640,7 @@
     </row>
     <row r="3242">
       <c r="A3242" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3243">
@@ -16680,7 +16680,7 @@
     </row>
     <row r="3250">
       <c r="A3250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3251">
@@ -16755,7 +16755,7 @@
     </row>
     <row r="3265">
       <c r="A3265" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3266">
@@ -16840,7 +16840,7 @@
     </row>
     <row r="3282">
       <c r="A3282" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3283">
@@ -16860,7 +16860,7 @@
     </row>
     <row r="3286">
       <c r="A3286" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3287">
@@ -16880,7 +16880,7 @@
     </row>
     <row r="3290">
       <c r="A3290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3291">
@@ -16900,7 +16900,7 @@
     </row>
     <row r="3294">
       <c r="A3294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3295">
@@ -16915,17 +16915,17 @@
     </row>
     <row r="3297">
       <c r="A3297" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3298">
       <c r="A3298" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3299">
       <c r="A3299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3300">
@@ -16980,7 +16980,7 @@
     </row>
     <row r="3310">
       <c r="A3310" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3311">
@@ -16990,7 +16990,7 @@
     </row>
     <row r="3312">
       <c r="A3312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3313">
@@ -17085,7 +17085,7 @@
     </row>
     <row r="3331">
       <c r="A3331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3332">
@@ -17175,12 +17175,12 @@
     </row>
     <row r="3349">
       <c r="A3349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3350">
       <c r="A3350" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3351">
@@ -17330,7 +17330,7 @@
     </row>
     <row r="3380">
       <c r="A3380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3381">
@@ -17415,7 +17415,7 @@
     </row>
     <row r="3397">
       <c r="A3397" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3398">
@@ -17425,12 +17425,12 @@
     </row>
     <row r="3399">
       <c r="A3399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3400">
       <c r="A3400" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3401">
@@ -17495,7 +17495,7 @@
     </row>
     <row r="3413">
       <c r="A3413" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3414">
@@ -17530,7 +17530,7 @@
     </row>
     <row r="3420">
       <c r="A3420" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3421">
@@ -17610,7 +17610,7 @@
     </row>
     <row r="3436">
       <c r="A3436" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3437">
@@ -17620,7 +17620,7 @@
     </row>
     <row r="3438">
       <c r="A3438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3439">
@@ -17690,12 +17690,12 @@
     </row>
     <row r="3452">
       <c r="A3452" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3453">
       <c r="A3453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3454">
@@ -17715,7 +17715,7 @@
     </row>
     <row r="3457">
       <c r="A3457" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3458">
@@ -17725,12 +17725,12 @@
     </row>
     <row r="3459">
       <c r="A3459" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3460">
       <c r="A3460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3461">
@@ -17835,7 +17835,7 @@
     </row>
     <row r="3481">
       <c r="A3481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3482">
@@ -17865,7 +17865,7 @@
     </row>
     <row r="3487">
       <c r="A3487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3488">
@@ -17885,7 +17885,7 @@
     </row>
     <row r="3491">
       <c r="A3491" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3492">
@@ -17995,12 +17995,12 @@
     </row>
     <row r="3513">
       <c r="A3513" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3514">
       <c r="A3514" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3515">
@@ -18050,7 +18050,7 @@
     </row>
     <row r="3524">
       <c r="A3524" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3525">
@@ -18080,12 +18080,12 @@
     </row>
     <row r="3530">
       <c r="A3530" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3531">
       <c r="A3531" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3532">
@@ -18160,7 +18160,7 @@
     </row>
     <row r="3546">
       <c r="A3546" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3547">
@@ -18175,7 +18175,7 @@
     </row>
     <row r="3549">
       <c r="A3549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3550">
@@ -18200,7 +18200,7 @@
     </row>
     <row r="3554">
       <c r="A3554" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3555">
@@ -18210,7 +18210,7 @@
     </row>
     <row r="3556">
       <c r="A3556" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3557">
@@ -18265,7 +18265,7 @@
     </row>
     <row r="3567">
       <c r="A3567" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3568">
@@ -18360,7 +18360,7 @@
     </row>
     <row r="3586">
       <c r="A3586" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3587">
@@ -18415,7 +18415,7 @@
     </row>
     <row r="3597">
       <c r="A3597" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3598">
@@ -18430,7 +18430,7 @@
     </row>
     <row r="3600">
       <c r="A3600" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3601">
@@ -18475,12 +18475,12 @@
     </row>
     <row r="3609">
       <c r="A3609" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3610">
       <c r="A3610" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3611">
@@ -18490,7 +18490,7 @@
     </row>
     <row r="3612">
       <c r="A3612" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3613">
@@ -18560,7 +18560,7 @@
     </row>
     <row r="3626">
       <c r="A3626" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3627">
@@ -18570,7 +18570,7 @@
     </row>
     <row r="3628">
       <c r="A3628" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3629">
@@ -18650,7 +18650,7 @@
     </row>
     <row r="3644">
       <c r="A3644" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3645">
@@ -18665,7 +18665,7 @@
     </row>
     <row r="3647">
       <c r="A3647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3648">
@@ -18850,7 +18850,7 @@
     </row>
     <row r="3684">
       <c r="A3684" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3685">
@@ -18875,7 +18875,7 @@
     </row>
     <row r="3689">
       <c r="A3689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3690">
@@ -18900,7 +18900,7 @@
     </row>
     <row r="3694">
       <c r="A3694" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3695">
@@ -18940,7 +18940,7 @@
     </row>
     <row r="3702">
       <c r="A3702" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3703">
@@ -18975,7 +18975,7 @@
     </row>
     <row r="3709">
       <c r="A3709" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3710">
@@ -18985,7 +18985,7 @@
     </row>
     <row r="3711">
       <c r="A3711" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3712">
@@ -19010,7 +19010,7 @@
     </row>
     <row r="3716">
       <c r="A3716" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3717">
@@ -19025,7 +19025,7 @@
     </row>
     <row r="3719">
       <c r="A3719" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3720">
@@ -19155,7 +19155,7 @@
     </row>
     <row r="3745">
       <c r="A3745" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3746">
@@ -19220,7 +19220,7 @@
     </row>
     <row r="3758">
       <c r="A3758" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3759">
@@ -19415,7 +19415,7 @@
     </row>
     <row r="3797">
       <c r="A3797" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3798">
@@ -19430,7 +19430,7 @@
     </row>
     <row r="3800">
       <c r="A3800" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3801">
@@ -19465,7 +19465,7 @@
     </row>
     <row r="3807">
       <c r="A3807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3808">
@@ -19485,12 +19485,12 @@
     </row>
     <row r="3811">
       <c r="A3811" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3812">
       <c r="A3812" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3813">
@@ -19525,7 +19525,7 @@
     </row>
     <row r="3819">
       <c r="A3819" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3820">
@@ -19555,7 +19555,7 @@
     </row>
     <row r="3825">
       <c r="A3825" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3826">
@@ -19615,7 +19615,7 @@
     </row>
     <row r="3837">
       <c r="A3837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3838">
@@ -19645,7 +19645,7 @@
     </row>
     <row r="3843">
       <c r="A3843" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3844">
@@ -19770,7 +19770,7 @@
     </row>
     <row r="3868">
       <c r="A3868" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3869">
@@ -19885,7 +19885,7 @@
     </row>
     <row r="3891">
       <c r="A3891" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3892">
@@ -19940,7 +19940,7 @@
     </row>
     <row r="3902">
       <c r="A3902" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3903">
@@ -19950,7 +19950,7 @@
     </row>
     <row r="3904">
       <c r="A3904" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3905">
@@ -19960,7 +19960,7 @@
     </row>
     <row r="3906">
       <c r="A3906" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3907">
@@ -20030,7 +20030,7 @@
     </row>
     <row r="3920">
       <c r="A3920" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3921">
@@ -20195,7 +20195,7 @@
     </row>
     <row r="3953">
       <c r="A3953" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3954">
@@ -20240,7 +20240,7 @@
     </row>
     <row r="3962">
       <c r="A3962" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3963">
@@ -20285,7 +20285,7 @@
     </row>
     <row r="3971">
       <c r="A3971" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3972">
@@ -20320,7 +20320,7 @@
     </row>
     <row r="3978">
       <c r="A3978" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3979">
@@ -20340,7 +20340,7 @@
     </row>
     <row r="3982">
       <c r="A3982" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3983">
@@ -20490,17 +20490,17 @@
     </row>
     <row r="4012">
       <c r="A4012" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4015">
@@ -20515,7 +20515,7 @@
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4018">
@@ -20570,7 +20570,7 @@
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4029">
@@ -20610,12 +20610,12 @@
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4037">
       <c r="A4037" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4038">
@@ -20670,7 +20670,7 @@
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4049">
@@ -20695,7 +20695,7 @@
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4054">
@@ -20720,7 +20720,7 @@
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4059">
@@ -20775,7 +20775,7 @@
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4070">
@@ -20820,7 +20820,7 @@
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4079">
@@ -20845,7 +20845,7 @@
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4084">
@@ -20860,7 +20860,7 @@
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4087">
@@ -20940,7 +20940,7 @@
     </row>
     <row r="4102">
       <c r="A4102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4103">
@@ -21005,7 +21005,7 @@
     </row>
     <row r="4115">
       <c r="A4115" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4116">
@@ -21180,7 +21180,7 @@
     </row>
     <row r="4150">
       <c r="A4150" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4151">
@@ -21225,7 +21225,7 @@
     </row>
     <row r="4159">
       <c r="A4159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4160">
@@ -21250,17 +21250,17 @@
     </row>
     <row r="4164">
       <c r="A4164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4165">
       <c r="A4165" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4166">
       <c r="A4166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4167">
@@ -21270,12 +21270,12 @@
     </row>
     <row r="4168">
       <c r="A4168" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4169">
       <c r="A4169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4170">
@@ -21325,7 +21325,7 @@
     </row>
     <row r="4179">
       <c r="A4179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4180">
@@ -21375,7 +21375,7 @@
     </row>
     <row r="4189">
       <c r="A4189" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4190">
@@ -21390,7 +21390,7 @@
     </row>
     <row r="4192">
       <c r="A4192" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4193">
@@ -21445,7 +21445,7 @@
     </row>
     <row r="4203">
       <c r="A4203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4204">
@@ -21475,7 +21475,7 @@
     </row>
     <row r="4209">
       <c r="A4209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4210">
@@ -21495,12 +21495,12 @@
     </row>
     <row r="4213">
       <c r="A4213" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4214">
       <c r="A4214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4215">
@@ -21520,7 +21520,7 @@
     </row>
     <row r="4218">
       <c r="A4218" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4219">
@@ -21590,7 +21590,7 @@
     </row>
     <row r="4232">
       <c r="A4232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4233">
@@ -21600,7 +21600,7 @@
     </row>
     <row r="4234">
       <c r="A4234" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4235">
@@ -21615,7 +21615,7 @@
     </row>
     <row r="4237">
       <c r="A4237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4238">
@@ -21625,7 +21625,7 @@
     </row>
     <row r="4239">
       <c r="A4239" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4240">
@@ -21635,7 +21635,7 @@
     </row>
     <row r="4241">
       <c r="A4241" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4242">
@@ -21645,7 +21645,7 @@
     </row>
     <row r="4243">
       <c r="A4243" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4244">
@@ -21655,7 +21655,7 @@
     </row>
     <row r="4245">
       <c r="A4245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4246">
@@ -21680,7 +21680,7 @@
     </row>
     <row r="4250">
       <c r="A4250" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4251">
@@ -21780,7 +21780,7 @@
     </row>
     <row r="4270">
       <c r="A4270" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4271">
@@ -21830,7 +21830,7 @@
     </row>
     <row r="4280">
       <c r="A4280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4281">
@@ -21845,7 +21845,7 @@
     </row>
     <row r="4283">
       <c r="A4283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4284">
@@ -21860,7 +21860,7 @@
     </row>
     <row r="4286">
       <c r="A4286" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4287">
@@ -21900,7 +21900,7 @@
     </row>
     <row r="4294">
       <c r="A4294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4295">
@@ -21935,7 +21935,7 @@
     </row>
     <row r="4301">
       <c r="A4301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4302">
@@ -21980,7 +21980,7 @@
     </row>
     <row r="4310">
       <c r="A4310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4311">
@@ -22000,7 +22000,7 @@
     </row>
     <row r="4314">
       <c r="A4314" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4315">
@@ -22025,7 +22025,7 @@
     </row>
     <row r="4319">
       <c r="A4319" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4320">
@@ -22100,7 +22100,7 @@
     </row>
     <row r="4334">
       <c r="A4334" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4335">
@@ -22120,7 +22120,7 @@
     </row>
     <row r="4338">
       <c r="A4338" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4339">
@@ -22270,7 +22270,7 @@
     </row>
     <row r="4368">
       <c r="A4368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4369">
@@ -22280,7 +22280,7 @@
     </row>
     <row r="4370">
       <c r="A4370" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4371">
@@ -22315,7 +22315,7 @@
     </row>
     <row r="4377">
       <c r="A4377" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4378">
@@ -22360,7 +22360,7 @@
     </row>
     <row r="4386">
       <c r="A4386" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4387">
@@ -22400,7 +22400,7 @@
     </row>
     <row r="4394">
       <c r="A4394" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4395">
@@ -22485,7 +22485,7 @@
     </row>
     <row r="4411">
       <c r="A4411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4412">
@@ -22625,7 +22625,7 @@
     </row>
     <row r="4439">
       <c r="A4439" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4440">
@@ -22655,7 +22655,7 @@
     </row>
     <row r="4445">
       <c r="A4445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4446">
@@ -22665,7 +22665,7 @@
     </row>
     <row r="4447">
       <c r="A4447" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4448">
@@ -22680,7 +22680,7 @@
     </row>
     <row r="4450">
       <c r="A4450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4451">
@@ -22690,12 +22690,12 @@
     </row>
     <row r="4452">
       <c r="A4452" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4453">
       <c r="A4453" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4454">
@@ -22760,12 +22760,12 @@
     </row>
     <row r="4466">
       <c r="A4466" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4467">
       <c r="A4467" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4468">
@@ -22780,7 +22780,7 @@
     </row>
     <row r="4470">
       <c r="A4470" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4471">
@@ -22865,7 +22865,7 @@
     </row>
     <row r="4487">
       <c r="A4487" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4488">
@@ -23015,7 +23015,7 @@
     </row>
     <row r="4517">
       <c r="A4517" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4518">
@@ -23060,7 +23060,7 @@
     </row>
     <row r="4526">
       <c r="A4526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4527">
@@ -23120,12 +23120,12 @@
     </row>
     <row r="4538">
       <c r="A4538" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4539">
       <c r="A4539" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4540">
@@ -23165,7 +23165,7 @@
     </row>
     <row r="4547">
       <c r="A4547" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4548">
@@ -23215,7 +23215,7 @@
     </row>
     <row r="4557">
       <c r="A4557" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4558">
@@ -23440,7 +23440,7 @@
     </row>
     <row r="4602">
       <c r="A4602" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4603">
@@ -23480,7 +23480,7 @@
     </row>
     <row r="4610">
       <c r="A4610" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4611">
@@ -23565,7 +23565,7 @@
     </row>
     <row r="4627">
       <c r="A4627" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4628">
@@ -23580,7 +23580,7 @@
     </row>
     <row r="4630">
       <c r="A4630" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4631">
@@ -23620,7 +23620,7 @@
     </row>
     <row r="4638">
       <c r="A4638" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4639">
@@ -23690,7 +23690,7 @@
     </row>
     <row r="4652">
       <c r="A4652" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4653">
@@ -23705,7 +23705,7 @@
     </row>
     <row r="4655">
       <c r="A4655" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4656">
@@ -23740,7 +23740,7 @@
     </row>
     <row r="4662">
       <c r="A4662" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4663">
@@ -23770,7 +23770,7 @@
     </row>
     <row r="4668">
       <c r="A4668" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4669">
@@ -23800,7 +23800,7 @@
     </row>
     <row r="4674">
       <c r="A4674" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4675">
@@ -23940,7 +23940,7 @@
     </row>
     <row r="4702">
       <c r="A4702" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4703">
@@ -23950,7 +23950,7 @@
     </row>
     <row r="4704">
       <c r="A4704" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4705">
@@ -23965,7 +23965,7 @@
     </row>
     <row r="4707">
       <c r="A4707" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4708">
@@ -23975,7 +23975,7 @@
     </row>
     <row r="4709">
       <c r="A4709" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4710">
@@ -24045,7 +24045,7 @@
     </row>
     <row r="4723">
       <c r="A4723" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4724">
@@ -24055,7 +24055,7 @@
     </row>
     <row r="4725">
       <c r="A4725" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4726">
@@ -24095,12 +24095,12 @@
     </row>
     <row r="4733">
       <c r="A4733" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4734">
       <c r="A4734" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4735">
@@ -24115,7 +24115,7 @@
     </row>
     <row r="4737">
       <c r="A4737" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4738">
@@ -24125,7 +24125,7 @@
     </row>
     <row r="4739">
       <c r="A4739" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4740">
@@ -24135,7 +24135,7 @@
     </row>
     <row r="4741">
       <c r="A4741" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4742">
@@ -24215,7 +24215,7 @@
     </row>
     <row r="4757">
       <c r="A4757" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4758">
@@ -24265,7 +24265,7 @@
     </row>
     <row r="4767">
       <c r="A4767" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4768">
@@ -24305,7 +24305,7 @@
     </row>
     <row r="4775">
       <c r="A4775" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4776">
@@ -24315,7 +24315,7 @@
     </row>
     <row r="4777">
       <c r="A4777" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4778">
@@ -24350,7 +24350,7 @@
     </row>
     <row r="4784">
       <c r="A4784" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4785">
@@ -24500,7 +24500,7 @@
     </row>
     <row r="4814">
       <c r="A4814" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4815">
@@ -24515,7 +24515,7 @@
     </row>
     <row r="4817">
       <c r="A4817" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4818">
@@ -24585,7 +24585,7 @@
     </row>
     <row r="4831">
       <c r="A4831" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4832">
@@ -24625,12 +24625,12 @@
     </row>
     <row r="4839">
       <c r="A4839" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4840">
       <c r="A4840" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4841">
@@ -24695,7 +24695,7 @@
     </row>
     <row r="4853">
       <c r="A4853" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4854">
@@ -24710,7 +24710,7 @@
     </row>
     <row r="4856">
       <c r="A4856" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4857">
@@ -24785,7 +24785,7 @@
     </row>
     <row r="4871">
       <c r="A4871" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4872">
@@ -24815,7 +24815,7 @@
     </row>
     <row r="4877">
       <c r="A4877" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4878">
@@ -24845,7 +24845,7 @@
     </row>
     <row r="4883">
       <c r="A4883" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4884">
@@ -24865,7 +24865,7 @@
     </row>
     <row r="4887">
       <c r="A4887" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4888">
@@ -24970,7 +24970,7 @@
     </row>
     <row r="4908">
       <c r="A4908" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4909">
@@ -24990,7 +24990,7 @@
     </row>
     <row r="4912">
       <c r="A4912" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4913">
@@ -25100,12 +25100,12 @@
     </row>
     <row r="4934">
       <c r="A4934" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4935">
       <c r="A4935" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4936">
@@ -25170,7 +25170,7 @@
     </row>
     <row r="4948">
       <c r="A4948" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4949">
@@ -25225,7 +25225,7 @@
     </row>
     <row r="4959">
       <c r="A4959" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4960">
@@ -25325,7 +25325,7 @@
     </row>
     <row r="4979">
       <c r="A4979" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4980">
@@ -25375,7 +25375,7 @@
     </row>
     <row r="4989">
       <c r="A4989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4990">
@@ -25415,7 +25415,7 @@
     </row>
     <row r="4997">
       <c r="A4997" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4998">
@@ -25430,7 +25430,7 @@
     </row>
     <row r="5000">
       <c r="A5000" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5001">
@@ -25495,7 +25495,7 @@
     </row>
     <row r="5013">
       <c r="A5013" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5014">
@@ -25565,7 +25565,7 @@
     </row>
     <row r="5027">
       <c r="A5027" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5028">
@@ -25750,7 +25750,7 @@
     </row>
     <row r="5064">
       <c r="A5064" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5065">
@@ -25980,7 +25980,7 @@
     </row>
     <row r="5110">
       <c r="A5110" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5111">
@@ -26050,7 +26050,7 @@
     </row>
     <row r="5124">
       <c r="A5124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5125">
@@ -26245,12 +26245,12 @@
     </row>
     <row r="5163">
       <c r="A5163" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5164">
       <c r="A5164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5165">
@@ -26320,7 +26320,7 @@
     </row>
     <row r="5178">
       <c r="A5178" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5179">
@@ -26330,7 +26330,7 @@
     </row>
     <row r="5180">
       <c r="A5180" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5181">
@@ -26340,12 +26340,12 @@
     </row>
     <row r="5182">
       <c r="A5182" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5183">
       <c r="A5183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5184">
@@ -26360,7 +26360,7 @@
     </row>
     <row r="5186">
       <c r="A5186" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5187">
@@ -26400,7 +26400,7 @@
     </row>
     <row r="5194">
       <c r="A5194" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5195">
@@ -26420,7 +26420,7 @@
     </row>
     <row r="5198">
       <c r="A5198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5199">
@@ -26485,7 +26485,7 @@
     </row>
     <row r="5211">
       <c r="A5211" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5212">
@@ -26500,7 +26500,7 @@
     </row>
     <row r="5214">
       <c r="A5214" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5215">
@@ -26600,7 +26600,7 @@
     </row>
     <row r="5234">
       <c r="A5234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5235">
@@ -26610,7 +26610,7 @@
     </row>
     <row r="5236">
       <c r="A5236" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5237">
@@ -26695,7 +26695,7 @@
     </row>
     <row r="5253">
       <c r="A5253" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5254">
@@ -26785,7 +26785,7 @@
     </row>
     <row r="5271">
       <c r="A5271" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5272">
@@ -26910,7 +26910,7 @@
     </row>
     <row r="5296">
       <c r="A5296" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5297">
@@ -26980,7 +26980,7 @@
     </row>
     <row r="5310">
       <c r="A5310" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5311">
@@ -26995,7 +26995,7 @@
     </row>
     <row r="5313">
       <c r="A5313" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5314">
@@ -27140,7 +27140,7 @@
     </row>
     <row r="5342">
       <c r="A5342" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5343">
@@ -27240,12 +27240,12 @@
     </row>
     <row r="5362">
       <c r="A5362" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5363">
       <c r="A5363" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5364">
@@ -27305,17 +27305,17 @@
     </row>
     <row r="5375">
       <c r="A5375" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5376">
       <c r="A5376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5377">
       <c r="A5377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5378">
@@ -27375,7 +27375,7 @@
     </row>
     <row r="5389">
       <c r="A5389" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5390">
@@ -27495,7 +27495,7 @@
     </row>
     <row r="5413">
       <c r="A5413" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5414">
@@ -27580,12 +27580,12 @@
     </row>
     <row r="5430">
       <c r="A5430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5431">
       <c r="A5431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5432">
@@ -27605,12 +27605,12 @@
     </row>
     <row r="5435">
       <c r="A5435" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5436">
       <c r="A5436" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5437">
@@ -27620,7 +27620,7 @@
     </row>
     <row r="5438">
       <c r="A5438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5439">
@@ -27635,7 +27635,7 @@
     </row>
     <row r="5441">
       <c r="A5441" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5442">
@@ -27650,7 +27650,7 @@
     </row>
     <row r="5444">
       <c r="A5444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5445">
@@ -27665,7 +27665,7 @@
     </row>
     <row r="5447">
       <c r="A5447" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5448">
@@ -27680,7 +27680,7 @@
     </row>
     <row r="5450">
       <c r="A5450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5451">
@@ -27825,7 +27825,7 @@
     </row>
     <row r="5479">
       <c r="A5479" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5480">
@@ -27845,7 +27845,7 @@
     </row>
     <row r="5483">
       <c r="A5483" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5484">
@@ -27890,7 +27890,7 @@
     </row>
     <row r="5492">
       <c r="A5492" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5493">
@@ -27905,7 +27905,7 @@
     </row>
     <row r="5495">
       <c r="A5495" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5496">
@@ -27935,7 +27935,7 @@
     </row>
     <row r="5501">
       <c r="A5501" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5502">
@@ -28005,7 +28005,7 @@
     </row>
     <row r="5515">
       <c r="A5515" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5516">
@@ -28030,7 +28030,7 @@
     </row>
     <row r="5520">
       <c r="A5520" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5521">
@@ -28065,7 +28065,7 @@
     </row>
     <row r="5527">
       <c r="A5527" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5528">
@@ -28155,7 +28155,7 @@
     </row>
     <row r="5545">
       <c r="A5545" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5546">
@@ -28200,7 +28200,7 @@
     </row>
     <row r="5554">
       <c r="A5554" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5555">
@@ -28235,7 +28235,7 @@
     </row>
     <row r="5561">
       <c r="A5561" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5562">
@@ -28285,12 +28285,12 @@
     </row>
     <row r="5571">
       <c r="A5571" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5572">
       <c r="A5572" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5573">
@@ -28450,7 +28450,7 @@
     </row>
     <row r="5604">
       <c r="A5604" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5605">
@@ -28595,7 +28595,7 @@
     </row>
     <row r="5633">
       <c r="A5633" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5634">
@@ -28615,12 +28615,12 @@
     </row>
     <row r="5637">
       <c r="A5637" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5638">
       <c r="A5638" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5639">
@@ -28645,7 +28645,7 @@
     </row>
     <row r="5643">
       <c r="A5643" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5644">
@@ -28670,7 +28670,7 @@
     </row>
     <row r="5648">
       <c r="A5648" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5649">
@@ -28840,22 +28840,22 @@
     </row>
     <row r="5682">
       <c r="A5682" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5683">
       <c r="A5683" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5684">
       <c r="A5684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5685">
       <c r="A5685" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5686">
@@ -28865,7 +28865,7 @@
     </row>
     <row r="5687">
       <c r="A5687" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5688">
@@ -28915,7 +28915,7 @@
     </row>
     <row r="5697">
       <c r="A5697" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5698">
@@ -28945,12 +28945,12 @@
     </row>
     <row r="5703">
       <c r="A5703" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5704">
       <c r="A5704" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5705">
@@ -28995,7 +28995,7 @@
     </row>
     <row r="5713">
       <c r="A5713" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5714">
@@ -29010,7 +29010,7 @@
     </row>
     <row r="5716">
       <c r="A5716" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5717">
@@ -29085,7 +29085,7 @@
     </row>
     <row r="5731">
       <c r="A5731" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5732">
@@ -29100,7 +29100,7 @@
     </row>
     <row r="5734">
       <c r="A5734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5735">
@@ -29115,12 +29115,12 @@
     </row>
     <row r="5737">
       <c r="A5737" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5738">
       <c r="A5738" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5739">
@@ -29140,7 +29140,7 @@
     </row>
     <row r="5742">
       <c r="A5742" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5743">
@@ -29150,7 +29150,7 @@
     </row>
     <row r="5744">
       <c r="A5744" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5745">
@@ -29180,7 +29180,7 @@
     </row>
     <row r="5750">
       <c r="A5750" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5751">
@@ -29255,7 +29255,7 @@
     </row>
     <row r="5765">
       <c r="A5765" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5766">
@@ -29275,7 +29275,7 @@
     </row>
     <row r="5769">
       <c r="A5769" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5770">
@@ -29445,7 +29445,7 @@
     </row>
     <row r="5803">
       <c r="A5803" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5804">
@@ -29465,12 +29465,12 @@
     </row>
     <row r="5807">
       <c r="A5807" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5808">
       <c r="A5808" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5809">
@@ -29515,7 +29515,7 @@
     </row>
     <row r="5817">
       <c r="A5817" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5818">
@@ -29585,7 +29585,7 @@
     </row>
     <row r="5831">
       <c r="A5831" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5832">
@@ -29600,7 +29600,7 @@
     </row>
     <row r="5834">
       <c r="A5834" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5835">
@@ -29610,7 +29610,7 @@
     </row>
     <row r="5836">
       <c r="A5836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5837">
@@ -29630,7 +29630,7 @@
     </row>
     <row r="5840">
       <c r="A5840" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5841">
@@ -29650,7 +29650,7 @@
     </row>
     <row r="5844">
       <c r="A5844" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5845">
@@ -29775,7 +29775,7 @@
     </row>
     <row r="5869">
       <c r="A5869" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5870">
@@ -29835,7 +29835,7 @@
     </row>
     <row r="5881">
       <c r="A5881" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5882">
@@ -29850,7 +29850,7 @@
     </row>
     <row r="5884">
       <c r="A5884" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5885">
@@ -29975,7 +29975,7 @@
     </row>
     <row r="5909">
       <c r="A5909" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5910">
@@ -29995,7 +29995,7 @@
     </row>
     <row r="5913">
       <c r="A5913" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5914">
@@ -30005,7 +30005,7 @@
     </row>
     <row r="5915">
       <c r="A5915" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5916">
@@ -30015,7 +30015,7 @@
     </row>
     <row r="5917">
       <c r="A5917" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5918">
@@ -30040,7 +30040,7 @@
     </row>
     <row r="5922">
       <c r="A5922" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5923">
@@ -30090,7 +30090,7 @@
     </row>
     <row r="5932">
       <c r="A5932" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5933">
@@ -30165,12 +30165,12 @@
     </row>
     <row r="5947">
       <c r="A5947" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5948">
       <c r="A5948" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5949">
@@ -30190,7 +30190,7 @@
     </row>
     <row r="5952">
       <c r="A5952" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5953">
@@ -30250,7 +30250,7 @@
     </row>
     <row r="5964">
       <c r="A5964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5965">
@@ -30285,7 +30285,7 @@
     </row>
     <row r="5971">
       <c r="A5971" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5972">
@@ -30325,7 +30325,7 @@
     </row>
     <row r="5979">
       <c r="A5979" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5980">
@@ -30440,7 +30440,7 @@
     </row>
     <row r="6002">
       <c r="A6002" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6003">
@@ -30480,7 +30480,7 @@
     </row>
     <row r="6010">
       <c r="A6010" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6011">
@@ -30510,7 +30510,7 @@
     </row>
     <row r="6016">
       <c r="A6016" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6017">
@@ -30550,7 +30550,7 @@
     </row>
     <row r="6024">
       <c r="A6024" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6025">
@@ -30560,7 +30560,7 @@
     </row>
     <row r="6026">
       <c r="A6026" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6027">
@@ -30580,7 +30580,7 @@
     </row>
     <row r="6030">
       <c r="A6030" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6031">
@@ -30605,7 +30605,7 @@
     </row>
     <row r="6035">
       <c r="A6035" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6036">
@@ -30675,7 +30675,7 @@
     </row>
     <row r="6049">
       <c r="A6049" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6050">
@@ -30705,7 +30705,7 @@
     </row>
     <row r="6055">
       <c r="A6055" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6056">
@@ -30805,7 +30805,7 @@
     </row>
     <row r="6075">
       <c r="A6075" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6076">
@@ -30825,7 +30825,7 @@
     </row>
     <row r="6079">
       <c r="A6079" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6080">
@@ -30900,7 +30900,7 @@
     </row>
     <row r="6094">
       <c r="A6094" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6095">
@@ -30925,7 +30925,7 @@
     </row>
     <row r="6099">
       <c r="A6099" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6100">
@@ -30935,7 +30935,7 @@
     </row>
     <row r="6101">
       <c r="A6101" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6102">
@@ -30965,7 +30965,7 @@
     </row>
     <row r="6107">
       <c r="A6107" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6108">
@@ -31010,12 +31010,12 @@
     </row>
     <row r="6116">
       <c r="A6116" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6117">
       <c r="A6117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6118">
@@ -31025,7 +31025,7 @@
     </row>
     <row r="6119">
       <c r="A6119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6120">
@@ -31035,7 +31035,7 @@
     </row>
     <row r="6121">
       <c r="A6121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6122">
@@ -31080,12 +31080,12 @@
     </row>
     <row r="6130">
       <c r="A6130" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6131">
       <c r="A6131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6132">
@@ -31110,12 +31110,12 @@
     </row>
     <row r="6136">
       <c r="A6136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6137">
       <c r="A6137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6138">
@@ -31155,7 +31155,7 @@
     </row>
     <row r="6145">
       <c r="A6145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6146">
@@ -31235,7 +31235,7 @@
     </row>
     <row r="6161">
       <c r="A6161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6162">
@@ -31280,12 +31280,12 @@
     </row>
     <row r="6170">
       <c r="A6170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6171">
       <c r="A6171" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6172">
@@ -31300,7 +31300,7 @@
     </row>
     <row r="6174">
       <c r="A6174" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6175">
@@ -31315,7 +31315,7 @@
     </row>
     <row r="6177">
       <c r="A6177" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6178">
@@ -31345,7 +31345,7 @@
     </row>
     <row r="6183">
       <c r="A6183" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6184">
@@ -31365,7 +31365,7 @@
     </row>
     <row r="6187">
       <c r="A6187" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6188">
@@ -31395,7 +31395,7 @@
     </row>
     <row r="6193">
       <c r="A6193" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6194">
@@ -31415,7 +31415,7 @@
     </row>
     <row r="6197">
       <c r="A6197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6198">
@@ -31455,7 +31455,7 @@
     </row>
     <row r="6205">
       <c r="A6205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6206">
@@ -31465,7 +31465,7 @@
     </row>
     <row r="6207">
       <c r="A6207" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6208">
@@ -31500,7 +31500,7 @@
     </row>
     <row r="6214">
       <c r="A6214" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6215">
@@ -31545,7 +31545,7 @@
     </row>
     <row r="6223">
       <c r="A6223" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6224">
@@ -31575,7 +31575,7 @@
     </row>
     <row r="6229">
       <c r="A6229" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6230">
@@ -31605,7 +31605,7 @@
     </row>
     <row r="6235">
       <c r="A6235" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6236">
@@ -31630,7 +31630,7 @@
     </row>
     <row r="6240">
       <c r="A6240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6241">
@@ -31645,7 +31645,7 @@
     </row>
     <row r="6243">
       <c r="A6243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6244">
@@ -31655,7 +31655,7 @@
     </row>
     <row r="6245">
       <c r="A6245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6246">
@@ -31690,7 +31690,7 @@
     </row>
     <row r="6252">
       <c r="A6252" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6253">
@@ -31790,7 +31790,7 @@
     </row>
     <row r="6272">
       <c r="A6272" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6273">
@@ -31800,7 +31800,7 @@
     </row>
     <row r="6274">
       <c r="A6274" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6275">
@@ -31930,7 +31930,7 @@
     </row>
     <row r="6300">
       <c r="A6300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6301">
@@ -32020,7 +32020,7 @@
     </row>
     <row r="6318">
       <c r="A6318" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6319">
@@ -32110,7 +32110,7 @@
     </row>
     <row r="6336">
       <c r="A6336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6337">
@@ -32125,7 +32125,7 @@
     </row>
     <row r="6339">
       <c r="A6339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6340">
@@ -32310,7 +32310,7 @@
     </row>
     <row r="6376">
       <c r="A6376" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6377">
@@ -32330,7 +32330,7 @@
     </row>
     <row r="6380">
       <c r="A6380" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6381">
@@ -32415,7 +32415,7 @@
     </row>
     <row r="6397">
       <c r="A6397" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6398">
@@ -32445,7 +32445,7 @@
     </row>
     <row r="6403">
       <c r="A6403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6404">
@@ -32510,7 +32510,7 @@
     </row>
     <row r="6416">
       <c r="A6416" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6417">
@@ -32560,7 +32560,7 @@
     </row>
     <row r="6426">
       <c r="A6426" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6427">
@@ -32575,7 +32575,7 @@
     </row>
     <row r="6429">
       <c r="A6429" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6430">
@@ -32640,7 +32640,7 @@
     </row>
     <row r="6442">
       <c r="A6442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6443">
@@ -32650,7 +32650,7 @@
     </row>
     <row r="6444">
       <c r="A6444" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6445">
@@ -32685,12 +32685,12 @@
     </row>
     <row r="6451">
       <c r="A6451" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6452">
       <c r="A6452" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6453">
@@ -32715,7 +32715,7 @@
     </row>
     <row r="6457">
       <c r="A6457" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6458">
@@ -32750,7 +32750,7 @@
     </row>
     <row r="6464">
       <c r="A6464" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6465">
@@ -32810,7 +32810,7 @@
     </row>
     <row r="6476">
       <c r="A6476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6477">
@@ -32855,7 +32855,7 @@
     </row>
     <row r="6485">
       <c r="A6485" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6486">
@@ -32890,7 +32890,7 @@
     </row>
     <row r="6492">
       <c r="A6492" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6493">
@@ -32935,7 +32935,7 @@
     </row>
     <row r="6501">
       <c r="A6501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6502">
@@ -32950,7 +32950,7 @@
     </row>
     <row r="6504">
       <c r="A6504" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6505">
@@ -33015,7 +33015,7 @@
     </row>
     <row r="6517">
       <c r="A6517" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6518">
@@ -33040,12 +33040,12 @@
     </row>
     <row r="6522">
       <c r="A6522" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6523">
       <c r="A6523" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6524">
@@ -33060,7 +33060,7 @@
     </row>
     <row r="6526">
       <c r="A6526" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6527">
@@ -33105,7 +33105,7 @@
     </row>
     <row r="6535">
       <c r="A6535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6536">
@@ -33180,7 +33180,7 @@
     </row>
     <row r="6550">
       <c r="A6550" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6551">
@@ -33220,7 +33220,7 @@
     </row>
     <row r="6558">
       <c r="A6558" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6559">
@@ -33245,7 +33245,7 @@
     </row>
     <row r="6563">
       <c r="A6563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6564">
@@ -33285,7 +33285,7 @@
     </row>
     <row r="6571">
       <c r="A6571" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6572">
@@ -33365,7 +33365,7 @@
     </row>
     <row r="6587">
       <c r="A6587" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6588">
@@ -33380,7 +33380,7 @@
     </row>
     <row r="6590">
       <c r="A6590" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6591">
@@ -33390,7 +33390,7 @@
     </row>
     <row r="6592">
       <c r="A6592" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6593">
@@ -33465,7 +33465,7 @@
     </row>
     <row r="6607">
       <c r="A6607" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6608">
@@ -33485,7 +33485,7 @@
     </row>
     <row r="6611">
       <c r="A6611" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6612">
@@ -33495,7 +33495,7 @@
     </row>
     <row r="6613">
       <c r="A6613" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6614">
@@ -33570,12 +33570,12 @@
     </row>
     <row r="6628">
       <c r="A6628" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6629">
       <c r="A6629" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6630">
@@ -33630,7 +33630,7 @@
     </row>
     <row r="6640">
       <c r="A6640" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6641">
@@ -33685,7 +33685,7 @@
     </row>
     <row r="6651">
       <c r="A6651" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6652">
@@ -33695,7 +33695,7 @@
     </row>
     <row r="6653">
       <c r="A6653" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6654">
@@ -33735,7 +33735,7 @@
     </row>
     <row r="6661">
       <c r="A6661" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6662">
@@ -33780,12 +33780,12 @@
     </row>
     <row r="6670">
       <c r="A6670" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6671">
       <c r="A6671" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6672">
@@ -33845,7 +33845,7 @@
     </row>
     <row r="6683">
       <c r="A6683" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6684">
@@ -33855,7 +33855,7 @@
     </row>
     <row r="6685">
       <c r="A6685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6686">
@@ -33900,7 +33900,7 @@
     </row>
     <row r="6694">
       <c r="A6694" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6695">
@@ -33970,7 +33970,7 @@
     </row>
     <row r="6708">
       <c r="A6708" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6709">
@@ -34010,7 +34010,7 @@
     </row>
     <row r="6716">
       <c r="A6716" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6717">
@@ -34070,7 +34070,7 @@
     </row>
     <row r="6728">
       <c r="A6728" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6729">
@@ -34090,7 +34090,7 @@
     </row>
     <row r="6732">
       <c r="A6732" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6733">
@@ -34185,7 +34185,7 @@
     </row>
     <row r="6751">
       <c r="A6751" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6752">
@@ -34200,7 +34200,7 @@
     </row>
     <row r="6754">
       <c r="A6754" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6755">
@@ -34305,7 +34305,7 @@
     </row>
     <row r="6775">
       <c r="A6775" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6776">
@@ -34325,7 +34325,7 @@
     </row>
     <row r="6779">
       <c r="A6779" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6780">
@@ -34335,7 +34335,7 @@
     </row>
     <row r="6781">
       <c r="A6781" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6782">
@@ -34355,12 +34355,12 @@
     </row>
     <row r="6785">
       <c r="A6785" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6786">
       <c r="A6786" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6787">
@@ -34420,7 +34420,7 @@
     </row>
     <row r="6798">
       <c r="A6798" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6799">
@@ -34515,7 +34515,7 @@
     </row>
     <row r="6817">
       <c r="A6817" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6818">
@@ -34535,7 +34535,7 @@
     </row>
     <row r="6821">
       <c r="A6821" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6822">
@@ -34735,7 +34735,7 @@
     </row>
     <row r="6861">
       <c r="A6861" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6862">
@@ -34855,12 +34855,12 @@
     </row>
     <row r="6885">
       <c r="A6885" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6886">
       <c r="A6886" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6887">
@@ -34910,7 +34910,7 @@
     </row>
     <row r="6896">
       <c r="A6896" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6897">
@@ -34935,7 +34935,7 @@
     </row>
     <row r="6901">
       <c r="A6901" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6902">
@@ -34955,7 +34955,7 @@
     </row>
     <row r="6905">
       <c r="A6905" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6906">
@@ -34965,7 +34965,7 @@
     </row>
     <row r="6907">
       <c r="A6907" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6908">
@@ -34995,7 +34995,7 @@
     </row>
     <row r="6913">
       <c r="A6913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6914">
@@ -35025,7 +35025,7 @@
     </row>
     <row r="6919">
       <c r="A6919" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6920">
@@ -35125,7 +35125,7 @@
     </row>
     <row r="6939">
       <c r="A6939" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6940">
@@ -35190,7 +35190,7 @@
     </row>
     <row r="6952">
       <c r="A6952" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6953">
@@ -35225,7 +35225,7 @@
     </row>
     <row r="6959">
       <c r="A6959" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6960">
@@ -35310,7 +35310,7 @@
     </row>
     <row r="6976">
       <c r="A6976" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6977">
@@ -35555,7 +35555,7 @@
     </row>
     <row r="7025">
       <c r="A7025" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7026">
@@ -35570,7 +35570,7 @@
     </row>
     <row r="7028">
       <c r="A7028" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7029">
@@ -35670,12 +35670,12 @@
     </row>
     <row r="7048">
       <c r="A7048" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7049">
       <c r="A7049" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7050">
@@ -35815,7 +35815,7 @@
     </row>
     <row r="7077">
       <c r="A7077" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7078">
@@ -35875,7 +35875,7 @@
     </row>
     <row r="7089">
       <c r="A7089" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7090">
@@ -35890,7 +35890,7 @@
     </row>
     <row r="7092">
       <c r="A7092" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7093">
@@ -35900,7 +35900,7 @@
     </row>
     <row r="7094">
       <c r="A7094" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7095">
@@ -35930,7 +35930,7 @@
     </row>
     <row r="7100">
       <c r="A7100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7101">
@@ -36005,7 +36005,7 @@
     </row>
     <row r="7115">
       <c r="A7115" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7116">
@@ -36065,7 +36065,7 @@
     </row>
     <row r="7127">
       <c r="A7127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7128">
@@ -36085,7 +36085,7 @@
     </row>
     <row r="7131">
       <c r="A7131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7132">
@@ -36110,12 +36110,12 @@
     </row>
     <row r="7136">
       <c r="A7136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7137">
       <c r="A7137" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7138">
@@ -36145,7 +36145,7 @@
     </row>
     <row r="7143">
       <c r="A7143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7144">
@@ -36230,7 +36230,7 @@
     </row>
     <row r="7160">
       <c r="A7160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7161">
@@ -36250,12 +36250,12 @@
     </row>
     <row r="7164">
       <c r="A7164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7165">
       <c r="A7165" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7166">
@@ -36300,7 +36300,7 @@
     </row>
     <row r="7174">
       <c r="A7174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7175">
@@ -36350,7 +36350,7 @@
     </row>
     <row r="7184">
       <c r="A7184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7185">
@@ -36390,7 +36390,7 @@
     </row>
     <row r="7192">
       <c r="A7192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7193">
@@ -36420,7 +36420,7 @@
     </row>
     <row r="7198">
       <c r="A7198" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7199">
@@ -36445,7 +36445,7 @@
     </row>
     <row r="7203">
       <c r="A7203" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7204">
@@ -36490,7 +36490,7 @@
     </row>
     <row r="7212">
       <c r="A7212" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7213">
@@ -36510,7 +36510,7 @@
     </row>
     <row r="7216">
       <c r="A7216" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7217">
@@ -36625,7 +36625,7 @@
     </row>
     <row r="7239">
       <c r="A7239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7240">
@@ -36635,7 +36635,7 @@
     </row>
     <row r="7241">
       <c r="A7241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7242">
@@ -36650,7 +36650,7 @@
     </row>
     <row r="7244">
       <c r="A7244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7245">
@@ -36725,12 +36725,12 @@
     </row>
     <row r="7259">
       <c r="A7259" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7260">
       <c r="A7260" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7261">
@@ -36770,12 +36770,12 @@
     </row>
     <row r="7268">
       <c r="A7268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7269">
       <c r="A7269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7270">
@@ -36895,7 +36895,7 @@
     </row>
     <row r="7293">
       <c r="A7293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7294">
@@ -36940,7 +36940,7 @@
     </row>
     <row r="7302">
       <c r="A7302" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7303">
@@ -37030,7 +37030,7 @@
     </row>
     <row r="7320">
       <c r="A7320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7321">
@@ -37045,7 +37045,7 @@
     </row>
     <row r="7323">
       <c r="A7323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7324">
@@ -37175,7 +37175,7 @@
     </row>
     <row r="7349">
       <c r="A7349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7350">
@@ -37195,12 +37195,12 @@
     </row>
     <row r="7353">
       <c r="A7353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7354">
       <c r="A7354" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7355">
@@ -37310,7 +37310,7 @@
     </row>
     <row r="7376">
       <c r="A7376" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7377">
@@ -37350,7 +37350,7 @@
     </row>
     <row r="7384">
       <c r="A7384" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7385">
@@ -37360,7 +37360,7 @@
     </row>
     <row r="7386">
       <c r="A7386" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7387">
@@ -37395,17 +37395,17 @@
     </row>
     <row r="7393">
       <c r="A7393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7394">
       <c r="A7394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7395">
       <c r="A7395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7396">
@@ -37480,7 +37480,7 @@
     </row>
     <row r="7410">
       <c r="A7410" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7411">
@@ -37615,7 +37615,7 @@
     </row>
     <row r="7437">
       <c r="A7437" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7438">
@@ -37655,7 +37655,7 @@
     </row>
     <row r="7445">
       <c r="A7445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7446">
@@ -37665,7 +37665,7 @@
     </row>
     <row r="7447">
       <c r="A7447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7448">
@@ -37735,7 +37735,7 @@
     </row>
     <row r="7461">
       <c r="A7461" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7462">
@@ -37745,7 +37745,7 @@
     </row>
     <row r="7463">
       <c r="A7463" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7464">
@@ -37755,7 +37755,7 @@
     </row>
     <row r="7465">
       <c r="A7465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7466">
@@ -37810,7 +37810,7 @@
     </row>
     <row r="7476">
       <c r="A7476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7477">
@@ -37870,7 +37870,7 @@
     </row>
     <row r="7488">
       <c r="A7488" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7489">
@@ -37885,7 +37885,7 @@
     </row>
     <row r="7491">
       <c r="A7491" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7492">
@@ -37925,7 +37925,7 @@
     </row>
     <row r="7499">
       <c r="A7499" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7500">
@@ -37950,7 +37950,7 @@
     </row>
     <row r="7504">
       <c r="A7504" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7505">
@@ -37965,7 +37965,7 @@
     </row>
     <row r="7507">
       <c r="A7507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7508">
@@ -37990,7 +37990,7 @@
     </row>
     <row r="7512">
       <c r="A7512" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7513">
@@ -38010,7 +38010,7 @@
     </row>
     <row r="7516">
       <c r="A7516" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7517">
@@ -38040,7 +38040,7 @@
     </row>
     <row r="7522">
       <c r="A7522" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7523">
@@ -38075,7 +38075,7 @@
     </row>
     <row r="7529">
       <c r="A7529" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7530">
@@ -38095,7 +38095,7 @@
     </row>
     <row r="7533">
       <c r="A7533" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7534">
@@ -38195,7 +38195,7 @@
     </row>
     <row r="7553">
       <c r="A7553" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7554">
@@ -38205,12 +38205,12 @@
     </row>
     <row r="7555">
       <c r="A7555" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7556">
       <c r="A7556" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7557">
@@ -38225,7 +38225,7 @@
     </row>
     <row r="7559">
       <c r="A7559" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7560">
@@ -38275,7 +38275,7 @@
     </row>
     <row r="7569">
       <c r="A7569" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7570">
@@ -38310,7 +38310,7 @@
     </row>
     <row r="7576">
       <c r="A7576" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7577">
@@ -38320,7 +38320,7 @@
     </row>
     <row r="7578">
       <c r="A7578" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7579">
@@ -38340,17 +38340,17 @@
     </row>
     <row r="7582">
       <c r="A7582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7583">
       <c r="A7583" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7584">
       <c r="A7584" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7585">
@@ -38360,12 +38360,12 @@
     </row>
     <row r="7586">
       <c r="A7586" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7587">
       <c r="A7587" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7588">
@@ -38425,7 +38425,7 @@
     </row>
     <row r="7599">
       <c r="A7599" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7600">
@@ -38480,7 +38480,7 @@
     </row>
     <row r="7610">
       <c r="A7610" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7611">
@@ -38560,7 +38560,7 @@
     </row>
     <row r="7626">
       <c r="A7626" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7627">
@@ -38635,7 +38635,7 @@
     </row>
     <row r="7641">
       <c r="A7641" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7642">
@@ -38655,7 +38655,7 @@
     </row>
     <row r="7645">
       <c r="A7645" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7646">
@@ -38675,7 +38675,7 @@
     </row>
     <row r="7649">
       <c r="A7649" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7650">
@@ -38715,7 +38715,7 @@
     </row>
     <row r="7657">
       <c r="A7657" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7658">
@@ -38750,7 +38750,7 @@
     </row>
     <row r="7664">
       <c r="A7664" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7665">
@@ -38805,7 +38805,7 @@
     </row>
     <row r="7675">
       <c r="A7675" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7676">
@@ -38885,17 +38885,17 @@
     </row>
     <row r="7691">
       <c r="A7691" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7692">
       <c r="A7692" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7693">
       <c r="A7693" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7694">
@@ -39010,7 +39010,7 @@
     </row>
     <row r="7716">
       <c r="A7716" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7717">
@@ -39035,7 +39035,7 @@
     </row>
     <row r="7721">
       <c r="A7721" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7722">
@@ -39100,7 +39100,7 @@
     </row>
     <row r="7734">
       <c r="A7734" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7735">
@@ -39135,7 +39135,7 @@
     </row>
     <row r="7741">
       <c r="A7741" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7742">
@@ -39175,7 +39175,7 @@
     </row>
     <row r="7749">
       <c r="A7749" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7750">
@@ -39205,7 +39205,7 @@
     </row>
     <row r="7755">
       <c r="A7755" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7756">
@@ -39345,7 +39345,7 @@
     </row>
     <row r="7783">
       <c r="A7783" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7784">
@@ -39415,7 +39415,7 @@
     </row>
     <row r="7797">
       <c r="A7797" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7798">
@@ -39440,7 +39440,7 @@
     </row>
     <row r="7802">
       <c r="A7802" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7803">
@@ -39485,7 +39485,7 @@
     </row>
     <row r="7811">
       <c r="A7811" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7812">
@@ -39510,7 +39510,7 @@
     </row>
     <row r="7816">
       <c r="A7816" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7817">
@@ -39520,7 +39520,7 @@
     </row>
     <row r="7818">
       <c r="A7818" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7819">
@@ -39635,7 +39635,7 @@
     </row>
     <row r="7841">
       <c r="A7841" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7842">
@@ -39675,7 +39675,7 @@
     </row>
     <row r="7849">
       <c r="A7849" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7850">
@@ -39700,7 +39700,7 @@
     </row>
     <row r="7854">
       <c r="A7854" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7855">
@@ -39715,12 +39715,12 @@
     </row>
     <row r="7857">
       <c r="A7857" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7858">
       <c r="A7858" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7859">
@@ -39760,7 +39760,7 @@
     </row>
     <row r="7866">
       <c r="A7866" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7867">
@@ -39935,7 +39935,7 @@
     </row>
     <row r="7901">
       <c r="A7901" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7902">
@@ -39945,7 +39945,7 @@
     </row>
     <row r="7903">
       <c r="A7903" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7904">
@@ -40140,7 +40140,7 @@
     </row>
     <row r="7942">
       <c r="A7942" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7943">
@@ -40155,7 +40155,7 @@
     </row>
     <row r="7945">
       <c r="A7945" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7946">
@@ -40190,7 +40190,7 @@
     </row>
     <row r="7952">
       <c r="A7952" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7953">
@@ -40210,7 +40210,7 @@
     </row>
     <row r="7956">
       <c r="A7956" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7957">
@@ -40225,7 +40225,7 @@
     </row>
     <row r="7959">
       <c r="A7959" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7960">
@@ -40315,7 +40315,7 @@
     </row>
     <row r="7977">
       <c r="A7977" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7978">
@@ -40355,7 +40355,7 @@
     </row>
     <row r="7985">
       <c r="A7985" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7986">
@@ -40385,7 +40385,7 @@
     </row>
     <row r="7991">
       <c r="A7991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7992">
@@ -40395,7 +40395,7 @@
     </row>
     <row r="7993">
       <c r="A7993" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7994">
@@ -40415,7 +40415,7 @@
     </row>
     <row r="7997">
       <c r="A7997" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7998">
@@ -40450,7 +40450,7 @@
     </row>
     <row r="8004">
       <c r="A8004" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8005">
@@ -40565,7 +40565,7 @@
     </row>
     <row r="8027">
       <c r="A8027" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8028">
@@ -40645,7 +40645,7 @@
     </row>
     <row r="8043">
       <c r="A8043" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8044">
@@ -40710,7 +40710,7 @@
     </row>
     <row r="8056">
       <c r="A8056" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8057">
@@ -40730,7 +40730,7 @@
     </row>
     <row r="8060">
       <c r="A8060" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8061">
@@ -40750,7 +40750,7 @@
     </row>
     <row r="8064">
       <c r="A8064" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8065">
@@ -40795,7 +40795,7 @@
     </row>
     <row r="8073">
       <c r="A8073" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8074">
@@ -40870,7 +40870,7 @@
     </row>
     <row r="8088">
       <c r="A8088" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8089">
@@ -40885,7 +40885,7 @@
     </row>
     <row r="8091">
       <c r="A8091" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8092">
@@ -40925,12 +40925,12 @@
     </row>
     <row r="8099">
       <c r="A8099" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8100">
       <c r="A8100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8101">
@@ -41000,7 +41000,7 @@
     </row>
     <row r="8114">
       <c r="A8114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8115">
@@ -41045,7 +41045,7 @@
     </row>
     <row r="8123">
       <c r="A8123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8124">
@@ -41055,7 +41055,7 @@
     </row>
     <row r="8125">
       <c r="A8125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8126">
@@ -41095,7 +41095,7 @@
     </row>
     <row r="8133">
       <c r="A8133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8134">
@@ -41130,7 +41130,7 @@
     </row>
     <row r="8140">
       <c r="A8140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8141">
@@ -41150,7 +41150,7 @@
     </row>
     <row r="8144">
       <c r="A8144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8145">
@@ -41225,7 +41225,7 @@
     </row>
     <row r="8159">
       <c r="A8159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8160">
@@ -41360,12 +41360,12 @@
     </row>
     <row r="8186">
       <c r="A8186" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8187">
       <c r="A8187" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8188">
@@ -41380,7 +41380,7 @@
     </row>
     <row r="8190">
       <c r="A8190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8191">
@@ -41400,7 +41400,7 @@
     </row>
     <row r="8194">
       <c r="A8194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8195">
@@ -41515,7 +41515,7 @@
     </row>
     <row r="8217">
       <c r="A8217" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8218">
@@ -41550,7 +41550,7 @@
     </row>
     <row r="8224">
       <c r="A8224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8225">
@@ -41610,7 +41610,7 @@
     </row>
     <row r="8236">
       <c r="A8236" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8237">
@@ -41630,7 +41630,7 @@
     </row>
     <row r="8240">
       <c r="A8240" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8241">
@@ -41655,7 +41655,7 @@
     </row>
     <row r="8245">
       <c r="A8245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8246">
@@ -41700,12 +41700,12 @@
     </row>
     <row r="8254">
       <c r="A8254" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8255">
       <c r="A8255" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8256">
@@ -41800,7 +41800,7 @@
     </row>
     <row r="8274">
       <c r="A8274" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8275">
@@ -41870,7 +41870,7 @@
     </row>
     <row r="8288">
       <c r="A8288" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8289">
@@ -41925,7 +41925,7 @@
     </row>
     <row r="8299">
       <c r="A8299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8300">
@@ -41960,12 +41960,12 @@
     </row>
     <row r="8306">
       <c r="A8306" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8307">
       <c r="A8307" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8308">
@@ -42045,7 +42045,7 @@
     </row>
     <row r="8323">
       <c r="A8323" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8324">
@@ -42060,7 +42060,7 @@
     </row>
     <row r="8326">
       <c r="A8326" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8327">
@@ -42085,7 +42085,7 @@
     </row>
     <row r="8331">
       <c r="A8331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8332">
@@ -42110,7 +42110,7 @@
     </row>
     <row r="8336">
       <c r="A8336" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8337">
@@ -42140,7 +42140,7 @@
     </row>
     <row r="8342">
       <c r="A8342" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8343">
@@ -42155,7 +42155,7 @@
     </row>
     <row r="8345">
       <c r="A8345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8346">
@@ -42195,7 +42195,7 @@
     </row>
     <row r="8353">
       <c r="A8353" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8354">
@@ -42260,7 +42260,7 @@
     </row>
     <row r="8366">
       <c r="A8366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8367">
@@ -42270,7 +42270,7 @@
     </row>
     <row r="8368">
       <c r="A8368" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8369">
@@ -42300,7 +42300,7 @@
     </row>
     <row r="8374">
       <c r="A8374" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8375">
@@ -42380,7 +42380,7 @@
     </row>
     <row r="8390">
       <c r="A8390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8391">
@@ -42505,7 +42505,7 @@
     </row>
     <row r="8415">
       <c r="A8415" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8416">
@@ -42545,7 +42545,7 @@
     </row>
     <row r="8423">
       <c r="A8423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8424">
@@ -42560,7 +42560,7 @@
     </row>
     <row r="8426">
       <c r="A8426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8427">
@@ -42605,7 +42605,7 @@
     </row>
     <row r="8435">
       <c r="A8435" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8436">
@@ -42685,7 +42685,7 @@
     </row>
     <row r="8451">
       <c r="A8451" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8452">
@@ -42700,7 +42700,7 @@
     </row>
     <row r="8454">
       <c r="A8454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8455">
@@ -42710,7 +42710,7 @@
     </row>
     <row r="8456">
       <c r="A8456" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8457">
@@ -42775,12 +42775,12 @@
     </row>
     <row r="8469">
       <c r="A8469" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8470">
       <c r="A8470" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8471">
@@ -42815,7 +42815,7 @@
     </row>
     <row r="8477">
       <c r="A8477" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8478">
@@ -42860,7 +42860,7 @@
     </row>
     <row r="8486">
       <c r="A8486" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8487">
@@ -42920,7 +42920,7 @@
     </row>
     <row r="8498">
       <c r="A8498" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8499">
@@ -42980,12 +42980,12 @@
     </row>
     <row r="8510">
       <c r="A8510" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8511">
       <c r="A8511" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8512">
@@ -43045,12 +43045,12 @@
     </row>
     <row r="8523">
       <c r="A8523" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8524">
       <c r="A8524" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8525">
@@ -43065,7 +43065,7 @@
     </row>
     <row r="8527">
       <c r="A8527" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8528">
@@ -43075,17 +43075,17 @@
     </row>
     <row r="8529">
       <c r="A8529" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8530">
       <c r="A8530" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8531">
       <c r="A8531" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8532">
@@ -43100,7 +43100,7 @@
     </row>
     <row r="8534">
       <c r="A8534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8535">
@@ -43140,7 +43140,7 @@
     </row>
     <row r="8542">
       <c r="A8542" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8543">
@@ -43160,7 +43160,7 @@
     </row>
     <row r="8546">
       <c r="A8546" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8547">
@@ -43225,7 +43225,7 @@
     </row>
     <row r="8559">
       <c r="A8559" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8560">
@@ -43280,7 +43280,7 @@
     </row>
     <row r="8570">
       <c r="A8570" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8571">
@@ -43320,12 +43320,12 @@
     </row>
     <row r="8578">
       <c r="A8578" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8579">
       <c r="A8579" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8580">
@@ -43345,7 +43345,7 @@
     </row>
     <row r="8583">
       <c r="A8583" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8584">
@@ -43360,7 +43360,7 @@
     </row>
     <row r="8586">
       <c r="A8586" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8587">
@@ -43465,7 +43465,7 @@
     </row>
     <row r="8607">
       <c r="A8607" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8608">
@@ -43600,7 +43600,7 @@
     </row>
     <row r="8634">
       <c r="A8634" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8635">
@@ -43625,7 +43625,7 @@
     </row>
     <row r="8639">
       <c r="A8639" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8640">
@@ -43650,7 +43650,7 @@
     </row>
     <row r="8644">
       <c r="A8644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8645">
@@ -43760,7 +43760,7 @@
     </row>
     <row r="8666">
       <c r="A8666" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8667">
@@ -43845,7 +43845,7 @@
     </row>
     <row r="8683">
       <c r="A8683" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8684">
@@ -43925,7 +43925,7 @@
     </row>
     <row r="8699">
       <c r="A8699" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8700">
@@ -43990,7 +43990,7 @@
     </row>
     <row r="8712">
       <c r="A8712" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8713">
@@ -44005,7 +44005,7 @@
     </row>
     <row r="8715">
       <c r="A8715" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8716">
@@ -44030,7 +44030,7 @@
     </row>
     <row r="8720">
       <c r="A8720" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8721">
@@ -44065,7 +44065,7 @@
     </row>
     <row r="8727">
       <c r="A8727" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8728">
@@ -44170,7 +44170,7 @@
     </row>
     <row r="8748">
       <c r="A8748" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8749">
@@ -44185,7 +44185,7 @@
     </row>
     <row r="8751">
       <c r="A8751" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8752">
@@ -44285,7 +44285,7 @@
     </row>
     <row r="8771">
       <c r="A8771" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8772">
@@ -44325,12 +44325,12 @@
     </row>
     <row r="8779">
       <c r="A8779" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8780">
       <c r="A8780" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8781">
